--- a/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
+++ b/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
@@ -2257,11 +2257,11 @@
         <v>32920</v>
       </c>
       <c r="B114" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D114" s="2" t="n">
@@ -2401,11 +2401,11 @@
         <v>34847</v>
       </c>
       <c r="B123" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D123" s="2" t="n">
@@ -4961,11 +4961,11 @@
         <v>61171</v>
       </c>
       <c r="B283" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D283" s="2" t="n">
@@ -5025,11 +5025,11 @@
         <v>61259</v>
       </c>
       <c r="B287" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D287" s="2" t="n">
@@ -6785,11 +6785,11 @@
         <v>74439</v>
       </c>
       <c r="B397" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D397" s="2" t="n">
@@ -8327,7 +8327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8354,7 +8354,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3">
@@ -8374,7 +8374,17 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Por Reprogramar</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
+++ b/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
@@ -833,11 +833,11 @@
         <v>14902</v>
       </c>
       <c r="B25" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
@@ -1425,11 +1425,11 @@
         <v>23658</v>
       </c>
       <c r="B62" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D62" s="2" t="n">
@@ -2321,11 +2321,11 @@
         <v>34010</v>
       </c>
       <c r="B118" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D118" s="2" t="n">
@@ -2625,11 +2625,11 @@
         <v>36659</v>
       </c>
       <c r="B137" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D137" s="2" t="n">
@@ -4417,11 +4417,11 @@
         <v>54552</v>
       </c>
       <c r="B249" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D249" s="2" t="n">
@@ -8354,7 +8354,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3">
@@ -8374,7 +8374,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">

--- a/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
+++ b/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
@@ -2721,11 +2721,11 @@
         <v>37471</v>
       </c>
       <c r="B143" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D143" s="2" t="n">
@@ -7185,11 +7185,11 @@
         <v>76334</v>
       </c>
       <c r="B422" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D422" s="2" t="n">
@@ -7729,11 +7729,11 @@
         <v>79154</v>
       </c>
       <c r="B456" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D456" s="2" t="n">
@@ -8354,7 +8354,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3">
@@ -8374,7 +8374,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -8384,7 +8384,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
+++ b/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
@@ -1601,11 +1601,11 @@
         <v>27110</v>
       </c>
       <c r="B73" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D73" s="2" t="n">
@@ -1921,11 +1921,11 @@
         <v>29767</v>
       </c>
       <c r="B93" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D93" s="2" t="n">
@@ -8354,7 +8354,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3">
@@ -8374,7 +8374,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -8384,7 +8384,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
+++ b/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
@@ -4545,11 +4545,11 @@
         <v>55847</v>
       </c>
       <c r="B257" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D257" s="2" t="n">
@@ -5889,11 +5889,11 @@
         <v>70446</v>
       </c>
       <c r="B341" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D341" s="2" t="n">
@@ -7057,11 +7057,11 @@
         <v>75660</v>
       </c>
       <c r="B414" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D414" s="2" t="n">
@@ -7953,11 +7953,11 @@
         <v>79660</v>
       </c>
       <c r="B470" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D470" s="2" t="n">
@@ -8113,11 +8113,11 @@
         <v>80072</v>
       </c>
       <c r="B480" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D480" s="2" t="n">
@@ -8354,7 +8354,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3">
@@ -8374,7 +8374,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -8384,7 +8384,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
+++ b/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
@@ -5777,11 +5777,11 @@
         <v>69516</v>
       </c>
       <c r="B334" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D334" s="2" t="n">
@@ -8354,7 +8354,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3">
@@ -8374,7 +8374,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">

--- a/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
+++ b/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
@@ -593,11 +593,11 @@
         <v>10419</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
@@ -4593,11 +4593,11 @@
         <v>56905</v>
       </c>
       <c r="B260" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D260" s="2" t="n">
@@ -5745,11 +5745,11 @@
         <v>69406</v>
       </c>
       <c r="B332" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D332" s="2" t="n">
@@ -7985,11 +7985,11 @@
         <v>79809</v>
       </c>
       <c r="B472" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D472" s="2" t="n">
@@ -8354,7 +8354,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3">
@@ -8374,7 +8374,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
@@ -8384,7 +8384,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
+++ b/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
@@ -1729,11 +1729,11 @@
         <v>28238</v>
       </c>
       <c r="B81" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D81" s="2" t="n">
@@ -2065,11 +2065,11 @@
         <v>30556</v>
       </c>
       <c r="B102" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D102" s="2" t="n">
@@ -2529,11 +2529,11 @@
         <v>35953</v>
       </c>
       <c r="B131" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D131" s="2" t="n">
@@ -4849,11 +4849,11 @@
         <v>59960</v>
       </c>
       <c r="B276" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D276" s="2" t="n">
@@ -5825,11 +5825,11 @@
         <v>69659</v>
       </c>
       <c r="B337" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D337" s="2" t="n">
@@ -8354,7 +8354,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3">
@@ -8374,7 +8374,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
@@ -8384,7 +8384,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
+++ b/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
@@ -1537,11 +1537,11 @@
         <v>25882</v>
       </c>
       <c r="B69" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D69" s="2" t="n">
@@ -8354,7 +8354,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3">
@@ -8384,7 +8384,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
+++ b/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
@@ -4481,11 +4481,11 @@
         <v>55289</v>
       </c>
       <c r="B253" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D253" s="2" t="n">
@@ -8354,7 +8354,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3">
@@ -8374,7 +8374,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">

--- a/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
+++ b/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
@@ -785,11 +785,11 @@
         <v>13806</v>
       </c>
       <c r="B22" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
@@ -8354,7 +8354,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3">
@@ -8384,7 +8384,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
+++ b/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
@@ -673,11 +673,11 @@
         <v>12321</v>
       </c>
       <c r="B15" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
@@ -1249,11 +1249,11 @@
         <v>21097</v>
       </c>
       <c r="B51" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
@@ -4817,11 +4817,11 @@
         <v>59623</v>
       </c>
       <c r="B274" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D274" s="2" t="n">
@@ -6081,11 +6081,11 @@
         <v>70978</v>
       </c>
       <c r="B353" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D353" s="2" t="n">
@@ -6337,11 +6337,11 @@
         <v>72219</v>
       </c>
       <c r="B369" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D369" s="2" t="n">
@@ -7681,11 +7681,11 @@
         <v>78403</v>
       </c>
       <c r="B453" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D453" s="2" t="n">
@@ -8354,7 +8354,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3">
@@ -8374,7 +8374,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
@@ -8384,7 +8384,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
+++ b/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D492"/>
+  <dimension ref="A1:D486"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1249,11 +1249,11 @@
         <v>21097</v>
       </c>
       <c r="B51" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>45880</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="70">
@@ -1585,11 +1585,11 @@
         <v>27011</v>
       </c>
       <c r="B72" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D72" s="2" t="n">
@@ -1870,7 +1870,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>28951</v>
+        <v>29138</v>
       </c>
       <c r="B90" t="n">
         <v>9</v>
@@ -1881,60 +1881,60 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>45888</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>29138</v>
+        <v>29309</v>
       </c>
       <c r="B91" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>45891</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>29309</v>
+        <v>29767</v>
       </c>
       <c r="B92" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>45902</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>29767</v>
+        <v>30082</v>
       </c>
       <c r="B93" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>45880</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>30082</v>
+        <v>30149</v>
       </c>
       <c r="B94" t="n">
         <v>9</v>
@@ -1945,12 +1945,12 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>45884</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>30149</v>
+        <v>30280</v>
       </c>
       <c r="B95" t="n">
         <v>9</v>
@@ -1961,12 +1961,12 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>45882</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>30280</v>
+        <v>30293</v>
       </c>
       <c r="B96" t="n">
         <v>9</v>
@@ -1977,12 +1977,12 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>45888</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>30293</v>
+        <v>30285</v>
       </c>
       <c r="B97" t="n">
         <v>9</v>
@@ -1993,44 +1993,44 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>45896</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>30285</v>
+        <v>30464</v>
       </c>
       <c r="B98" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>45883</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>30464</v>
+        <v>30301</v>
       </c>
       <c r="B99" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>45911</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>30301</v>
+        <v>30572</v>
       </c>
       <c r="B100" t="n">
         <v>9</v>
@@ -2041,76 +2041,76 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>45889</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>30572</v>
+        <v>30556</v>
       </c>
       <c r="B101" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>45884</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>30556</v>
+        <v>30736</v>
       </c>
       <c r="B102" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>45880</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>30736</v>
+        <v>30845</v>
       </c>
       <c r="B103" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>45896</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>30845</v>
+        <v>31007</v>
       </c>
       <c r="B104" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>45908</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>31007</v>
+        <v>31122</v>
       </c>
       <c r="B105" t="n">
         <v>9</v>
@@ -2121,12 +2121,12 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>45890</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>31122</v>
+        <v>31353</v>
       </c>
       <c r="B106" t="n">
         <v>9</v>
@@ -2137,44 +2137,44 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>45883</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>31353</v>
+        <v>31446</v>
       </c>
       <c r="B107" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>45895</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>31446</v>
+        <v>31351</v>
       </c>
       <c r="B108" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>45902</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>31351</v>
+        <v>31668</v>
       </c>
       <c r="B109" t="n">
         <v>9</v>
@@ -2185,12 +2185,12 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>45891</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>31668</v>
+        <v>31765</v>
       </c>
       <c r="B110" t="n">
         <v>9</v>
@@ -2206,7 +2206,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>31765</v>
+        <v>31766</v>
       </c>
       <c r="B111" t="n">
         <v>9</v>
@@ -2217,12 +2217,12 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>45895</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>31766</v>
+        <v>32927</v>
       </c>
       <c r="B112" t="n">
         <v>9</v>
@@ -2233,60 +2233,60 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>45898</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>32927</v>
+        <v>32920</v>
       </c>
       <c r="B113" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>45890</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>32920</v>
+        <v>33413</v>
       </c>
       <c r="B114" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>45880</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>33413</v>
+        <v>33404</v>
       </c>
       <c r="B115" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>45881</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>33404</v>
+        <v>33777</v>
       </c>
       <c r="B116" t="n">
         <v>2</v>
@@ -2297,172 +2297,172 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>45901</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>33777</v>
+        <v>34010</v>
       </c>
       <c r="B117" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>45896</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>34010</v>
+        <v>34266</v>
       </c>
       <c r="B118" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>45891</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>34266</v>
+        <v>34267</v>
       </c>
       <c r="B119" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>45903</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>34267</v>
+        <v>34520</v>
       </c>
       <c r="B120" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>45897</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>34520</v>
+        <v>34786</v>
       </c>
       <c r="B121" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>45903</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>34786</v>
+        <v>34847</v>
       </c>
       <c r="B122" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>45891</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>34847</v>
+        <v>34922</v>
       </c>
       <c r="B123" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>45880</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>34922</v>
+        <v>35150</v>
       </c>
       <c r="B124" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>45905</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>35150</v>
+        <v>35302</v>
       </c>
       <c r="B125" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>45889</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>35302</v>
+        <v>35402</v>
       </c>
       <c r="B126" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>45901</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>35402</v>
+        <v>35525</v>
       </c>
       <c r="B127" t="n">
         <v>9</v>
@@ -2473,92 +2473,92 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>45891</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>35525</v>
+        <v>35717</v>
       </c>
       <c r="B128" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>45895</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>35717</v>
+        <v>35708</v>
       </c>
       <c r="B129" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>45901</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>35708</v>
+        <v>35953</v>
       </c>
       <c r="B130" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>45895</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>35953</v>
+        <v>36209</v>
       </c>
       <c r="B131" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>45880</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>36209</v>
+        <v>36212</v>
       </c>
       <c r="B132" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>45901</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>36212</v>
+        <v>36428</v>
       </c>
       <c r="B133" t="n">
         <v>9</v>
@@ -2569,28 +2569,28 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>45890</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>36428</v>
+        <v>36434</v>
       </c>
       <c r="B134" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>45894</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>36434</v>
+        <v>36435</v>
       </c>
       <c r="B135" t="n">
         <v>2</v>
@@ -2601,172 +2601,172 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>45904</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>36435</v>
+        <v>36659</v>
       </c>
       <c r="B136" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>45901</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>36659</v>
+        <v>36851</v>
       </c>
       <c r="B137" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>45880</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>36851</v>
+        <v>36971</v>
       </c>
       <c r="B138" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>45883</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>36971</v>
+        <v>37125</v>
       </c>
       <c r="B139" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>45922</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>37125</v>
+        <v>37302</v>
       </c>
       <c r="B140" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>45894</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>37302</v>
+        <v>37477</v>
       </c>
       <c r="B141" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>45901</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>37477</v>
+        <v>37471</v>
       </c>
       <c r="B142" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>45897</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>37471</v>
+        <v>37567</v>
       </c>
       <c r="B143" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>45880</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>37567</v>
+        <v>37568</v>
       </c>
       <c r="B144" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>45898</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>37568</v>
+        <v>37696</v>
       </c>
       <c r="B145" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>45908</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>37696</v>
+        <v>37904</v>
       </c>
       <c r="B146" t="n">
         <v>9</v>
@@ -2777,12 +2777,12 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>45895</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>37904</v>
+        <v>37698</v>
       </c>
       <c r="B147" t="n">
         <v>9</v>
@@ -2793,12 +2793,12 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>45888</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>37698</v>
+        <v>37707</v>
       </c>
       <c r="B148" t="n">
         <v>9</v>
@@ -2809,12 +2809,12 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>45891</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>37707</v>
+        <v>37708</v>
       </c>
       <c r="B149" t="n">
         <v>9</v>
@@ -2825,60 +2825,60 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>45890</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>37708</v>
+        <v>37784</v>
       </c>
       <c r="B150" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>45891</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>37784</v>
+        <v>37900</v>
       </c>
       <c r="B151" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>45901</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>37900</v>
+        <v>38038</v>
       </c>
       <c r="B152" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>45894</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>38038</v>
+        <v>38127</v>
       </c>
       <c r="B153" t="n">
         <v>2</v>
@@ -2889,12 +2889,12 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>45898</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>38127</v>
+        <v>38226</v>
       </c>
       <c r="B154" t="n">
         <v>2</v>
@@ -2905,44 +2905,44 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>45904</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>38226</v>
+        <v>38257</v>
       </c>
       <c r="B155" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>45924</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>38257</v>
+        <v>38604</v>
       </c>
       <c r="B156" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>45903</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>38604</v>
+        <v>38647</v>
       </c>
       <c r="B157" t="n">
         <v>9</v>
@@ -2953,12 +2953,12 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>45884</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>38647</v>
+        <v>39131</v>
       </c>
       <c r="B158" t="n">
         <v>9</v>
@@ -2969,28 +2969,28 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>45883</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>39131</v>
+        <v>38644</v>
       </c>
       <c r="B159" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>45888</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>38644</v>
+        <v>39089</v>
       </c>
       <c r="B160" t="n">
         <v>2</v>
@@ -3001,12 +3001,12 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>45898</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>39089</v>
+        <v>39218</v>
       </c>
       <c r="B161" t="n">
         <v>2</v>
@@ -3017,60 +3017,60 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>45904</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>39218</v>
+        <v>39215</v>
       </c>
       <c r="B162" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>45909</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>39215</v>
+        <v>39461</v>
       </c>
       <c r="B163" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>45884</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>39461</v>
+        <v>39437</v>
       </c>
       <c r="B164" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>45908</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>39437</v>
+        <v>39465</v>
       </c>
       <c r="B165" t="n">
         <v>9</v>
@@ -3081,60 +3081,60 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>45888</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>39465</v>
+        <v>39890</v>
       </c>
       <c r="B166" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>45894</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>39890</v>
+        <v>39891</v>
       </c>
       <c r="B167" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>45905</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>39891</v>
+        <v>40140</v>
       </c>
       <c r="B168" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>45897</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>40140</v>
+        <v>40185</v>
       </c>
       <c r="B169" t="n">
         <v>2</v>
@@ -3145,12 +3145,12 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>45905</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>40185</v>
+        <v>40186</v>
       </c>
       <c r="B170" t="n">
         <v>2</v>
@@ -3161,12 +3161,12 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>45909</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>40186</v>
+        <v>40389</v>
       </c>
       <c r="B171" t="n">
         <v>2</v>
@@ -3177,12 +3177,12 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>45908</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>40389</v>
+        <v>40590</v>
       </c>
       <c r="B172" t="n">
         <v>2</v>
@@ -3193,12 +3193,12 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>45896</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>40590</v>
+        <v>40843</v>
       </c>
       <c r="B173" t="n">
         <v>2</v>
@@ -3214,23 +3214,23 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>40843</v>
+        <v>41272</v>
       </c>
       <c r="B174" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>45904</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>41272</v>
+        <v>41407</v>
       </c>
       <c r="B175" t="n">
         <v>9</v>
@@ -3241,12 +3241,12 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>45895</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>41407</v>
+        <v>41616</v>
       </c>
       <c r="B176" t="n">
         <v>9</v>
@@ -3262,7 +3262,7 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>41616</v>
+        <v>41532</v>
       </c>
       <c r="B177" t="n">
         <v>9</v>
@@ -3273,12 +3273,12 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>45882</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>41532</v>
+        <v>41734</v>
       </c>
       <c r="B178" t="n">
         <v>9</v>
@@ -3289,44 +3289,44 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>45894</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>41734</v>
+        <v>41622</v>
       </c>
       <c r="B179" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>45895</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>41622</v>
+        <v>42031</v>
       </c>
       <c r="B180" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>45908</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>42031</v>
+        <v>42358</v>
       </c>
       <c r="B181" t="n">
         <v>9</v>
@@ -3337,44 +3337,44 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>45895</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>42358</v>
+        <v>42637</v>
       </c>
       <c r="B182" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>45889</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>42637</v>
+        <v>42887</v>
       </c>
       <c r="B183" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>45904</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>42887</v>
+        <v>43004</v>
       </c>
       <c r="B184" t="n">
         <v>9</v>
@@ -3385,44 +3385,44 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>45896</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>43004</v>
+        <v>43140</v>
       </c>
       <c r="B185" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>45884</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>43140</v>
+        <v>43256</v>
       </c>
       <c r="B186" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>45902</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>43256</v>
+        <v>43723</v>
       </c>
       <c r="B187" t="n">
         <v>9</v>
@@ -3433,28 +3433,28 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>45883</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>43723</v>
+        <v>44102</v>
       </c>
       <c r="B188" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>45889</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>44102</v>
+        <v>44103</v>
       </c>
       <c r="B189" t="n">
         <v>2</v>
@@ -3465,12 +3465,12 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>45902</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>44103</v>
+        <v>44877</v>
       </c>
       <c r="B190" t="n">
         <v>2</v>
@@ -3481,12 +3481,12 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>45904</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>44877</v>
+        <v>45134</v>
       </c>
       <c r="B191" t="n">
         <v>2</v>
@@ -3497,12 +3497,12 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>45897</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>45134</v>
+        <v>45335</v>
       </c>
       <c r="B192" t="n">
         <v>2</v>
@@ -3513,12 +3513,12 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>45904</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>45335</v>
+        <v>45586</v>
       </c>
       <c r="B193" t="n">
         <v>2</v>
@@ -3529,28 +3529,28 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>45901</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>45586</v>
+        <v>45583</v>
       </c>
       <c r="B194" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>45902</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>45583</v>
+        <v>45585</v>
       </c>
       <c r="B195" t="n">
         <v>9</v>
@@ -3561,28 +3561,28 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>45889</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>45585</v>
+        <v>45967</v>
       </c>
       <c r="B196" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>45896</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>45967</v>
+        <v>46082</v>
       </c>
       <c r="B197" t="n">
         <v>2</v>
@@ -3593,76 +3593,76 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>45902</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>46082</v>
+        <v>46209</v>
       </c>
       <c r="B198" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>45901</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>46209</v>
+        <v>46380</v>
       </c>
       <c r="B199" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>45896</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>46380</v>
+        <v>46208</v>
       </c>
       <c r="B200" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>45909</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>46208</v>
+        <v>46636</v>
       </c>
       <c r="B201" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>45881</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>46636</v>
+        <v>46638</v>
       </c>
       <c r="B202" t="n">
         <v>2</v>
@@ -3673,12 +3673,12 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>45909</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>46638</v>
+        <v>46895</v>
       </c>
       <c r="B203" t="n">
         <v>2</v>
@@ -3689,12 +3689,12 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>45904</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>46895</v>
+        <v>46734</v>
       </c>
       <c r="B204" t="n">
         <v>2</v>
@@ -3705,12 +3705,12 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>45902</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>46734</v>
+        <v>46990</v>
       </c>
       <c r="B205" t="n">
         <v>2</v>
@@ -3721,12 +3721,12 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>45901</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>46990</v>
+        <v>47096</v>
       </c>
       <c r="B206" t="n">
         <v>2</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>45909</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>47096</v>
+        <v>47093</v>
       </c>
       <c r="B207" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>45901</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>47093</v>
+        <v>47362</v>
       </c>
       <c r="B208" t="n">
         <v>9</v>
@@ -3769,76 +3769,76 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>45882</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>47362</v>
+        <v>48263</v>
       </c>
       <c r="B209" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>45890</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>48263</v>
+        <v>48093</v>
       </c>
       <c r="B210" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>45904</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>48093</v>
+        <v>48745</v>
       </c>
       <c r="B211" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>45882</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>48745</v>
+        <v>49071</v>
       </c>
       <c r="B212" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>45901</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>49071</v>
+        <v>49191</v>
       </c>
       <c r="B213" t="n">
         <v>9</v>
@@ -3849,12 +3849,12 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>45888</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>49191</v>
+        <v>49189</v>
       </c>
       <c r="B214" t="n">
         <v>9</v>
@@ -3865,12 +3865,12 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>45890</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>49189</v>
+        <v>49301</v>
       </c>
       <c r="B215" t="n">
         <v>9</v>
@@ -3886,7 +3886,7 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>49301</v>
+        <v>49302</v>
       </c>
       <c r="B216" t="n">
         <v>9</v>
@@ -3897,12 +3897,12 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>45891</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>49302</v>
+        <v>49917</v>
       </c>
       <c r="B217" t="n">
         <v>9</v>
@@ -3913,12 +3913,12 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>45890</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>49917</v>
+        <v>49647</v>
       </c>
       <c r="B218" t="n">
         <v>9</v>
@@ -3929,12 +3929,12 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>45883</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>49647</v>
+        <v>49746</v>
       </c>
       <c r="B219" t="n">
         <v>9</v>
@@ -3945,12 +3945,12 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>45884</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>49746</v>
+        <v>49924</v>
       </c>
       <c r="B220" t="n">
         <v>9</v>
@@ -3966,71 +3966,71 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>49924</v>
+        <v>50308</v>
       </c>
       <c r="B221" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>45889</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>50308</v>
+        <v>50310</v>
       </c>
       <c r="B222" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>45909</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>50310</v>
+        <v>50309</v>
       </c>
       <c r="B223" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>45891</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>50309</v>
+        <v>50574</v>
       </c>
       <c r="B224" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>45903</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>50574</v>
+        <v>50575</v>
       </c>
       <c r="B225" t="n">
         <v>9</v>
@@ -4041,12 +4041,12 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>45882</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>50575</v>
+        <v>50705</v>
       </c>
       <c r="B226" t="n">
         <v>9</v>
@@ -4057,44 +4057,44 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>45888</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>50705</v>
+        <v>50704</v>
       </c>
       <c r="B227" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>45889</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>50704</v>
+        <v>50818</v>
       </c>
       <c r="B228" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>45881</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>50818</v>
+        <v>51156</v>
       </c>
       <c r="B229" t="n">
         <v>2</v>
@@ -4105,28 +4105,28 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>45902</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>51156</v>
+        <v>51409</v>
       </c>
       <c r="B230" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>45910</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>51409</v>
+        <v>51412</v>
       </c>
       <c r="B231" t="n">
         <v>9</v>
@@ -4137,12 +4137,12 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>45889</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>51412</v>
+        <v>51506</v>
       </c>
       <c r="B232" t="n">
         <v>9</v>
@@ -4153,12 +4153,12 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>45882</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>51506</v>
+        <v>51581</v>
       </c>
       <c r="B233" t="n">
         <v>9</v>
@@ -4169,12 +4169,12 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>45897</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>51581</v>
+        <v>52216</v>
       </c>
       <c r="B234" t="n">
         <v>9</v>
@@ -4190,7 +4190,7 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>52216</v>
+        <v>52213</v>
       </c>
       <c r="B235" t="n">
         <v>9</v>
@@ -4206,7 +4206,7 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>52213</v>
+        <v>52286</v>
       </c>
       <c r="B236" t="n">
         <v>9</v>
@@ -4217,12 +4217,12 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>45894</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>52286</v>
+        <v>52283</v>
       </c>
       <c r="B237" t="n">
         <v>9</v>
@@ -4233,12 +4233,12 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>45898</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>52283</v>
+        <v>52353</v>
       </c>
       <c r="B238" t="n">
         <v>9</v>
@@ -4249,12 +4249,12 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>45895</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>52353</v>
+        <v>52601</v>
       </c>
       <c r="B239" t="n">
         <v>9</v>
@@ -4265,12 +4265,12 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>45889</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>52601</v>
+        <v>53159</v>
       </c>
       <c r="B240" t="n">
         <v>9</v>
@@ -4281,12 +4281,12 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>45883</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>53159</v>
+        <v>52714</v>
       </c>
       <c r="B241" t="n">
         <v>9</v>
@@ -4297,12 +4297,12 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>45891</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>52714</v>
+        <v>52965</v>
       </c>
       <c r="B242" t="n">
         <v>9</v>
@@ -4313,12 +4313,12 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>45883</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>52965</v>
+        <v>53402</v>
       </c>
       <c r="B243" t="n">
         <v>9</v>
@@ -4329,12 +4329,12 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>45896</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>53402</v>
+        <v>53501</v>
       </c>
       <c r="B244" t="n">
         <v>9</v>
@@ -4345,12 +4345,12 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>45883</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>53501</v>
+        <v>53696</v>
       </c>
       <c r="B245" t="n">
         <v>9</v>
@@ -4361,12 +4361,12 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>45891</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>53696</v>
+        <v>53622</v>
       </c>
       <c r="B246" t="n">
         <v>9</v>
@@ -4377,12 +4377,12 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>45898</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>53622</v>
+        <v>53813</v>
       </c>
       <c r="B247" t="n">
         <v>9</v>
@@ -4393,108 +4393,108 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>45888</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>53813</v>
+        <v>54552</v>
       </c>
       <c r="B248" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>45888</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>54552</v>
+        <v>54665</v>
       </c>
       <c r="B249" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>45882</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>54665</v>
+        <v>54669</v>
       </c>
       <c r="B250" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>45888</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>54669</v>
+        <v>54667</v>
       </c>
       <c r="B251" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>45910</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>54667</v>
+        <v>55289</v>
       </c>
       <c r="B252" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>45895</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>55289</v>
+        <v>55292</v>
       </c>
       <c r="B253" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>45881</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>55292</v>
+        <v>55760</v>
       </c>
       <c r="B254" t="n">
         <v>2</v>
@@ -4505,60 +4505,60 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>45903</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>55760</v>
+        <v>55761</v>
       </c>
       <c r="B255" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>45904</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>55761</v>
+        <v>55847</v>
       </c>
       <c r="B256" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>45884</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>55847</v>
+        <v>56088</v>
       </c>
       <c r="B257" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>45880</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>56088</v>
+        <v>56388</v>
       </c>
       <c r="B258" t="n">
         <v>9</v>
@@ -4569,44 +4569,44 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>45890</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>56388</v>
+        <v>56905</v>
       </c>
       <c r="B259" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>45896</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>56905</v>
+        <v>56908</v>
       </c>
       <c r="B260" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>45880</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>56908</v>
+        <v>56946</v>
       </c>
       <c r="B261" t="n">
         <v>9</v>
@@ -4617,76 +4617,76 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>45890</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>56946</v>
+        <v>57038</v>
       </c>
       <c r="B262" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>45883</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>57038</v>
+        <v>57194</v>
       </c>
       <c r="B263" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>45901</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>57194</v>
+        <v>57596</v>
       </c>
       <c r="B264" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>45890</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>57596</v>
+        <v>57660</v>
       </c>
       <c r="B265" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>45898</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>57660</v>
+        <v>58293</v>
       </c>
       <c r="B266" t="n">
         <v>9</v>
@@ -4697,12 +4697,12 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>45890</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>58293</v>
+        <v>58472</v>
       </c>
       <c r="B267" t="n">
         <v>9</v>
@@ -4713,60 +4713,60 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>45884</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>58472</v>
+        <v>58490</v>
       </c>
       <c r="B268" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>45890</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>58490</v>
+        <v>58483</v>
       </c>
       <c r="B269" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>45903</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>58483</v>
+        <v>58835</v>
       </c>
       <c r="B270" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>45890</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>58835</v>
+        <v>58841</v>
       </c>
       <c r="B271" t="n">
         <v>2</v>
@@ -4777,92 +4777,92 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>45902</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>58841</v>
+        <v>59103</v>
       </c>
       <c r="B272" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>45903</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>59103</v>
+        <v>59623</v>
       </c>
       <c r="B273" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>45891</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>59623</v>
+        <v>59804</v>
       </c>
       <c r="B274" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>45881</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>59804</v>
+        <v>59960</v>
       </c>
       <c r="B275" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>45898</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>59960</v>
+        <v>60649</v>
       </c>
       <c r="B276" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>45880</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>60649</v>
+        <v>60650</v>
       </c>
       <c r="B277" t="n">
         <v>9</v>
@@ -4873,12 +4873,12 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>45895</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>60650</v>
+        <v>60651</v>
       </c>
       <c r="B278" t="n">
         <v>9</v>
@@ -4894,7 +4894,7 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>60651</v>
+        <v>60784</v>
       </c>
       <c r="B279" t="n">
         <v>9</v>
@@ -4905,12 +4905,12 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>45881</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>60784</v>
+        <v>60787</v>
       </c>
       <c r="B280" t="n">
         <v>9</v>
@@ -4921,12 +4921,12 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>45882</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>60787</v>
+        <v>61109</v>
       </c>
       <c r="B281" t="n">
         <v>9</v>
@@ -4937,44 +4937,44 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>45896</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>61109</v>
+        <v>61171</v>
       </c>
       <c r="B282" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>45889</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>61171</v>
+        <v>61175</v>
       </c>
       <c r="B283" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>45880</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>61175</v>
+        <v>61169</v>
       </c>
       <c r="B284" t="n">
         <v>2</v>
@@ -4985,188 +4985,188 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>45904</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>61169</v>
+        <v>61172</v>
       </c>
       <c r="B285" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>45903</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>61172</v>
+        <v>61259</v>
       </c>
       <c r="B286" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>45894</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>61259</v>
+        <v>61335</v>
       </c>
       <c r="B287" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>45880</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>61335</v>
+        <v>61333</v>
       </c>
       <c r="B288" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>45897</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>61333</v>
+        <v>61399</v>
       </c>
       <c r="B289" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>45884</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>61399</v>
+        <v>61945</v>
       </c>
       <c r="B290" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>45908</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>61945</v>
+        <v>62250</v>
       </c>
       <c r="B291" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>45895</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>62250</v>
+        <v>62372</v>
       </c>
       <c r="B292" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>45903</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>62372</v>
+        <v>63729</v>
       </c>
       <c r="B293" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>45895</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>63729</v>
+        <v>62822</v>
       </c>
       <c r="B294" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>45910</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>62822</v>
+        <v>63122</v>
       </c>
       <c r="B295" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>45897</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>63122</v>
+        <v>63344</v>
       </c>
       <c r="B296" t="n">
         <v>2</v>
@@ -5177,28 +5177,28 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>45898</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>63344</v>
+        <v>64512</v>
       </c>
       <c r="B297" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>45904</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>64512</v>
+        <v>65044</v>
       </c>
       <c r="B298" t="n">
         <v>9</v>
@@ -5209,12 +5209,12 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>45882</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>65044</v>
+        <v>65202</v>
       </c>
       <c r="B299" t="n">
         <v>9</v>
@@ -5225,12 +5225,12 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>45888</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>65202</v>
+        <v>65203</v>
       </c>
       <c r="B300" t="n">
         <v>9</v>
@@ -5241,28 +5241,28 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>45882</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>65203</v>
+        <v>65423</v>
       </c>
       <c r="B301" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>45897</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>65423</v>
+        <v>65856</v>
       </c>
       <c r="B302" t="n">
         <v>2</v>
@@ -5273,12 +5273,12 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>45905</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>65856</v>
+        <v>66071</v>
       </c>
       <c r="B303" t="n">
         <v>2</v>
@@ -5289,12 +5289,12 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>45904</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>66071</v>
+        <v>66376</v>
       </c>
       <c r="B304" t="n">
         <v>2</v>
@@ -5305,44 +5305,44 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>45903</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>66376</v>
+        <v>66546</v>
       </c>
       <c r="B305" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>45905</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>66546</v>
+        <v>66547</v>
       </c>
       <c r="B306" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>45884</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>66547</v>
+        <v>66551</v>
       </c>
       <c r="B307" t="n">
         <v>2</v>
@@ -5358,23 +5358,23 @@
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>66551</v>
+        <v>67191</v>
       </c>
       <c r="B308" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>45902</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>67191</v>
+        <v>67411</v>
       </c>
       <c r="B309" t="n">
         <v>9</v>
@@ -5385,12 +5385,12 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>45895</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>67411</v>
+        <v>67413</v>
       </c>
       <c r="B310" t="n">
         <v>9</v>
@@ -5401,12 +5401,12 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>45889</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>67413</v>
+        <v>67471</v>
       </c>
       <c r="B311" t="n">
         <v>9</v>
@@ -5417,12 +5417,12 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>45884</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>67471</v>
+        <v>67522</v>
       </c>
       <c r="B312" t="n">
         <v>9</v>
@@ -5433,12 +5433,12 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>45889</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>67522</v>
+        <v>67718</v>
       </c>
       <c r="B313" t="n">
         <v>9</v>
@@ -5449,76 +5449,76 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>45882</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>67718</v>
+        <v>68192</v>
       </c>
       <c r="B314" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>45894</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>68192</v>
+        <v>68111</v>
       </c>
       <c r="B315" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>45898</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>68111</v>
+        <v>68336</v>
       </c>
       <c r="B316" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>45891</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>68336</v>
+        <v>68257</v>
       </c>
       <c r="B317" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>45902</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>68257</v>
+        <v>68701</v>
       </c>
       <c r="B318" t="n">
         <v>9</v>
@@ -5529,12 +5529,12 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>45888</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>68701</v>
+        <v>68333</v>
       </c>
       <c r="B319" t="n">
         <v>9</v>
@@ -5545,12 +5545,12 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>45898</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>68333</v>
+        <v>68453</v>
       </c>
       <c r="B320" t="n">
         <v>9</v>
@@ -5561,76 +5561,76 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>45891</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>68453</v>
+        <v>68506</v>
       </c>
       <c r="B321" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>45890</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>68506</v>
+        <v>68702</v>
       </c>
       <c r="B322" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>45908</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>68702</v>
+        <v>68651</v>
       </c>
       <c r="B323" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>45888</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>68651</v>
+        <v>68652</v>
       </c>
       <c r="B324" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>45903</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>68652</v>
+        <v>68882</v>
       </c>
       <c r="B325" t="n">
         <v>9</v>
@@ -5641,28 +5641,28 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>45884</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>68882</v>
+        <v>69415</v>
       </c>
       <c r="B326" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>45890</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>69415</v>
+        <v>69254</v>
       </c>
       <c r="B327" t="n">
         <v>2</v>
@@ -5673,28 +5673,28 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>45902</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>69254</v>
+        <v>69416</v>
       </c>
       <c r="B328" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>45908</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>69416</v>
+        <v>69286</v>
       </c>
       <c r="B329" t="n">
         <v>9</v>
@@ -5705,92 +5705,92 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>45882</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>69286</v>
+        <v>69288</v>
       </c>
       <c r="B330" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>45897</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>69288</v>
+        <v>69406</v>
       </c>
       <c r="B331" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>45905</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>69406</v>
+        <v>69738</v>
       </c>
       <c r="B332" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>45880</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>69738</v>
+        <v>69516</v>
       </c>
       <c r="B333" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>45902</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>69516</v>
+        <v>69517</v>
       </c>
       <c r="B334" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>45880</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>69517</v>
+        <v>69658</v>
       </c>
       <c r="B335" t="n">
         <v>2</v>
@@ -5801,44 +5801,44 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>69658</v>
+        <v>69659</v>
       </c>
       <c r="B336" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>45910</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>69659</v>
+        <v>69660</v>
       </c>
       <c r="B337" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>45880</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>69660</v>
+        <v>69889</v>
       </c>
       <c r="B338" t="n">
         <v>2</v>
@@ -5849,12 +5849,12 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>45905</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>69889</v>
+        <v>70441</v>
       </c>
       <c r="B339" t="n">
         <v>2</v>
@@ -5865,60 +5865,60 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>45910</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>70441</v>
+        <v>70446</v>
       </c>
       <c r="B340" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>45897</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>70446</v>
+        <v>70443</v>
       </c>
       <c r="B341" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>45880</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>70443</v>
+        <v>70450</v>
       </c>
       <c r="B342" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>45888</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>70450</v>
+        <v>70451</v>
       </c>
       <c r="B343" t="n">
         <v>2</v>
@@ -5934,39 +5934,39 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>70451</v>
+        <v>70712</v>
       </c>
       <c r="B344" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>45908</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>70712</v>
+        <v>70905</v>
       </c>
       <c r="B345" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>45882</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>70905</v>
+        <v>70909</v>
       </c>
       <c r="B346" t="n">
         <v>2</v>
@@ -5977,44 +5977,44 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>45910</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>70909</v>
+        <v>70985</v>
       </c>
       <c r="B347" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>45903</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>70985</v>
+        <v>70991</v>
       </c>
       <c r="B348" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>45888</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>70991</v>
+        <v>70977</v>
       </c>
       <c r="B349" t="n">
         <v>2</v>
@@ -6025,92 +6025,92 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>45903</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>70977</v>
+        <v>71078</v>
       </c>
       <c r="B350" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>45902</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>71078</v>
+        <v>71082</v>
       </c>
       <c r="B351" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>45888</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>71082</v>
+        <v>70978</v>
       </c>
       <c r="B352" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>45898</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>70978</v>
+        <v>71295</v>
       </c>
       <c r="B353" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>45881</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>71295</v>
+        <v>71297</v>
       </c>
       <c r="B354" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>45884</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>71297</v>
+        <v>71705</v>
       </c>
       <c r="B355" t="n">
         <v>2</v>
@@ -6121,12 +6121,12 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>45902</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>71705</v>
+        <v>71710</v>
       </c>
       <c r="B356" t="n">
         <v>2</v>
@@ -6137,28 +6137,28 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>45901</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>71710</v>
+        <v>71697</v>
       </c>
       <c r="B357" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>45904</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>71697</v>
+        <v>71700</v>
       </c>
       <c r="B358" t="n">
         <v>9</v>
@@ -6169,44 +6169,44 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>45891</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>71700</v>
+        <v>71796</v>
       </c>
       <c r="B359" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>45888</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>71796</v>
+        <v>71797</v>
       </c>
       <c r="B360" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>45909</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>71797</v>
+        <v>71798</v>
       </c>
       <c r="B361" t="n">
         <v>9</v>
@@ -6217,12 +6217,12 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>45883</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>71798</v>
+        <v>71800</v>
       </c>
       <c r="B362" t="n">
         <v>9</v>
@@ -6233,44 +6233,44 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>45884</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>71800</v>
+        <v>72012</v>
       </c>
       <c r="B363" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>45882</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>72012</v>
+        <v>72217</v>
       </c>
       <c r="B364" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>45903</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>72217</v>
+        <v>72932</v>
       </c>
       <c r="B365" t="n">
         <v>9</v>
@@ -6281,12 +6281,12 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>45891</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>72932</v>
+        <v>72228</v>
       </c>
       <c r="B366" t="n">
         <v>9</v>
@@ -6297,12 +6297,12 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>45897</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>72228</v>
+        <v>72218</v>
       </c>
       <c r="B367" t="n">
         <v>9</v>
@@ -6313,76 +6313,76 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>45883</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>72218</v>
+        <v>72221</v>
       </c>
       <c r="B368" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>45882</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>72219</v>
+        <v>72542</v>
       </c>
       <c r="B369" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>45881</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>72221</v>
+        <v>72543</v>
       </c>
       <c r="B370" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>45903</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>72542</v>
+        <v>72544</v>
       </c>
       <c r="B371" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>45894</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>72543</v>
+        <v>72666</v>
       </c>
       <c r="B372" t="n">
         <v>9</v>
@@ -6393,12 +6393,12 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>45881</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>72544</v>
+        <v>72667</v>
       </c>
       <c r="B373" t="n">
         <v>2</v>
@@ -6409,60 +6409,60 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>45905</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>72666</v>
+        <v>72948</v>
       </c>
       <c r="B374" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>45896</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>72667</v>
+        <v>73193</v>
       </c>
       <c r="B375" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>45896</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>72948</v>
+        <v>73421</v>
       </c>
       <c r="B376" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>45911</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>73193</v>
+        <v>73447</v>
       </c>
       <c r="B377" t="n">
         <v>9</v>
@@ -6473,28 +6473,28 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>45881</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>73421</v>
+        <v>73527</v>
       </c>
       <c r="B378" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>45890</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>73447</v>
+        <v>73497</v>
       </c>
       <c r="B379" t="n">
         <v>9</v>
@@ -6505,12 +6505,12 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>45897</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>73527</v>
+        <v>73498</v>
       </c>
       <c r="B380" t="n">
         <v>2</v>
@@ -6526,14 +6526,14 @@
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>73497</v>
+        <v>73501</v>
       </c>
       <c r="B381" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D381" s="2" t="n">
@@ -6542,55 +6542,55 @@
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>73498</v>
+        <v>73554</v>
       </c>
       <c r="B382" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>45909</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>73501</v>
+        <v>73717</v>
       </c>
       <c r="B383" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>45898</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>73554</v>
+        <v>73782</v>
       </c>
       <c r="B384" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>45895</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>73717</v>
+        <v>73783</v>
       </c>
       <c r="B385" t="n">
         <v>9</v>
@@ -6601,28 +6601,28 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>45888</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>73782</v>
+        <v>73785</v>
       </c>
       <c r="B386" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>45915</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>73783</v>
+        <v>73793</v>
       </c>
       <c r="B387" t="n">
         <v>9</v>
@@ -6633,76 +6633,76 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>45897</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>73785</v>
+        <v>73788</v>
       </c>
       <c r="B388" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>45881</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>73793</v>
+        <v>73874</v>
       </c>
       <c r="B389" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>45890</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>73788</v>
+        <v>73915</v>
       </c>
       <c r="B390" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>45903</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>73874</v>
+        <v>73916</v>
       </c>
       <c r="B391" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>45904</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>73915</v>
+        <v>74190</v>
       </c>
       <c r="B392" t="n">
         <v>9</v>
@@ -6713,12 +6713,12 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>45882</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>73916</v>
+        <v>74176</v>
       </c>
       <c r="B393" t="n">
         <v>9</v>
@@ -6729,76 +6729,76 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>45895</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>74190</v>
+        <v>74183</v>
       </c>
       <c r="B394" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>45891</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>74176</v>
+        <v>74439</v>
       </c>
       <c r="B395" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>45891</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>74183</v>
+        <v>74399</v>
       </c>
       <c r="B396" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>45901</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>74439</v>
+        <v>74440</v>
       </c>
       <c r="B397" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>45880</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>74399</v>
+        <v>74400</v>
       </c>
       <c r="B398" t="n">
         <v>9</v>
@@ -6814,71 +6814,71 @@
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>74440</v>
+        <v>74710</v>
       </c>
       <c r="B399" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>45902</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>74400</v>
+        <v>74711</v>
       </c>
       <c r="B400" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>45891</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>74710</v>
+        <v>74832</v>
       </c>
       <c r="B401" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>45883</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>74711</v>
+        <v>75027</v>
       </c>
       <c r="B402" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>45916</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>74832</v>
+        <v>75143</v>
       </c>
       <c r="B403" t="n">
         <v>2</v>
@@ -6889,12 +6889,12 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>45905</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>75027</v>
+        <v>75147</v>
       </c>
       <c r="B404" t="n">
         <v>9</v>
@@ -6905,28 +6905,28 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>45895</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>75143</v>
+        <v>75152</v>
       </c>
       <c r="B405" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>45909</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>75147</v>
+        <v>75154</v>
       </c>
       <c r="B406" t="n">
         <v>9</v>
@@ -6937,60 +6937,60 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>45883</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>75152</v>
+        <v>75313</v>
       </c>
       <c r="B407" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>45882</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>75154</v>
+        <v>75311</v>
       </c>
       <c r="B408" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>45889</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>75313</v>
+        <v>75399</v>
       </c>
       <c r="B409" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>45901</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>75311</v>
+        <v>75649</v>
       </c>
       <c r="B410" t="n">
         <v>2</v>
@@ -7001,12 +7001,12 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>45904</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>75399</v>
+        <v>75655</v>
       </c>
       <c r="B411" t="n">
         <v>9</v>
@@ -7022,55 +7022,55 @@
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>75649</v>
+        <v>75660</v>
       </c>
       <c r="B412" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>45910</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>75655</v>
+        <v>75790</v>
       </c>
       <c r="B413" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>45894</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>75660</v>
+        <v>75938</v>
       </c>
       <c r="B414" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>45880</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>75790</v>
+        <v>75950</v>
       </c>
       <c r="B415" t="n">
         <v>2</v>
@@ -7081,12 +7081,12 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>45903</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>75938</v>
+        <v>76072</v>
       </c>
       <c r="B416" t="n">
         <v>9</v>
@@ -7102,7 +7102,7 @@
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>75950</v>
+        <v>76073</v>
       </c>
       <c r="B417" t="n">
         <v>2</v>
@@ -7113,60 +7113,60 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>45902</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>76072</v>
+        <v>76218</v>
       </c>
       <c r="B418" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>45895</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>76073</v>
+        <v>76332</v>
       </c>
       <c r="B419" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>45901</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>76218</v>
+        <v>76334</v>
       </c>
       <c r="B420" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>45897</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>76332</v>
+        <v>76485</v>
       </c>
       <c r="B421" t="n">
         <v>9</v>
@@ -7177,28 +7177,28 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>45882</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>76334</v>
+        <v>76695</v>
       </c>
       <c r="B422" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>45880</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>76485</v>
+        <v>76623</v>
       </c>
       <c r="B423" t="n">
         <v>9</v>
@@ -7209,44 +7209,44 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>45895</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>76695</v>
+        <v>76694</v>
       </c>
       <c r="B424" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>45922</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>76623</v>
+        <v>76870</v>
       </c>
       <c r="B425" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>45894</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>76694</v>
+        <v>76866</v>
       </c>
       <c r="B426" t="n">
         <v>9</v>
@@ -7257,12 +7257,12 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>45890</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>76870</v>
+        <v>76869</v>
       </c>
       <c r="B427" t="n">
         <v>2</v>
@@ -7278,7 +7278,7 @@
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>76866</v>
+        <v>76864</v>
       </c>
       <c r="B428" t="n">
         <v>9</v>
@@ -7294,23 +7294,23 @@
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>76869</v>
+        <v>77050</v>
       </c>
       <c r="B429" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>45903</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>76864</v>
+        <v>77049</v>
       </c>
       <c r="B430" t="n">
         <v>9</v>
@@ -7321,12 +7321,12 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>45882</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>77050</v>
+        <v>77267</v>
       </c>
       <c r="B431" t="n">
         <v>9</v>
@@ -7337,28 +7337,28 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>45897</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>77049</v>
+        <v>77262</v>
       </c>
       <c r="B432" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>45890</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>77267</v>
+        <v>77764</v>
       </c>
       <c r="B433" t="n">
         <v>9</v>
@@ -7369,12 +7369,12 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>45891</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>77262</v>
+        <v>77756</v>
       </c>
       <c r="B434" t="n">
         <v>2</v>
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>45908</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>77764</v>
+        <v>77830</v>
       </c>
       <c r="B435" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>45888</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>77756</v>
+        <v>77831</v>
       </c>
       <c r="B436" t="n">
         <v>2</v>
@@ -7422,23 +7422,23 @@
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>77830</v>
+        <v>77834</v>
       </c>
       <c r="B437" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>45898</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>77831</v>
+        <v>77941</v>
       </c>
       <c r="B438" t="n">
         <v>2</v>
@@ -7454,39 +7454,39 @@
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>77834</v>
+        <v>78032</v>
       </c>
       <c r="B439" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>45888</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>77941</v>
+        <v>78033</v>
       </c>
       <c r="B440" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>45905</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>78032</v>
+        <v>78034</v>
       </c>
       <c r="B441" t="n">
         <v>2</v>
@@ -7497,28 +7497,28 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>45903</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>78033</v>
+        <v>78163</v>
       </c>
       <c r="B442" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>45882</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>78034</v>
+        <v>78202</v>
       </c>
       <c r="B443" t="n">
         <v>2</v>
@@ -7529,12 +7529,12 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>45908</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>78163</v>
+        <v>78167</v>
       </c>
       <c r="B444" t="n">
         <v>2</v>
@@ -7545,44 +7545,44 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>45929</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>78202</v>
+        <v>78168</v>
       </c>
       <c r="B445" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>45897</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>78167</v>
+        <v>78169</v>
       </c>
       <c r="B446" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>45908</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>78168</v>
+        <v>78285</v>
       </c>
       <c r="B447" t="n">
         <v>9</v>
@@ -7593,12 +7593,12 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>45896</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>78169</v>
+        <v>78287</v>
       </c>
       <c r="B448" t="n">
         <v>9</v>
@@ -7609,28 +7609,28 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>45898</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>78285</v>
+        <v>78288</v>
       </c>
       <c r="B449" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>45894</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>78287</v>
+        <v>78308</v>
       </c>
       <c r="B450" t="n">
         <v>9</v>
@@ -7641,28 +7641,28 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>45896</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>78288</v>
+        <v>78404</v>
       </c>
       <c r="B451" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>45902</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>78308</v>
+        <v>79166</v>
       </c>
       <c r="B452" t="n">
         <v>9</v>
@@ -7673,28 +7673,28 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>45897</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>78403</v>
+        <v>79162</v>
       </c>
       <c r="B453" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>45881</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>78404</v>
+        <v>79333</v>
       </c>
       <c r="B454" t="n">
         <v>9</v>
@@ -7705,12 +7705,12 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>45890</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>79166</v>
+        <v>79435</v>
       </c>
       <c r="B455" t="n">
         <v>9</v>
@@ -7721,28 +7721,28 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>45894</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>79154</v>
+        <v>79446</v>
       </c>
       <c r="B456" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>45880</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>79162</v>
+        <v>79436</v>
       </c>
       <c r="B457" t="n">
         <v>9</v>
@@ -7753,12 +7753,12 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>45890</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>79333</v>
+        <v>79425</v>
       </c>
       <c r="B458" t="n">
         <v>9</v>
@@ -7769,28 +7769,28 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>45894</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>79435</v>
+        <v>79442</v>
       </c>
       <c r="B459" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>45890</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>79446</v>
+        <v>79437</v>
       </c>
       <c r="B460" t="n">
         <v>9</v>
@@ -7801,28 +7801,28 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>45881</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>79436</v>
+        <v>79586</v>
       </c>
       <c r="B461" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>45888</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>79425</v>
+        <v>79587</v>
       </c>
       <c r="B462" t="n">
         <v>9</v>
@@ -7833,28 +7833,28 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>45881</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>79442</v>
+        <v>79588</v>
       </c>
       <c r="B463" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>45898</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>79437</v>
+        <v>79589</v>
       </c>
       <c r="B464" t="n">
         <v>9</v>
@@ -7865,76 +7865,76 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>45895</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>79586</v>
+        <v>79668</v>
       </c>
       <c r="B465" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>45898</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>79587</v>
+        <v>79660</v>
       </c>
       <c r="B466" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>45894</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>79588</v>
+        <v>79590</v>
       </c>
       <c r="B467" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>45884</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>79589</v>
+        <v>79809</v>
       </c>
       <c r="B468" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>45890</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>79668</v>
+        <v>79962</v>
       </c>
       <c r="B469" t="n">
         <v>9</v>
@@ -7945,60 +7945,60 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>45884</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>79660</v>
+        <v>79963</v>
       </c>
       <c r="B470" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>45880</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>79590</v>
+        <v>79965</v>
       </c>
       <c r="B471" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>45898</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>79809</v>
+        <v>79966</v>
       </c>
       <c r="B472" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>45880</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>79962</v>
+        <v>80083</v>
       </c>
       <c r="B473" t="n">
         <v>9</v>
@@ -8014,7 +8014,7 @@
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>79963</v>
+        <v>80086</v>
       </c>
       <c r="B474" t="n">
         <v>9</v>
@@ -8025,44 +8025,44 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>45884</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>79965</v>
+        <v>80072</v>
       </c>
       <c r="B475" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>45896</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>79966</v>
+        <v>80073</v>
       </c>
       <c r="B476" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>45895</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>80083</v>
+        <v>80198</v>
       </c>
       <c r="B477" t="n">
         <v>9</v>
@@ -8073,12 +8073,12 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>45889</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>80086</v>
+        <v>80199</v>
       </c>
       <c r="B478" t="n">
         <v>9</v>
@@ -8089,12 +8089,12 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>45898</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>80087</v>
+        <v>80201</v>
       </c>
       <c r="B479" t="n">
         <v>9</v>
@@ -8105,44 +8105,44 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>45896</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>80072</v>
+        <v>80318</v>
       </c>
       <c r="B480" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>45880</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>80073</v>
+        <v>80317</v>
       </c>
       <c r="B481" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>45897</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>80198</v>
+        <v>80415</v>
       </c>
       <c r="B482" t="n">
         <v>9</v>
@@ -8153,12 +8153,12 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>45895</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>80199</v>
+        <v>80547</v>
       </c>
       <c r="B483" t="n">
         <v>9</v>
@@ -8169,12 +8169,12 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>45894</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>80201</v>
+        <v>80635</v>
       </c>
       <c r="B484" t="n">
         <v>9</v>
@@ -8185,12 +8185,12 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>45882</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>80318</v>
+        <v>80636</v>
       </c>
       <c r="B485" t="n">
         <v>9</v>
@@ -8201,12 +8201,12 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>45881</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>80317</v>
+        <v>80707</v>
       </c>
       <c r="B486" t="n">
         <v>9</v>
@@ -8217,102 +8217,6 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>45894</v>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" t="n">
-        <v>80415</v>
-      </c>
-      <c r="B487" t="n">
-        <v>9</v>
-      </c>
-      <c r="C487" t="inlineStr">
-        <is>
-          <t>En Bodega</t>
-        </is>
-      </c>
-      <c r="D487" s="2" t="n">
-        <v>45889</v>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" t="n">
-        <v>80547</v>
-      </c>
-      <c r="B488" t="n">
-        <v>9</v>
-      </c>
-      <c r="C488" t="inlineStr">
-        <is>
-          <t>En Bodega</t>
-        </is>
-      </c>
-      <c r="D488" s="2" t="n">
-        <v>45896</v>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" t="n">
-        <v>80635</v>
-      </c>
-      <c r="B489" t="n">
-        <v>9</v>
-      </c>
-      <c r="C489" t="inlineStr">
-        <is>
-          <t>En Bodega</t>
-        </is>
-      </c>
-      <c r="D489" s="2" t="n">
-        <v>45889</v>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" t="n">
-        <v>80636</v>
-      </c>
-      <c r="B490" t="n">
-        <v>9</v>
-      </c>
-      <c r="C490" t="inlineStr">
-        <is>
-          <t>En Bodega</t>
-        </is>
-      </c>
-      <c r="D490" s="2" t="n">
-        <v>45888</v>
-      </c>
-    </row>
-    <row r="491">
-      <c r="A491" t="n">
-        <v>80637</v>
-      </c>
-      <c r="B491" t="n">
-        <v>9</v>
-      </c>
-      <c r="C491" t="inlineStr">
-        <is>
-          <t>En Bodega</t>
-        </is>
-      </c>
-      <c r="D491" s="2" t="n">
-        <v>45897</v>
-      </c>
-    </row>
-    <row r="492">
-      <c r="A492" t="n">
-        <v>80707</v>
-      </c>
-      <c r="B492" t="n">
-        <v>9</v>
-      </c>
-      <c r="C492" t="inlineStr">
-        <is>
-          <t>En Bodega</t>
-        </is>
-      </c>
-      <c r="D492" s="2" t="n">
         <v>45882</v>
       </c>
     </row>
@@ -8354,7 +8258,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3">
@@ -8374,7 +8278,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -8384,7 +8288,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
+++ b/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
@@ -1793,11 +1793,11 @@
         <v>28943</v>
       </c>
       <c r="B85" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D85" s="2" t="n">
@@ -4865,11 +4865,11 @@
         <v>60650</v>
       </c>
       <c r="B277" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D277" s="2" t="n">
@@ -4881,11 +4881,11 @@
         <v>60651</v>
       </c>
       <c r="B278" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D278" s="2" t="n">
@@ -6609,11 +6609,11 @@
         <v>73785</v>
       </c>
       <c r="B386" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D386" s="2" t="n">
@@ -8258,7 +8258,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3">
@@ -8278,7 +8278,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">

--- a/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
+++ b/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
@@ -8113,11 +8113,11 @@
         <v>80318</v>
       </c>
       <c r="B480" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D480" s="2" t="n">
@@ -8258,7 +8258,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3">
@@ -8278,7 +8278,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5">

--- a/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
+++ b/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
@@ -485,7 +485,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
@@ -501,7 +501,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
@@ -533,7 +533,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
@@ -549,7 +549,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
@@ -629,7 +629,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
@@ -661,7 +661,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
@@ -693,7 +693,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
@@ -709,7 +709,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
@@ -773,7 +773,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
@@ -805,7 +805,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
@@ -821,7 +821,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
@@ -885,7 +885,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
@@ -901,7 +901,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
@@ -917,7 +917,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
@@ -949,7 +949,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
@@ -997,7 +997,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
@@ -1045,7 +1045,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D52" s="2" t="n">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D53" s="2" t="n">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D54" s="2" t="n">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D59" s="2" t="n">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D60" s="2" t="n">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D61" s="2" t="n">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D64" s="2" t="n">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D65" s="2" t="n">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D66" s="2" t="n">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D75" s="2" t="n">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D78" s="2" t="n">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D79" s="2" t="n">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D80" s="2" t="n">
@@ -1781,7 +1781,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D84" s="2" t="n">
@@ -1813,7 +1813,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D86" s="2" t="n">
@@ -1845,7 +1845,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D88" s="2" t="n">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D89" s="2" t="n">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D90" s="2" t="n">
@@ -1925,7 +1925,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D93" s="2" t="n">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D94" s="2" t="n">
@@ -1957,7 +1957,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D95" s="2" t="n">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D96" s="2" t="n">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D97" s="2" t="n">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D99" s="2" t="n">
@@ -2037,7 +2037,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D100" s="2" t="n">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D102" s="2" t="n">
@@ -2101,7 +2101,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D104" s="2" t="n">
@@ -2117,7 +2117,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D105" s="2" t="n">
@@ -2133,7 +2133,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D106" s="2" t="n">
@@ -2165,7 +2165,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D108" s="2" t="n">
@@ -2181,7 +2181,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D109" s="2" t="n">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D110" s="2" t="n">
@@ -2213,7 +2213,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D111" s="2" t="n">
@@ -2229,7 +2229,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D112" s="2" t="n">
@@ -2341,7 +2341,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D119" s="2" t="n">
@@ -2373,7 +2373,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D121" s="2" t="n">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D124" s="2" t="n">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D126" s="2" t="n">
@@ -2469,7 +2469,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D127" s="2" t="n">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D129" s="2" t="n">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D132" s="2" t="n">
@@ -2565,7 +2565,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D133" s="2" t="n">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D137" s="2" t="n">
@@ -2661,7 +2661,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D139" s="2" t="n">
@@ -2725,7 +2725,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D143" s="2" t="n">
@@ -2757,7 +2757,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D145" s="2" t="n">
@@ -2773,7 +2773,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D146" s="2" t="n">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D147" s="2" t="n">
@@ -2805,7 +2805,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D148" s="2" t="n">
@@ -2821,7 +2821,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D149" s="2" t="n">
@@ -2853,7 +2853,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D151" s="2" t="n">
@@ -2933,7 +2933,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D156" s="2" t="n">
@@ -2949,7 +2949,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D157" s="2" t="n">
@@ -2965,7 +2965,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D158" s="2" t="n">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D162" s="2" t="n">
@@ -3061,7 +3061,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D164" s="2" t="n">
@@ -3077,7 +3077,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D165" s="2" t="n">
@@ -3109,7 +3109,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D167" s="2" t="n">
@@ -3221,7 +3221,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D174" s="2" t="n">
@@ -3237,7 +3237,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D175" s="2" t="n">
@@ -3253,7 +3253,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D176" s="2" t="n">
@@ -3269,7 +3269,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D177" s="2" t="n">
@@ -3285,7 +3285,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D178" s="2" t="n">
@@ -3317,7 +3317,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D180" s="2" t="n">
@@ -3333,7 +3333,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D181" s="2" t="n">
@@ -3365,7 +3365,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D183" s="2" t="n">
@@ -3381,7 +3381,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D184" s="2" t="n">
@@ -3413,7 +3413,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D186" s="2" t="n">
@@ -3429,7 +3429,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D187" s="2" t="n">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D194" s="2" t="n">
@@ -3557,7 +3557,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D195" s="2" t="n">
@@ -3605,7 +3605,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D198" s="2" t="n">
@@ -3749,7 +3749,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D207" s="2" t="n">
@@ -3765,7 +3765,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D208" s="2" t="n">
@@ -3797,7 +3797,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D210" s="2" t="n">
@@ -3829,7 +3829,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D212" s="2" t="n">
@@ -3845,7 +3845,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D213" s="2" t="n">
@@ -3861,7 +3861,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D214" s="2" t="n">
@@ -3877,7 +3877,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D215" s="2" t="n">
@@ -3893,7 +3893,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D216" s="2" t="n">
@@ -3909,7 +3909,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D217" s="2" t="n">
@@ -3925,7 +3925,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D218" s="2" t="n">
@@ -3941,7 +3941,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D219" s="2" t="n">
@@ -3957,7 +3957,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D220" s="2" t="n">
@@ -3989,7 +3989,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D222" s="2" t="n">
@@ -4021,7 +4021,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D224" s="2" t="n">
@@ -4037,7 +4037,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D225" s="2" t="n">
@@ -4053,7 +4053,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D226" s="2" t="n">
@@ -4117,7 +4117,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D230" s="2" t="n">
@@ -4133,7 +4133,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D231" s="2" t="n">
@@ -4149,7 +4149,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D232" s="2" t="n">
@@ -4165,7 +4165,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D233" s="2" t="n">
@@ -4181,7 +4181,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D234" s="2" t="n">
@@ -4197,7 +4197,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D235" s="2" t="n">
@@ -4213,7 +4213,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D236" s="2" t="n">
@@ -4229,7 +4229,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D237" s="2" t="n">
@@ -4245,7 +4245,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D238" s="2" t="n">
@@ -4261,7 +4261,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D239" s="2" t="n">
@@ -4277,7 +4277,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D240" s="2" t="n">
@@ -4293,7 +4293,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D241" s="2" t="n">
@@ -4309,7 +4309,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D242" s="2" t="n">
@@ -4325,7 +4325,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D243" s="2" t="n">
@@ -4341,7 +4341,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D244" s="2" t="n">
@@ -4357,7 +4357,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D245" s="2" t="n">
@@ -4373,7 +4373,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D246" s="2" t="n">
@@ -4389,7 +4389,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D247" s="2" t="n">
@@ -4421,7 +4421,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D249" s="2" t="n">
@@ -4453,7 +4453,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D251" s="2" t="n">
@@ -4517,7 +4517,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D255" s="2" t="n">
@@ -4549,7 +4549,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D257" s="2" t="n">
@@ -4565,7 +4565,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D258" s="2" t="n">
@@ -4597,7 +4597,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D260" s="2" t="n">
@@ -4613,7 +4613,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D261" s="2" t="n">
@@ -4645,7 +4645,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D263" s="2" t="n">
@@ -4677,7 +4677,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D265" s="2" t="n">
@@ -4693,7 +4693,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D266" s="2" t="n">
@@ -4709,7 +4709,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D267" s="2" t="n">
@@ -4741,7 +4741,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D269" s="2" t="n">
@@ -4789,7 +4789,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D272" s="2" t="n">
@@ -4853,7 +4853,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D276" s="2" t="n">
@@ -4901,7 +4901,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D279" s="2" t="n">
@@ -4917,7 +4917,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D280" s="2" t="n">
@@ -4933,7 +4933,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D281" s="2" t="n">
@@ -4997,7 +4997,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D285" s="2" t="n">
@@ -5045,7 +5045,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D288" s="2" t="n">
@@ -5077,7 +5077,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D290" s="2" t="n">
@@ -5109,7 +5109,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D292" s="2" t="n">
@@ -5141,7 +5141,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D294" s="2" t="n">
@@ -5189,7 +5189,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D297" s="2" t="n">
@@ -5205,7 +5205,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D298" s="2" t="n">
@@ -5221,7 +5221,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D299" s="2" t="n">
@@ -5237,7 +5237,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D300" s="2" t="n">
@@ -5317,7 +5317,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D305" s="2" t="n">
@@ -5365,7 +5365,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D308" s="2" t="n">
@@ -5381,7 +5381,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D309" s="2" t="n">
@@ -5397,7 +5397,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D310" s="2" t="n">
@@ -5413,7 +5413,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D311" s="2" t="n">
@@ -5429,7 +5429,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D312" s="2" t="n">
@@ -5445,7 +5445,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D313" s="2" t="n">
@@ -5477,7 +5477,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D315" s="2" t="n">
@@ -5509,7 +5509,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D317" s="2" t="n">
@@ -5525,7 +5525,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D318" s="2" t="n">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D319" s="2" t="n">
@@ -5557,7 +5557,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D320" s="2" t="n">
@@ -5589,7 +5589,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D322" s="2" t="n">
@@ -5621,7 +5621,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D324" s="2" t="n">
@@ -5637,7 +5637,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D325" s="2" t="n">
@@ -5685,7 +5685,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D328" s="2" t="n">
@@ -5701,7 +5701,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D329" s="2" t="n">
@@ -5893,7 +5893,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D341" s="2" t="n">
@@ -5941,7 +5941,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D344" s="2" t="n">
@@ -5989,7 +5989,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D347" s="2" t="n">
@@ -6037,7 +6037,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D350" s="2" t="n">
@@ -6085,7 +6085,7 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D353" s="2" t="n">
@@ -6149,7 +6149,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D357" s="2" t="n">
@@ -6165,7 +6165,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D358" s="2" t="n">
@@ -6197,7 +6197,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D360" s="2" t="n">
@@ -6213,7 +6213,7 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D361" s="2" t="n">
@@ -6229,7 +6229,7 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D362" s="2" t="n">
@@ -6261,7 +6261,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D364" s="2" t="n">
@@ -6277,7 +6277,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D365" s="2" t="n">
@@ -6293,7 +6293,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D366" s="2" t="n">
@@ -6309,7 +6309,7 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D367" s="2" t="n">
@@ -6341,7 +6341,7 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D369" s="2" t="n">
@@ -6389,7 +6389,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D372" s="2" t="n">
@@ -6453,7 +6453,7 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D376" s="2" t="n">
@@ -6469,7 +6469,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D377" s="2" t="n">
@@ -6501,7 +6501,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D379" s="2" t="n">
@@ -6549,7 +6549,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D382" s="2" t="n">
@@ -6565,7 +6565,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D383" s="2" t="n">
@@ -6597,7 +6597,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D385" s="2" t="n">
@@ -6629,7 +6629,7 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D387" s="2" t="n">
@@ -6677,7 +6677,7 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D390" s="2" t="n">
@@ -6693,7 +6693,7 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D391" s="2" t="n">
@@ -6709,7 +6709,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D392" s="2" t="n">
@@ -6725,7 +6725,7 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D393" s="2" t="n">
@@ -6773,7 +6773,7 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D396" s="2" t="n">
@@ -6805,7 +6805,7 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D398" s="2" t="n">
@@ -6821,7 +6821,7 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D399" s="2" t="n">
@@ -6869,7 +6869,7 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D402" s="2" t="n">
@@ -6901,7 +6901,7 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D404" s="2" t="n">
@@ -6917,7 +6917,7 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D405" s="2" t="n">
@@ -6933,7 +6933,7 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D406" s="2" t="n">
@@ -6981,7 +6981,7 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D409" s="2" t="n">
@@ -7013,7 +7013,7 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D411" s="2" t="n">
@@ -7061,7 +7061,7 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D414" s="2" t="n">
@@ -7093,7 +7093,7 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D416" s="2" t="n">
@@ -7141,7 +7141,7 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D419" s="2" t="n">
@@ -7173,7 +7173,7 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D421" s="2" t="n">
@@ -7205,7 +7205,7 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D423" s="2" t="n">
@@ -7221,7 +7221,7 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D424" s="2" t="n">
@@ -7253,7 +7253,7 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D426" s="2" t="n">
@@ -7285,7 +7285,7 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D428" s="2" t="n">
@@ -7301,7 +7301,7 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D429" s="2" t="n">
@@ -7317,7 +7317,7 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D430" s="2" t="n">
@@ -7333,7 +7333,7 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D431" s="2" t="n">
@@ -7365,7 +7365,7 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D433" s="2" t="n">
@@ -7429,7 +7429,7 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D437" s="2" t="n">
@@ -7477,7 +7477,7 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D440" s="2" t="n">
@@ -7557,7 +7557,7 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D445" s="2" t="n">
@@ -7573,7 +7573,7 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D446" s="2" t="n">
@@ -7589,7 +7589,7 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D447" s="2" t="n">
@@ -7605,7 +7605,7 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D448" s="2" t="n">
@@ -7637,7 +7637,7 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D450" s="2" t="n">
@@ -7653,7 +7653,7 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D451" s="2" t="n">
@@ -7669,7 +7669,7 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D452" s="2" t="n">
@@ -7685,7 +7685,7 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D453" s="2" t="n">
@@ -7701,7 +7701,7 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D454" s="2" t="n">
@@ -7717,7 +7717,7 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D455" s="2" t="n">
@@ -7749,7 +7749,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D457" s="2" t="n">
@@ -7765,7 +7765,7 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D458" s="2" t="n">
@@ -7797,7 +7797,7 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D460" s="2" t="n">
@@ -7829,7 +7829,7 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D462" s="2" t="n">
@@ -7845,7 +7845,7 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D463" s="2" t="n">
@@ -7861,7 +7861,7 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D464" s="2" t="n">
@@ -7877,7 +7877,7 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D465" s="2" t="n">
@@ -7941,7 +7941,7 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D469" s="2" t="n">
@@ -7957,7 +7957,7 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D470" s="2" t="n">
@@ -7973,7 +7973,7 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D471" s="2" t="n">
@@ -7989,7 +7989,7 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D472" s="2" t="n">
@@ -8005,7 +8005,7 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D473" s="2" t="n">
@@ -8021,7 +8021,7 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D474" s="2" t="n">
@@ -8069,7 +8069,7 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D477" s="2" t="n">
@@ -8085,7 +8085,7 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D478" s="2" t="n">
@@ -8101,7 +8101,7 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D479" s="2" t="n">
@@ -8133,7 +8133,7 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D481" s="2" t="n">
@@ -8149,7 +8149,7 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D482" s="2" t="n">
@@ -8165,7 +8165,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D483" s="2" t="n">
@@ -8181,7 +8181,7 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D484" s="2" t="n">
@@ -8197,7 +8197,7 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D485" s="2" t="n">
@@ -8213,7 +8213,7 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D486" s="2" t="n">
@@ -8254,7 +8254,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
+++ b/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
@@ -7761,11 +7761,11 @@
         <v>79425</v>
       </c>
       <c r="B458" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D458" s="2" t="n">
@@ -8258,7 +8258,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3">
@@ -8278,7 +8278,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">

--- a/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
+++ b/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
@@ -513,11 +513,11 @@
         <v>20553</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
@@ -609,11 +609,11 @@
         <v>10550</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
@@ -641,11 +641,11 @@
         <v>12499</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
@@ -721,11 +721,11 @@
         <v>13212</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
@@ -737,11 +737,11 @@
         <v>13628</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
@@ -753,11 +753,11 @@
         <v>13264</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
@@ -849,11 +849,11 @@
         <v>14897</v>
       </c>
       <c r="B26" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
@@ -865,11 +865,11 @@
         <v>16215</v>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
@@ -929,11 +929,11 @@
         <v>15956</v>
       </c>
       <c r="B31" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
@@ -977,11 +977,11 @@
         <v>16329</v>
       </c>
       <c r="B34" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
@@ -1009,11 +1009,11 @@
         <v>16981</v>
       </c>
       <c r="B36" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
@@ -1185,11 +1185,11 @@
         <v>12110</v>
       </c>
       <c r="B47" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D47" s="2" t="n">
@@ -1233,11 +1233,11 @@
         <v>20999</v>
       </c>
       <c r="B50" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
@@ -1313,11 +1313,11 @@
         <v>22125</v>
       </c>
       <c r="B55" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D55" s="2" t="n">
@@ -1329,11 +1329,11 @@
         <v>22452</v>
       </c>
       <c r="B56" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D56" s="2" t="n">
@@ -1345,11 +1345,11 @@
         <v>22582</v>
       </c>
       <c r="B57" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D57" s="2" t="n">
@@ -1361,11 +1361,11 @@
         <v>23010</v>
       </c>
       <c r="B58" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D58" s="2" t="n">
@@ -1505,11 +1505,11 @@
         <v>25043</v>
       </c>
       <c r="B67" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D67" s="2" t="n">
@@ -1521,11 +1521,11 @@
         <v>25659</v>
       </c>
       <c r="B68" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D68" s="2" t="n">
@@ -1553,11 +1553,11 @@
         <v>26560</v>
       </c>
       <c r="B70" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D70" s="2" t="n">
@@ -1649,11 +1649,11 @@
         <v>27663</v>
       </c>
       <c r="B76" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D76" s="2" t="n">
@@ -1665,11 +1665,11 @@
         <v>27984</v>
       </c>
       <c r="B77" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D77" s="2" t="n">
@@ -1745,11 +1745,11 @@
         <v>28597</v>
       </c>
       <c r="B82" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D82" s="2" t="n">
@@ -1761,11 +1761,11 @@
         <v>28797</v>
       </c>
       <c r="B83" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D83" s="2" t="n">
@@ -1825,11 +1825,11 @@
         <v>28837</v>
       </c>
       <c r="B87" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D87" s="2" t="n">
@@ -1889,11 +1889,11 @@
         <v>29309</v>
       </c>
       <c r="B91" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D91" s="2" t="n">
@@ -2081,11 +2081,11 @@
         <v>30845</v>
       </c>
       <c r="B103" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D103" s="2" t="n">
@@ -2145,11 +2145,11 @@
         <v>31446</v>
       </c>
       <c r="B107" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D107" s="2" t="n">
@@ -2273,11 +2273,11 @@
         <v>33404</v>
       </c>
       <c r="B115" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D115" s="2" t="n">
@@ -2289,11 +2289,11 @@
         <v>33777</v>
       </c>
       <c r="B116" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D116" s="2" t="n">
@@ -2321,11 +2321,11 @@
         <v>34266</v>
       </c>
       <c r="B118" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D118" s="2" t="n">
@@ -2353,11 +2353,11 @@
         <v>34520</v>
       </c>
       <c r="B120" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D120" s="2" t="n">
@@ -2401,11 +2401,11 @@
         <v>34922</v>
       </c>
       <c r="B123" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D123" s="2" t="n">
@@ -2433,11 +2433,11 @@
         <v>35302</v>
       </c>
       <c r="B125" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D125" s="2" t="n">
@@ -2481,11 +2481,11 @@
         <v>35717</v>
       </c>
       <c r="B128" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D128" s="2" t="n">
@@ -2529,11 +2529,11 @@
         <v>36209</v>
       </c>
       <c r="B131" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D131" s="2" t="n">
@@ -2577,11 +2577,11 @@
         <v>36434</v>
       </c>
       <c r="B134" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D134" s="2" t="n">
@@ -2593,11 +2593,11 @@
         <v>36435</v>
       </c>
       <c r="B135" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D135" s="2" t="n">
@@ -2689,11 +2689,11 @@
         <v>37477</v>
       </c>
       <c r="B141" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D141" s="2" t="n">
@@ -2737,11 +2737,11 @@
         <v>37568</v>
       </c>
       <c r="B144" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D144" s="2" t="n">
@@ -2833,11 +2833,11 @@
         <v>37784</v>
       </c>
       <c r="B150" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D150" s="2" t="n">
@@ -2865,11 +2865,11 @@
         <v>38038</v>
       </c>
       <c r="B152" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D152" s="2" t="n">
@@ -2881,11 +2881,11 @@
         <v>38127</v>
       </c>
       <c r="B153" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D153" s="2" t="n">
@@ -2977,11 +2977,11 @@
         <v>38644</v>
       </c>
       <c r="B159" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D159" s="2" t="n">
@@ -2993,11 +2993,11 @@
         <v>39089</v>
       </c>
       <c r="B160" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D160" s="2" t="n">
@@ -3041,11 +3041,11 @@
         <v>39461</v>
       </c>
       <c r="B163" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D163" s="2" t="n">
@@ -3089,11 +3089,11 @@
         <v>39890</v>
       </c>
       <c r="B166" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D166" s="2" t="n">
@@ -3121,11 +3121,11 @@
         <v>40140</v>
       </c>
       <c r="B168" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D168" s="2" t="n">
@@ -3153,11 +3153,11 @@
         <v>40186</v>
       </c>
       <c r="B170" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D170" s="2" t="n">
@@ -3169,11 +3169,11 @@
         <v>40389</v>
       </c>
       <c r="B171" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D171" s="2" t="n">
@@ -3185,11 +3185,11 @@
         <v>40590</v>
       </c>
       <c r="B172" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D172" s="2" t="n">
@@ -3201,11 +3201,11 @@
         <v>40843</v>
       </c>
       <c r="B173" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D173" s="2" t="n">
@@ -3249,11 +3249,11 @@
         <v>41616</v>
       </c>
       <c r="B176" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D176" s="2" t="n">
@@ -3297,11 +3297,11 @@
         <v>41622</v>
       </c>
       <c r="B179" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D179" s="2" t="n">
@@ -3345,11 +3345,11 @@
         <v>42637</v>
       </c>
       <c r="B182" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D182" s="2" t="n">
@@ -3393,11 +3393,11 @@
         <v>43140</v>
       </c>
       <c r="B185" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D185" s="2" t="n">
@@ -3441,11 +3441,11 @@
         <v>44102</v>
       </c>
       <c r="B188" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D188" s="2" t="n">
@@ -3457,11 +3457,11 @@
         <v>44103</v>
       </c>
       <c r="B189" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D189" s="2" t="n">
@@ -3473,11 +3473,11 @@
         <v>44877</v>
       </c>
       <c r="B190" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D190" s="2" t="n">
@@ -3489,11 +3489,11 @@
         <v>45134</v>
       </c>
       <c r="B191" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D191" s="2" t="n">
@@ -3505,11 +3505,11 @@
         <v>45335</v>
       </c>
       <c r="B192" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D192" s="2" t="n">
@@ -3521,11 +3521,11 @@
         <v>45586</v>
       </c>
       <c r="B193" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D193" s="2" t="n">
@@ -3569,11 +3569,11 @@
         <v>45967</v>
       </c>
       <c r="B196" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D196" s="2" t="n">
@@ -3585,11 +3585,11 @@
         <v>46082</v>
       </c>
       <c r="B197" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D197" s="2" t="n">
@@ -3617,11 +3617,11 @@
         <v>46380</v>
       </c>
       <c r="B199" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D199" s="2" t="n">
@@ -3665,11 +3665,11 @@
         <v>46638</v>
       </c>
       <c r="B202" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D202" s="2" t="n">
@@ -3681,11 +3681,11 @@
         <v>46895</v>
       </c>
       <c r="B203" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D203" s="2" t="n">
@@ -3697,11 +3697,11 @@
         <v>46734</v>
       </c>
       <c r="B204" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D204" s="2" t="n">
@@ -3729,11 +3729,11 @@
         <v>47096</v>
       </c>
       <c r="B206" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D206" s="2" t="n">
@@ -3745,11 +3745,11 @@
         <v>47093</v>
       </c>
       <c r="B207" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D207" s="2" t="n">
@@ -3777,11 +3777,11 @@
         <v>48263</v>
       </c>
       <c r="B209" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D209" s="2" t="n">
@@ -3809,11 +3809,11 @@
         <v>48745</v>
       </c>
       <c r="B211" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D211" s="2" t="n">
@@ -4001,11 +4001,11 @@
         <v>50309</v>
       </c>
       <c r="B223" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D223" s="2" t="n">
@@ -4081,11 +4081,11 @@
         <v>50818</v>
       </c>
       <c r="B228" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D228" s="2" t="n">
@@ -4481,11 +4481,11 @@
         <v>55292</v>
       </c>
       <c r="B253" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D253" s="2" t="n">
@@ -4497,11 +4497,11 @@
         <v>55760</v>
       </c>
       <c r="B254" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D254" s="2" t="n">
@@ -4625,11 +4625,11 @@
         <v>57038</v>
       </c>
       <c r="B262" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D262" s="2" t="n">
@@ -4657,11 +4657,11 @@
         <v>57596</v>
       </c>
       <c r="B264" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D264" s="2" t="n">
@@ -4721,11 +4721,11 @@
         <v>58490</v>
       </c>
       <c r="B268" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D268" s="2" t="n">
@@ -4753,11 +4753,11 @@
         <v>58835</v>
       </c>
       <c r="B270" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D270" s="2" t="n">
@@ -4769,11 +4769,11 @@
         <v>58841</v>
       </c>
       <c r="B271" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D271" s="2" t="n">
@@ -4817,11 +4817,11 @@
         <v>59804</v>
       </c>
       <c r="B274" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D274" s="2" t="n">
@@ -4897,11 +4897,11 @@
         <v>60784</v>
       </c>
       <c r="B279" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D279" s="2" t="n">
@@ -4961,11 +4961,11 @@
         <v>61175</v>
       </c>
       <c r="B283" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D283" s="2" t="n">
@@ -4977,11 +4977,11 @@
         <v>61169</v>
       </c>
       <c r="B284" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D284" s="2" t="n">
@@ -5025,11 +5025,11 @@
         <v>61335</v>
       </c>
       <c r="B287" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D287" s="2" t="n">
@@ -5057,11 +5057,11 @@
         <v>61399</v>
       </c>
       <c r="B289" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D289" s="2" t="n">
@@ -5089,11 +5089,11 @@
         <v>62250</v>
       </c>
       <c r="B291" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D291" s="2" t="n">
@@ -5153,11 +5153,11 @@
         <v>63122</v>
       </c>
       <c r="B295" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D295" s="2" t="n">
@@ -5169,11 +5169,11 @@
         <v>63344</v>
       </c>
       <c r="B296" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D296" s="2" t="n">
@@ -5249,11 +5249,11 @@
         <v>65423</v>
       </c>
       <c r="B301" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D301" s="2" t="n">
@@ -5265,11 +5265,11 @@
         <v>65856</v>
       </c>
       <c r="B302" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D302" s="2" t="n">
@@ -5281,11 +5281,11 @@
         <v>66071</v>
       </c>
       <c r="B303" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D303" s="2" t="n">
@@ -5297,11 +5297,11 @@
         <v>66376</v>
       </c>
       <c r="B304" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D304" s="2" t="n">
@@ -5329,11 +5329,11 @@
         <v>66547</v>
       </c>
       <c r="B306" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D306" s="2" t="n">
@@ -5345,11 +5345,11 @@
         <v>66551</v>
       </c>
       <c r="B307" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D307" s="2" t="n">
@@ -5457,11 +5457,11 @@
         <v>68192</v>
       </c>
       <c r="B314" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D314" s="2" t="n">
@@ -5489,11 +5489,11 @@
         <v>68336</v>
       </c>
       <c r="B316" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D316" s="2" t="n">
@@ -5569,11 +5569,11 @@
         <v>68506</v>
       </c>
       <c r="B321" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D321" s="2" t="n">
@@ -5601,11 +5601,11 @@
         <v>68651</v>
       </c>
       <c r="B323" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D323" s="2" t="n">
@@ -5649,11 +5649,11 @@
         <v>69415</v>
       </c>
       <c r="B326" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D326" s="2" t="n">
@@ -5665,11 +5665,11 @@
         <v>69254</v>
       </c>
       <c r="B327" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D327" s="2" t="n">
@@ -5713,11 +5713,11 @@
         <v>69288</v>
       </c>
       <c r="B330" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D330" s="2" t="n">
@@ -5745,11 +5745,11 @@
         <v>69738</v>
       </c>
       <c r="B332" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D332" s="2" t="n">
@@ -5825,11 +5825,11 @@
         <v>69660</v>
       </c>
       <c r="B337" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D337" s="2" t="n">
@@ -5857,11 +5857,11 @@
         <v>70441</v>
       </c>
       <c r="B339" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D339" s="2" t="n">
@@ -5905,11 +5905,11 @@
         <v>70450</v>
       </c>
       <c r="B342" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D342" s="2" t="n">
@@ -5921,11 +5921,11 @@
         <v>70451</v>
       </c>
       <c r="B343" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D343" s="2" t="n">
@@ -5937,11 +5937,11 @@
         <v>70712</v>
       </c>
       <c r="B344" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D344" s="2" t="n">
@@ -5969,11 +5969,11 @@
         <v>70909</v>
       </c>
       <c r="B346" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D346" s="2" t="n">
@@ -6001,11 +6001,11 @@
         <v>70991</v>
       </c>
       <c r="B348" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D348" s="2" t="n">
@@ -6017,11 +6017,11 @@
         <v>70977</v>
       </c>
       <c r="B349" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D349" s="2" t="n">
@@ -6049,11 +6049,11 @@
         <v>71082</v>
       </c>
       <c r="B351" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D351" s="2" t="n">
@@ -6097,11 +6097,11 @@
         <v>71297</v>
       </c>
       <c r="B354" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D354" s="2" t="n">
@@ -6113,11 +6113,11 @@
         <v>71705</v>
       </c>
       <c r="B355" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D355" s="2" t="n">
@@ -6129,11 +6129,11 @@
         <v>71710</v>
       </c>
       <c r="B356" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D356" s="2" t="n">
@@ -6241,11 +6241,11 @@
         <v>72012</v>
       </c>
       <c r="B363" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D363" s="2" t="n">
@@ -6321,11 +6321,11 @@
         <v>72221</v>
       </c>
       <c r="B368" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D368" s="2" t="n">
@@ -6369,11 +6369,11 @@
         <v>72544</v>
       </c>
       <c r="B371" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D371" s="2" t="n">
@@ -6401,11 +6401,11 @@
         <v>72667</v>
       </c>
       <c r="B373" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D373" s="2" t="n">
@@ -6529,11 +6529,11 @@
         <v>73501</v>
       </c>
       <c r="B381" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D381" s="2" t="n">
@@ -6641,11 +6641,11 @@
         <v>73788</v>
       </c>
       <c r="B388" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D388" s="2" t="n">
@@ -6657,11 +6657,11 @@
         <v>73874</v>
       </c>
       <c r="B389" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D389" s="2" t="n">
@@ -6737,11 +6737,11 @@
         <v>74183</v>
       </c>
       <c r="B394" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D394" s="2" t="n">
@@ -6785,11 +6785,11 @@
         <v>74440</v>
       </c>
       <c r="B397" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D397" s="2" t="n">
@@ -6849,11 +6849,11 @@
         <v>74832</v>
       </c>
       <c r="B401" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D401" s="2" t="n">
@@ -6945,11 +6945,11 @@
         <v>75313</v>
       </c>
       <c r="B407" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D407" s="2" t="n">
@@ -6961,11 +6961,11 @@
         <v>75311</v>
       </c>
       <c r="B408" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D408" s="2" t="n">
@@ -7041,11 +7041,11 @@
         <v>75790</v>
       </c>
       <c r="B413" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D413" s="2" t="n">
@@ -7073,11 +7073,11 @@
         <v>75950</v>
       </c>
       <c r="B415" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D415" s="2" t="n">
@@ -7105,11 +7105,11 @@
         <v>76073</v>
       </c>
       <c r="B417" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D417" s="2" t="n">
@@ -7121,11 +7121,11 @@
         <v>76218</v>
       </c>
       <c r="B418" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D418" s="2" t="n">
@@ -7137,11 +7137,11 @@
         <v>76332</v>
       </c>
       <c r="B419" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D419" s="2" t="n">
@@ -7233,11 +7233,11 @@
         <v>76870</v>
       </c>
       <c r="B425" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D425" s="2" t="n">
@@ -7265,11 +7265,11 @@
         <v>76869</v>
       </c>
       <c r="B427" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D427" s="2" t="n">
@@ -7281,11 +7281,11 @@
         <v>76864</v>
       </c>
       <c r="B428" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D428" s="2" t="n">
@@ -7345,11 +7345,11 @@
         <v>77262</v>
       </c>
       <c r="B432" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D432" s="2" t="n">
@@ -7377,11 +7377,11 @@
         <v>77756</v>
       </c>
       <c r="B434" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D434" s="2" t="n">
@@ -7393,11 +7393,11 @@
         <v>77830</v>
       </c>
       <c r="B435" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D435" s="2" t="n">
@@ -7409,11 +7409,11 @@
         <v>77831</v>
       </c>
       <c r="B436" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D436" s="2" t="n">
@@ -7441,11 +7441,11 @@
         <v>77941</v>
       </c>
       <c r="B438" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D438" s="2" t="n">
@@ -7457,11 +7457,11 @@
         <v>78032</v>
       </c>
       <c r="B439" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D439" s="2" t="n">
@@ -7489,11 +7489,11 @@
         <v>78034</v>
       </c>
       <c r="B441" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D441" s="2" t="n">
@@ -7521,11 +7521,11 @@
         <v>78202</v>
       </c>
       <c r="B443" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D443" s="2" t="n">
@@ -7537,11 +7537,11 @@
         <v>78167</v>
       </c>
       <c r="B444" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D444" s="2" t="n">
@@ -7617,11 +7617,11 @@
         <v>78288</v>
       </c>
       <c r="B449" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D449" s="2" t="n">
@@ -7777,11 +7777,11 @@
         <v>79442</v>
       </c>
       <c r="B459" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D459" s="2" t="n">
@@ -7809,11 +7809,11 @@
         <v>79586</v>
       </c>
       <c r="B461" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D461" s="2" t="n">
@@ -7905,11 +7905,11 @@
         <v>79590</v>
       </c>
       <c r="B467" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D467" s="2" t="n">
@@ -8049,11 +8049,11 @@
         <v>80073</v>
       </c>
       <c r="B476" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D476" s="2" t="n">
@@ -8258,27 +8258,27 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>255</v>
+        <v>391</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">

--- a/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
+++ b/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
@@ -4017,11 +4017,11 @@
         <v>50574</v>
       </c>
       <c r="B224" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D224" s="2" t="n">
@@ -5185,11 +5185,11 @@
         <v>64512</v>
       </c>
       <c r="B297" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D297" s="2" t="n">
@@ -5681,11 +5681,11 @@
         <v>69416</v>
       </c>
       <c r="B328" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D328" s="2" t="n">
@@ -6225,11 +6225,11 @@
         <v>71800</v>
       </c>
       <c r="B362" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D362" s="2" t="n">
@@ -6305,11 +6305,11 @@
         <v>72218</v>
       </c>
       <c r="B367" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D367" s="2" t="n">
@@ -6673,11 +6673,11 @@
         <v>73915</v>
       </c>
       <c r="B390" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D390" s="2" t="n">
@@ -8097,11 +8097,11 @@
         <v>80201</v>
       </c>
       <c r="B479" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D479" s="2" t="n">
@@ -8258,7 +8258,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="3">
@@ -8268,7 +8268,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
@@ -8288,7 +8288,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
+++ b/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
@@ -1057,11 +1057,11 @@
         <v>18459</v>
       </c>
       <c r="B39" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
@@ -3233,11 +3233,11 @@
         <v>41407</v>
       </c>
       <c r="B175" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D175" s="2" t="n">
@@ -4129,11 +4129,11 @@
         <v>51412</v>
       </c>
       <c r="B231" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D231" s="2" t="n">
@@ -6913,11 +6913,11 @@
         <v>75152</v>
       </c>
       <c r="B405" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D405" s="2" t="n">
@@ -7249,11 +7249,11 @@
         <v>76866</v>
       </c>
       <c r="B426" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D426" s="2" t="n">
@@ -7473,11 +7473,11 @@
         <v>78033</v>
       </c>
       <c r="B440" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D440" s="2" t="n">
@@ -8258,7 +8258,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3">
@@ -8268,7 +8268,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">

--- a/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
+++ b/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
@@ -1937,11 +1937,11 @@
         <v>30149</v>
       </c>
       <c r="B94" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D94" s="2" t="n">
@@ -5217,11 +5217,11 @@
         <v>65202</v>
       </c>
       <c r="B299" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D299" s="2" t="n">
@@ -5425,11 +5425,11 @@
         <v>67522</v>
       </c>
       <c r="B312" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D312" s="2" t="n">
@@ -8097,11 +8097,11 @@
         <v>80201</v>
       </c>
       <c r="B479" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D479" s="2" t="n">
@@ -8209,11 +8209,11 @@
         <v>80707</v>
       </c>
       <c r="B486" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D486" s="2" t="n">
@@ -8258,7 +8258,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="3">
@@ -8268,7 +8268,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">

--- a/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
+++ b/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
@@ -3793,11 +3793,11 @@
         <v>48093</v>
       </c>
       <c r="B210" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D210" s="2" t="n">
@@ -8258,7 +8258,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3">
@@ -8268,7 +8268,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">

--- a/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
+++ b/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
@@ -625,11 +625,11 @@
         <v>11502</v>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
@@ -769,11 +769,11 @@
         <v>13666</v>
       </c>
       <c r="B21" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
@@ -4289,11 +4289,11 @@
         <v>52714</v>
       </c>
       <c r="B241" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D241" s="2" t="n">
@@ -8258,7 +8258,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3">
@@ -8268,7 +8268,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">

--- a/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
+++ b/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
@@ -545,11 +545,11 @@
         <v>20642</v>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
@@ -1393,11 +1393,11 @@
         <v>23354</v>
       </c>
       <c r="B60" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D60" s="2" t="n">
@@ -1409,11 +1409,11 @@
         <v>23618</v>
       </c>
       <c r="B61" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D61" s="2" t="n">
@@ -1489,11 +1489,11 @@
         <v>24742</v>
       </c>
       <c r="B66" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D66" s="2" t="n">
@@ -1985,11 +1985,11 @@
         <v>30285</v>
       </c>
       <c r="B97" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D97" s="2" t="n">
@@ -2113,11 +2113,11 @@
         <v>31122</v>
       </c>
       <c r="B105" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D105" s="2" t="n">
@@ -2945,11 +2945,11 @@
         <v>38647</v>
       </c>
       <c r="B157" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D157" s="2" t="n">
@@ -3905,11 +3905,11 @@
         <v>49917</v>
       </c>
       <c r="B217" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D217" s="2" t="n">
@@ -4321,11 +4321,11 @@
         <v>53402</v>
       </c>
       <c r="B243" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D243" s="2" t="n">
@@ -4609,11 +4609,11 @@
         <v>56946</v>
       </c>
       <c r="B261" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D261" s="2" t="n">
@@ -6289,11 +6289,11 @@
         <v>72228</v>
       </c>
       <c r="B366" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D366" s="2" t="n">
@@ -6817,11 +6817,11 @@
         <v>74710</v>
       </c>
       <c r="B399" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D399" s="2" t="n">
@@ -8258,7 +8258,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>370</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3">
@@ -8268,7 +8268,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
@@ -8288,7 +8288,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
+++ b/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
@@ -1121,11 +1121,11 @@
         <v>18928</v>
       </c>
       <c r="B43" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
@@ -2625,11 +2625,11 @@
         <v>36851</v>
       </c>
       <c r="B137" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D137" s="2" t="n">
@@ -3409,11 +3409,11 @@
         <v>43256</v>
       </c>
       <c r="B186" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D186" s="2" t="n">
@@ -4257,11 +4257,11 @@
         <v>52601</v>
       </c>
       <c r="B239" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D239" s="2" t="n">
@@ -6193,11 +6193,11 @@
         <v>71797</v>
       </c>
       <c r="B360" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D360" s="2" t="n">
@@ -8258,7 +8258,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3">
@@ -8268,7 +8268,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
@@ -8288,7 +8288,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
+++ b/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
@@ -6897,11 +6897,11 @@
         <v>75147</v>
       </c>
       <c r="B404" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D404" s="2" t="n">
@@ -8258,7 +8258,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3">
@@ -8268,7 +8268,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">

--- a/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
+++ b/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
@@ -1857,11 +1857,11 @@
         <v>28945</v>
       </c>
       <c r="B89" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D89" s="2" t="n">
@@ -8258,7 +8258,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3">
@@ -8268,7 +8268,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">

--- a/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
+++ b/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
@@ -785,11 +785,11 @@
         <v>13806</v>
       </c>
       <c r="B22" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
@@ -8268,7 +8268,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4">
@@ -8288,7 +8288,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
+++ b/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
@@ -1633,11 +1633,11 @@
         <v>27720</v>
       </c>
       <c r="B75" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D75" s="2" t="n">
@@ -1921,11 +1921,11 @@
         <v>30082</v>
       </c>
       <c r="B93" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D93" s="2" t="n">
@@ -2033,11 +2033,11 @@
         <v>30572</v>
       </c>
       <c r="B100" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D100" s="2" t="n">
@@ -2929,11 +2929,11 @@
         <v>38604</v>
       </c>
       <c r="B156" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D156" s="2" t="n">
@@ -3025,11 +3025,11 @@
         <v>39215</v>
       </c>
       <c r="B162" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D162" s="2" t="n">
@@ -3377,11 +3377,11 @@
         <v>43004</v>
       </c>
       <c r="B184" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D184" s="2" t="n">
@@ -3921,11 +3921,11 @@
         <v>49647</v>
       </c>
       <c r="B218" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D218" s="2" t="n">
@@ -4689,11 +4689,11 @@
         <v>58293</v>
       </c>
       <c r="B266" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D266" s="2" t="n">
@@ -5313,11 +5313,11 @@
         <v>66546</v>
       </c>
       <c r="B305" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D305" s="2" t="n">
@@ -6209,11 +6209,11 @@
         <v>71798</v>
       </c>
       <c r="B361" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D361" s="2" t="n">
@@ -7841,11 +7841,11 @@
         <v>79588</v>
       </c>
       <c r="B463" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D463" s="2" t="n">
@@ -7873,11 +7873,11 @@
         <v>79668</v>
       </c>
       <c r="B465" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D465" s="2" t="n">
@@ -7953,11 +7953,11 @@
         <v>79963</v>
       </c>
       <c r="B470" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D470" s="2" t="n">
@@ -8258,7 +8258,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3">
@@ -8288,7 +8288,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
+++ b/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
@@ -881,11 +881,11 @@
         <v>15333</v>
       </c>
       <c r="B28" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
@@ -1713,11 +1713,11 @@
         <v>28242</v>
       </c>
       <c r="B80" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D80" s="2" t="n">
@@ -1809,11 +1809,11 @@
         <v>28841</v>
       </c>
       <c r="B86" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D86" s="2" t="n">
@@ -4369,11 +4369,11 @@
         <v>53622</v>
       </c>
       <c r="B246" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D246" s="2" t="n">
@@ -4513,11 +4513,11 @@
         <v>55761</v>
       </c>
       <c r="B255" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D255" s="2" t="n">
@@ -5041,11 +5041,11 @@
         <v>61333</v>
       </c>
       <c r="B288" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D288" s="2" t="n">
@@ -5617,11 +5617,11 @@
         <v>68652</v>
       </c>
       <c r="B324" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D324" s="2" t="n">
@@ -6081,11 +6081,11 @@
         <v>71295</v>
       </c>
       <c r="B353" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D353" s="2" t="n">
@@ -8258,7 +8258,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3">
@@ -8268,27 +8268,27 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
+++ b/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
@@ -817,11 +817,11 @@
         <v>14950</v>
       </c>
       <c r="B24" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
@@ -897,11 +897,11 @@
         <v>15500</v>
       </c>
       <c r="B29" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
@@ -1201,11 +1201,11 @@
         <v>10106</v>
       </c>
       <c r="B48" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
@@ -2417,11 +2417,11 @@
         <v>35150</v>
       </c>
       <c r="B124" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D124" s="2" t="n">
@@ -2593,11 +2593,11 @@
         <v>36435</v>
       </c>
       <c r="B135" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="D135" s="2" t="n">
@@ -2769,11 +2769,11 @@
         <v>37904</v>
       </c>
       <c r="B146" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D146" s="2" t="n">
@@ -2961,11 +2961,11 @@
         <v>39131</v>
       </c>
       <c r="B158" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D158" s="2" t="n">
@@ -3057,11 +3057,11 @@
         <v>39437</v>
       </c>
       <c r="B164" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D164" s="2" t="n">
@@ -3729,11 +3729,11 @@
         <v>47096</v>
       </c>
       <c r="B206" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="D206" s="2" t="n">
@@ -4033,11 +4033,11 @@
         <v>50575</v>
       </c>
       <c r="B225" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D225" s="2" t="n">
@@ -4385,11 +4385,11 @@
         <v>53813</v>
       </c>
       <c r="B247" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D247" s="2" t="n">
@@ -4417,11 +4417,11 @@
         <v>54665</v>
       </c>
       <c r="B249" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D249" s="2" t="n">
@@ -4817,11 +4817,11 @@
         <v>59804</v>
       </c>
       <c r="B274" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="D274" s="2" t="n">
@@ -4929,11 +4929,11 @@
         <v>61109</v>
       </c>
       <c r="B281" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D281" s="2" t="n">
@@ -5409,11 +5409,11 @@
         <v>67471</v>
       </c>
       <c r="B311" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D311" s="2" t="n">
@@ -5889,11 +5889,11 @@
         <v>70443</v>
       </c>
       <c r="B341" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D341" s="2" t="n">
@@ -6033,11 +6033,11 @@
         <v>71078</v>
       </c>
       <c r="B350" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D350" s="2" t="n">
@@ -6161,11 +6161,11 @@
         <v>71700</v>
       </c>
       <c r="B358" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D358" s="2" t="n">
@@ -6929,11 +6929,11 @@
         <v>75154</v>
       </c>
       <c r="B406" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D406" s="2" t="n">
@@ -7361,11 +7361,11 @@
         <v>77764</v>
       </c>
       <c r="B433" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="D433" s="2" t="n">
@@ -7425,11 +7425,11 @@
         <v>77834</v>
       </c>
       <c r="B437" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D437" s="2" t="n">
@@ -8177,11 +8177,11 @@
         <v>80635</v>
       </c>
       <c r="B484" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D484" s="2" t="n">
@@ -8193,11 +8193,11 @@
         <v>80636</v>
       </c>
       <c r="B485" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D485" s="2" t="n">
@@ -8231,7 +8231,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8258,7 +8258,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>330</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3">
@@ -8268,7 +8268,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4">
@@ -8278,7 +8278,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
@@ -8289,6 +8289,16 @@
       </c>
       <c r="B5" t="n">
         <v>34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Desistido</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
+++ b/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
@@ -1169,11 +1169,11 @@
         <v>19436</v>
       </c>
       <c r="B46" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
@@ -5393,11 +5393,11 @@
         <v>67413</v>
       </c>
       <c r="B310" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D310" s="2" t="n">
@@ -5505,11 +5505,11 @@
         <v>68257</v>
       </c>
       <c r="B317" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D317" s="2" t="n">
@@ -5985,11 +5985,11 @@
         <v>70985</v>
       </c>
       <c r="B347" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D347" s="2" t="n">
@@ -7745,11 +7745,11 @@
         <v>79436</v>
       </c>
       <c r="B457" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D457" s="2" t="n">
@@ -8258,7 +8258,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3">
@@ -8268,7 +8268,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4">
@@ -8278,7 +8278,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">

--- a/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
+++ b/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
@@ -1953,11 +1953,11 @@
         <v>30280</v>
       </c>
       <c r="B95" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D95" s="2" t="n">
@@ -5201,11 +5201,11 @@
         <v>65044</v>
       </c>
       <c r="B298" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D298" s="2" t="n">
@@ -8258,7 +8258,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3">
@@ -8268,7 +8268,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4">
@@ -8278,7 +8278,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">

--- a/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
+++ b/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D486"/>
+  <dimension ref="A1:D492"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1305,7 +1305,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45890</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="55">
@@ -1465,7 +1465,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>45888</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="65">
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>45899</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="70">
@@ -1870,7 +1870,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>29138</v>
+        <v>28951</v>
       </c>
       <c r="B90" t="n">
         <v>9</v>
@@ -1881,12 +1881,12 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>45891</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>29309</v>
+        <v>29138</v>
       </c>
       <c r="B91" t="n">
         <v>9</v>
@@ -1897,28 +1897,28 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>45902</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>29767</v>
+        <v>29309</v>
       </c>
       <c r="B92" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>45880</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>30082</v>
+        <v>29767</v>
       </c>
       <c r="B93" t="n">
         <v>7</v>
@@ -1929,28 +1929,28 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>45884</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>30149</v>
+        <v>30082</v>
       </c>
       <c r="B94" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>45882</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>30280</v>
+        <v>30149</v>
       </c>
       <c r="B95" t="n">
         <v>4</v>
@@ -1961,124 +1961,124 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>45884</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>30293</v>
+        <v>30280</v>
       </c>
       <c r="B96" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>45896</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>30285</v>
+        <v>30293</v>
       </c>
       <c r="B97" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>45883</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>30464</v>
+        <v>30285</v>
       </c>
       <c r="B98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>45911</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>30301</v>
+        <v>30464</v>
       </c>
       <c r="B99" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>45889</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>30572</v>
+        <v>30301</v>
       </c>
       <c r="B100" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>45884</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>30556</v>
+        <v>30572</v>
       </c>
       <c r="B101" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>45880</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>30736</v>
+        <v>30556</v>
       </c>
       <c r="B102" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>45896</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>30845</v>
+        <v>30736</v>
       </c>
       <c r="B103" t="n">
         <v>9</v>
@@ -2089,12 +2089,12 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>45908</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>31007</v>
+        <v>30845</v>
       </c>
       <c r="B104" t="n">
         <v>9</v>
@@ -2105,44 +2105,44 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>45890</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>31122</v>
+        <v>31007</v>
       </c>
       <c r="B105" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>45883</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>31353</v>
+        <v>31122</v>
       </c>
       <c r="B106" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>45895</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>31446</v>
+        <v>31353</v>
       </c>
       <c r="B107" t="n">
         <v>9</v>
@@ -2153,12 +2153,12 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>45902</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>31351</v>
+        <v>31446</v>
       </c>
       <c r="B108" t="n">
         <v>9</v>
@@ -2169,12 +2169,12 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>45891</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>31668</v>
+        <v>31351</v>
       </c>
       <c r="B109" t="n">
         <v>9</v>
@@ -2185,12 +2185,12 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>45895</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>31765</v>
+        <v>31668</v>
       </c>
       <c r="B110" t="n">
         <v>9</v>
@@ -2206,7 +2206,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>31766</v>
+        <v>31765</v>
       </c>
       <c r="B111" t="n">
         <v>9</v>
@@ -2217,12 +2217,12 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>45898</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>32927</v>
+        <v>31766</v>
       </c>
       <c r="B112" t="n">
         <v>9</v>
@@ -2233,60 +2233,60 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>45890</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>32920</v>
+        <v>32927</v>
       </c>
       <c r="B113" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>45880</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>33413</v>
+        <v>32920</v>
       </c>
       <c r="B114" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>45881</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>33404</v>
+        <v>33413</v>
       </c>
       <c r="B115" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>45901</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>33777</v>
+        <v>33404</v>
       </c>
       <c r="B116" t="n">
         <v>9</v>
@@ -2297,44 +2297,44 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>45896</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>34010</v>
+        <v>33777</v>
       </c>
       <c r="B117" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>45891</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>34266</v>
+        <v>34010</v>
       </c>
       <c r="B118" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>45903</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>34267</v>
+        <v>34266</v>
       </c>
       <c r="B119" t="n">
         <v>9</v>
@@ -2345,12 +2345,12 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>45897</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>34520</v>
+        <v>34267</v>
       </c>
       <c r="B120" t="n">
         <v>9</v>
@@ -2361,12 +2361,12 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>45903</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>34786</v>
+        <v>34520</v>
       </c>
       <c r="B121" t="n">
         <v>9</v>
@@ -2377,76 +2377,76 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>45891</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>34847</v>
+        <v>34786</v>
       </c>
       <c r="B122" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>45880</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>34922</v>
+        <v>34847</v>
       </c>
       <c r="B123" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>45905</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>35150</v>
+        <v>34922</v>
       </c>
       <c r="B124" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>45889</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>35302</v>
+        <v>35150</v>
       </c>
       <c r="B125" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>45901</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>35402</v>
+        <v>35302</v>
       </c>
       <c r="B126" t="n">
         <v>9</v>
@@ -2457,12 +2457,12 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>45891</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>35525</v>
+        <v>35402</v>
       </c>
       <c r="B127" t="n">
         <v>9</v>
@@ -2473,12 +2473,12 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>45895</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>35717</v>
+        <v>35525</v>
       </c>
       <c r="B128" t="n">
         <v>9</v>
@@ -2489,12 +2489,12 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>45901</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>35708</v>
+        <v>35717</v>
       </c>
       <c r="B129" t="n">
         <v>9</v>
@@ -2505,44 +2505,44 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>45895</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>35953</v>
+        <v>35708</v>
       </c>
       <c r="B130" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>45880</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>36209</v>
+        <v>35953</v>
       </c>
       <c r="B131" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>45901</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>36212</v>
+        <v>36209</v>
       </c>
       <c r="B132" t="n">
         <v>9</v>
@@ -2553,12 +2553,12 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>45890</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>36428</v>
+        <v>36212</v>
       </c>
       <c r="B133" t="n">
         <v>9</v>
@@ -2569,12 +2569,12 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>45894</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>36434</v>
+        <v>36428</v>
       </c>
       <c r="B134" t="n">
         <v>9</v>
@@ -2585,156 +2585,156 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>45904</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>36435</v>
+        <v>36434</v>
       </c>
       <c r="B135" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>45901</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>36659</v>
+        <v>36435</v>
       </c>
       <c r="B136" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>45880</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>36851</v>
+        <v>36659</v>
       </c>
       <c r="B137" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>45883</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>36971</v>
+        <v>36851</v>
       </c>
       <c r="B138" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>45922</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>37125</v>
+        <v>36971</v>
       </c>
       <c r="B139" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>45894</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>37302</v>
+        <v>37125</v>
       </c>
       <c r="B140" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>45901</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>37477</v>
+        <v>37302</v>
       </c>
       <c r="B141" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>45897</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>37471</v>
+        <v>37477</v>
       </c>
       <c r="B142" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>45880</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>37567</v>
+        <v>37471</v>
       </c>
       <c r="B143" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>45898</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>37568</v>
+        <v>37567</v>
       </c>
       <c r="B144" t="n">
         <v>9</v>
@@ -2745,12 +2745,12 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>45908</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>37696</v>
+        <v>37568</v>
       </c>
       <c r="B145" t="n">
         <v>9</v>
@@ -2761,44 +2761,44 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>45895</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>37904</v>
+        <v>37696</v>
       </c>
       <c r="B146" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>45884</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>37698</v>
+        <v>37904</v>
       </c>
       <c r="B147" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>45891</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>37707</v>
+        <v>37698</v>
       </c>
       <c r="B148" t="n">
         <v>9</v>
@@ -2809,12 +2809,12 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>45890</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>37708</v>
+        <v>37707</v>
       </c>
       <c r="B149" t="n">
         <v>9</v>
@@ -2825,12 +2825,12 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>45891</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>37784</v>
+        <v>37708</v>
       </c>
       <c r="B150" t="n">
         <v>9</v>
@@ -2841,12 +2841,12 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>45901</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>37900</v>
+        <v>37784</v>
       </c>
       <c r="B151" t="n">
         <v>9</v>
@@ -2857,12 +2857,12 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>45894</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>38038</v>
+        <v>37900</v>
       </c>
       <c r="B152" t="n">
         <v>9</v>
@@ -2873,12 +2873,12 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>45898</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>38127</v>
+        <v>38038</v>
       </c>
       <c r="B153" t="n">
         <v>9</v>
@@ -2889,76 +2889,76 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>45904</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>38226</v>
+        <v>38127</v>
       </c>
       <c r="B154" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>45924</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>38257</v>
+        <v>38226</v>
       </c>
       <c r="B155" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>45903</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>38604</v>
+        <v>38257</v>
       </c>
       <c r="B156" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>45884</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>38647</v>
+        <v>38604</v>
       </c>
       <c r="B157" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>45883</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>39131</v>
+        <v>38647</v>
       </c>
       <c r="B158" t="n">
         <v>4</v>
@@ -2969,28 +2969,28 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>45888</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>38644</v>
+        <v>39131</v>
       </c>
       <c r="B159" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>45898</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>39089</v>
+        <v>38644</v>
       </c>
       <c r="B160" t="n">
         <v>9</v>
@@ -3001,92 +3001,92 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>45904</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>39218</v>
+        <v>39089</v>
       </c>
       <c r="B161" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>45909</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>39215</v>
+        <v>39218</v>
       </c>
       <c r="B162" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>45884</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>39461</v>
+        <v>39215</v>
       </c>
       <c r="B163" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>45908</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>39437</v>
+        <v>39461</v>
       </c>
       <c r="B164" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>45888</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>39465</v>
+        <v>39437</v>
       </c>
       <c r="B165" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>45894</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>39890</v>
+        <v>39465</v>
       </c>
       <c r="B166" t="n">
         <v>9</v>
@@ -3097,12 +3097,12 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>45905</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>39891</v>
+        <v>39890</v>
       </c>
       <c r="B167" t="n">
         <v>9</v>
@@ -3113,12 +3113,12 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>45897</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>40140</v>
+        <v>39891</v>
       </c>
       <c r="B168" t="n">
         <v>9</v>
@@ -3129,44 +3129,44 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>45905</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>40185</v>
+        <v>40140</v>
       </c>
       <c r="B169" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>45909</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>40186</v>
+        <v>40185</v>
       </c>
       <c r="B170" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>45908</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>40389</v>
+        <v>40186</v>
       </c>
       <c r="B171" t="n">
         <v>9</v>
@@ -3177,12 +3177,12 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>45896</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>40590</v>
+        <v>40389</v>
       </c>
       <c r="B172" t="n">
         <v>9</v>
@@ -3193,12 +3193,12 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>45904</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>40843</v>
+        <v>40590</v>
       </c>
       <c r="B173" t="n">
         <v>9</v>
@@ -3214,7 +3214,7 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>41272</v>
+        <v>40843</v>
       </c>
       <c r="B174" t="n">
         <v>9</v>
@@ -3225,28 +3225,28 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>45895</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>41407</v>
+        <v>41272</v>
       </c>
       <c r="B175" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>45882</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>41616</v>
+        <v>41407</v>
       </c>
       <c r="B176" t="n">
         <v>4</v>
@@ -3262,23 +3262,23 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>41532</v>
+        <v>41616</v>
       </c>
       <c r="B177" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>45894</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>41734</v>
+        <v>41532</v>
       </c>
       <c r="B178" t="n">
         <v>9</v>
@@ -3289,12 +3289,12 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>45895</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>41622</v>
+        <v>41734</v>
       </c>
       <c r="B179" t="n">
         <v>9</v>
@@ -3305,12 +3305,12 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>45908</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>42031</v>
+        <v>41622</v>
       </c>
       <c r="B180" t="n">
         <v>9</v>
@@ -3321,12 +3321,12 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>45895</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>42358</v>
+        <v>42031</v>
       </c>
       <c r="B181" t="n">
         <v>9</v>
@@ -3337,12 +3337,12 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>45889</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>42637</v>
+        <v>42358</v>
       </c>
       <c r="B182" t="n">
         <v>9</v>
@@ -3353,12 +3353,12 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>45904</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>42887</v>
+        <v>42637</v>
       </c>
       <c r="B183" t="n">
         <v>9</v>
@@ -3369,76 +3369,76 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>45896</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>43004</v>
+        <v>42887</v>
       </c>
       <c r="B184" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>45884</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>43140</v>
+        <v>43004</v>
       </c>
       <c r="B185" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>45902</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>43256</v>
+        <v>43140</v>
       </c>
       <c r="B186" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>45883</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>43723</v>
+        <v>43256</v>
       </c>
       <c r="B187" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>45889</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>44102</v>
+        <v>43723</v>
       </c>
       <c r="B188" t="n">
         <v>9</v>
@@ -3449,12 +3449,12 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>45902</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>44103</v>
+        <v>44102</v>
       </c>
       <c r="B189" t="n">
         <v>9</v>
@@ -3465,12 +3465,12 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>45904</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>44877</v>
+        <v>44103</v>
       </c>
       <c r="B190" t="n">
         <v>9</v>
@@ -3481,12 +3481,12 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>45897</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>45134</v>
+        <v>44877</v>
       </c>
       <c r="B191" t="n">
         <v>9</v>
@@ -3497,12 +3497,12 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>45904</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>45335</v>
+        <v>45134</v>
       </c>
       <c r="B192" t="n">
         <v>9</v>
@@ -3513,12 +3513,12 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>45901</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>45586</v>
+        <v>45335</v>
       </c>
       <c r="B193" t="n">
         <v>9</v>
@@ -3529,12 +3529,12 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>45902</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>45583</v>
+        <v>45586</v>
       </c>
       <c r="B194" t="n">
         <v>9</v>
@@ -3545,12 +3545,12 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>45889</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>45585</v>
+        <v>45583</v>
       </c>
       <c r="B195" t="n">
         <v>9</v>
@@ -3561,12 +3561,12 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>45896</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>45967</v>
+        <v>45585</v>
       </c>
       <c r="B196" t="n">
         <v>9</v>
@@ -3577,12 +3577,12 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>45902</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>46082</v>
+        <v>45967</v>
       </c>
       <c r="B197" t="n">
         <v>9</v>
@@ -3593,12 +3593,12 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>45901</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>46209</v>
+        <v>46082</v>
       </c>
       <c r="B198" t="n">
         <v>9</v>
@@ -3609,12 +3609,12 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>45896</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>46380</v>
+        <v>46209</v>
       </c>
       <c r="B199" t="n">
         <v>9</v>
@@ -3625,60 +3625,60 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>45909</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>46208</v>
+        <v>46380</v>
       </c>
       <c r="B200" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>45881</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>46636</v>
+        <v>46208</v>
       </c>
       <c r="B201" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>45909</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>46638</v>
+        <v>46636</v>
       </c>
       <c r="B202" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>45904</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>46895</v>
+        <v>46638</v>
       </c>
       <c r="B203" t="n">
         <v>9</v>
@@ -3689,12 +3689,12 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>45902</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>46734</v>
+        <v>46895</v>
       </c>
       <c r="B204" t="n">
         <v>9</v>
@@ -3705,76 +3705,76 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>45901</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>46990</v>
+        <v>46734</v>
       </c>
       <c r="B205" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>45909</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>47096</v>
+        <v>46990</v>
       </c>
       <c r="B206" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>45901</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>47093</v>
+        <v>47096</v>
       </c>
       <c r="B207" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>45882</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>47362</v>
+        <v>47093</v>
       </c>
       <c r="B208" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>45890</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>48263</v>
+        <v>47362</v>
       </c>
       <c r="B209" t="n">
         <v>9</v>
@@ -3785,44 +3785,44 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>45904</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>48093</v>
+        <v>48263</v>
       </c>
       <c r="B210" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>45882</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>48745</v>
+        <v>48093</v>
       </c>
       <c r="B211" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>45901</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>49071</v>
+        <v>48745</v>
       </c>
       <c r="B212" t="n">
         <v>9</v>
@@ -3833,12 +3833,12 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>45888</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>49191</v>
+        <v>49071</v>
       </c>
       <c r="B213" t="n">
         <v>9</v>
@@ -3849,12 +3849,12 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>45890</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>49189</v>
+        <v>49191</v>
       </c>
       <c r="B214" t="n">
         <v>9</v>
@@ -3865,12 +3865,12 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>45891</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>49301</v>
+        <v>49189</v>
       </c>
       <c r="B215" t="n">
         <v>9</v>
@@ -3886,7 +3886,7 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>49302</v>
+        <v>49301</v>
       </c>
       <c r="B216" t="n">
         <v>9</v>
@@ -3897,60 +3897,60 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>45890</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>49917</v>
+        <v>49302</v>
       </c>
       <c r="B217" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>45883</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>49647</v>
+        <v>49917</v>
       </c>
       <c r="B218" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>45884</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>49746</v>
+        <v>49647</v>
       </c>
       <c r="B219" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>45889</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>49924</v>
+        <v>49746</v>
       </c>
       <c r="B220" t="n">
         <v>9</v>
@@ -3966,39 +3966,39 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>50308</v>
+        <v>49924</v>
       </c>
       <c r="B221" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>45909</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>50310</v>
+        <v>50308</v>
       </c>
       <c r="B222" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>45891</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>50309</v>
+        <v>50310</v>
       </c>
       <c r="B223" t="n">
         <v>9</v>
@@ -4009,156 +4009,156 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>45903</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>50574</v>
+        <v>50309</v>
       </c>
       <c r="B224" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>45882</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>50575</v>
+        <v>50574</v>
       </c>
       <c r="B225" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>45888</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>50705</v>
+        <v>50575</v>
       </c>
       <c r="B226" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>45889</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>50704</v>
+        <v>50705</v>
       </c>
       <c r="B227" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>45881</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>50818</v>
+        <v>50704</v>
       </c>
       <c r="B228" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>45902</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>51156</v>
+        <v>50818</v>
       </c>
       <c r="B229" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>45910</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>51409</v>
+        <v>51156</v>
       </c>
       <c r="B230" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>45889</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>51412</v>
+        <v>51409</v>
       </c>
       <c r="B231" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>45882</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>51506</v>
+        <v>51412</v>
       </c>
       <c r="B232" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>45897</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>51581</v>
+        <v>51506</v>
       </c>
       <c r="B233" t="n">
         <v>9</v>
@@ -4169,12 +4169,12 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>45894</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>52216</v>
+        <v>51581</v>
       </c>
       <c r="B234" t="n">
         <v>9</v>
@@ -4190,7 +4190,7 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>52213</v>
+        <v>52216</v>
       </c>
       <c r="B235" t="n">
         <v>9</v>
@@ -4206,7 +4206,7 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>52286</v>
+        <v>52213</v>
       </c>
       <c r="B236" t="n">
         <v>9</v>
@@ -4217,12 +4217,12 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>45898</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>52283</v>
+        <v>52286</v>
       </c>
       <c r="B237" t="n">
         <v>9</v>
@@ -4233,12 +4233,12 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>45895</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>52353</v>
+        <v>52283</v>
       </c>
       <c r="B238" t="n">
         <v>9</v>
@@ -4249,108 +4249,108 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>45889</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>52601</v>
+        <v>52353</v>
       </c>
       <c r="B239" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>45883</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>53159</v>
+        <v>52601</v>
       </c>
       <c r="B240" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>45891</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>52714</v>
+        <v>53159</v>
       </c>
       <c r="B241" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>45883</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>52965</v>
+        <v>52714</v>
       </c>
       <c r="B242" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>45896</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>53402</v>
+        <v>52965</v>
       </c>
       <c r="B243" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>45883</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>53501</v>
+        <v>53402</v>
       </c>
       <c r="B244" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>45891</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>53696</v>
+        <v>53501</v>
       </c>
       <c r="B245" t="n">
         <v>9</v>
@@ -4361,28 +4361,28 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>45898</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>53622</v>
+        <v>53696</v>
       </c>
       <c r="B246" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>45888</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>53813</v>
+        <v>53622</v>
       </c>
       <c r="B247" t="n">
         <v>4</v>
@@ -4393,12 +4393,12 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>45884</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>54552</v>
+        <v>53813</v>
       </c>
       <c r="B248" t="n">
         <v>4</v>
@@ -4409,12 +4409,12 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>45882</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>54665</v>
+        <v>54552</v>
       </c>
       <c r="B249" t="n">
         <v>4</v>
@@ -4425,76 +4425,76 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>45888</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>54669</v>
+        <v>54665</v>
       </c>
       <c r="B250" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>45910</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>54667</v>
+        <v>54669</v>
       </c>
       <c r="B251" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>45895</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>55289</v>
+        <v>54667</v>
       </c>
       <c r="B252" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>45881</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>55292</v>
+        <v>55289</v>
       </c>
       <c r="B253" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>45903</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>55760</v>
+        <v>55292</v>
       </c>
       <c r="B254" t="n">
         <v>9</v>
@@ -4505,28 +4505,28 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>45904</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>55761</v>
+        <v>55760</v>
       </c>
       <c r="B255" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>45884</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>55847</v>
+        <v>55761</v>
       </c>
       <c r="B256" t="n">
         <v>7</v>
@@ -4537,28 +4537,28 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>45880</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>56088</v>
+        <v>55847</v>
       </c>
       <c r="B257" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>45890</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>56388</v>
+        <v>56088</v>
       </c>
       <c r="B258" t="n">
         <v>9</v>
@@ -4569,76 +4569,76 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>45896</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>56905</v>
+        <v>56388</v>
       </c>
       <c r="B259" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>45880</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>56908</v>
+        <v>56905</v>
       </c>
       <c r="B260" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>45890</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>56946</v>
+        <v>56908</v>
       </c>
       <c r="B261" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>45883</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>57038</v>
+        <v>56946</v>
       </c>
       <c r="B262" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>45901</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>57194</v>
+        <v>57038</v>
       </c>
       <c r="B263" t="n">
         <v>9</v>
@@ -4649,12 +4649,12 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>45890</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>57596</v>
+        <v>57194</v>
       </c>
       <c r="B264" t="n">
         <v>9</v>
@@ -4665,12 +4665,12 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>45898</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>57660</v>
+        <v>57596</v>
       </c>
       <c r="B265" t="n">
         <v>9</v>
@@ -4681,44 +4681,44 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>45890</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>58293</v>
+        <v>57660</v>
       </c>
       <c r="B266" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>45884</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>58472</v>
+        <v>58293</v>
       </c>
       <c r="B267" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>45890</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>58490</v>
+        <v>58472</v>
       </c>
       <c r="B268" t="n">
         <v>9</v>
@@ -4729,12 +4729,12 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>45903</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>58483</v>
+        <v>58490</v>
       </c>
       <c r="B269" t="n">
         <v>9</v>
@@ -4745,12 +4745,12 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>45890</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>58835</v>
+        <v>58483</v>
       </c>
       <c r="B270" t="n">
         <v>9</v>
@@ -4761,12 +4761,12 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>45902</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>58841</v>
+        <v>58835</v>
       </c>
       <c r="B271" t="n">
         <v>9</v>
@@ -4777,12 +4777,12 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>45903</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>59103</v>
+        <v>58841</v>
       </c>
       <c r="B272" t="n">
         <v>9</v>
@@ -4793,92 +4793,92 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>45891</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>59623</v>
+        <v>59103</v>
       </c>
       <c r="B273" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>45881</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>59804</v>
+        <v>59623</v>
       </c>
       <c r="B274" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>45898</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>59960</v>
+        <v>59804</v>
       </c>
       <c r="B275" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>45880</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>60649</v>
+        <v>59960</v>
       </c>
       <c r="B276" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>45895</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>60650</v>
+        <v>60649</v>
       </c>
       <c r="B277" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>45881</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>60651</v>
+        <v>60650</v>
       </c>
       <c r="B278" t="n">
         <v>4</v>
@@ -4894,7 +4894,7 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>60784</v>
+        <v>60651</v>
       </c>
       <c r="B279" t="n">
         <v>4</v>
@@ -4905,44 +4905,44 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>45882</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>60787</v>
+        <v>60784</v>
       </c>
       <c r="B280" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>45896</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>61109</v>
+        <v>60787</v>
       </c>
       <c r="B281" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>45889</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>61171</v>
+        <v>61109</v>
       </c>
       <c r="B282" t="n">
         <v>7</v>
@@ -4953,28 +4953,28 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>45880</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>61175</v>
+        <v>61171</v>
       </c>
       <c r="B283" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>45904</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>61169</v>
+        <v>61175</v>
       </c>
       <c r="B284" t="n">
         <v>9</v>
@@ -4985,12 +4985,12 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>45903</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>61172</v>
+        <v>61169</v>
       </c>
       <c r="B285" t="n">
         <v>9</v>
@@ -5001,76 +5001,76 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>45894</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>61259</v>
+        <v>61172</v>
       </c>
       <c r="B286" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>45880</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>61335</v>
+        <v>61259</v>
       </c>
       <c r="B287" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>45897</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>61333</v>
+        <v>61335</v>
       </c>
       <c r="B288" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>45884</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>61399</v>
+        <v>61333</v>
       </c>
       <c r="B289" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>45908</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>61945</v>
+        <v>61399</v>
       </c>
       <c r="B290" t="n">
         <v>9</v>
@@ -5081,12 +5081,12 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>45895</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>62250</v>
+        <v>61945</v>
       </c>
       <c r="B291" t="n">
         <v>9</v>
@@ -5097,12 +5097,12 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>45903</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>62372</v>
+        <v>62250</v>
       </c>
       <c r="B292" t="n">
         <v>9</v>
@@ -5113,44 +5113,44 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>45895</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>63729</v>
+        <v>62372</v>
       </c>
       <c r="B293" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>45910</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>62822</v>
+        <v>63729</v>
       </c>
       <c r="B294" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>45897</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>63122</v>
+        <v>62822</v>
       </c>
       <c r="B295" t="n">
         <v>9</v>
@@ -5161,12 +5161,12 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>45898</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>63344</v>
+        <v>63122</v>
       </c>
       <c r="B296" t="n">
         <v>9</v>
@@ -5177,76 +5177,76 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>45904</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>64512</v>
+        <v>63344</v>
       </c>
       <c r="B297" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>45882</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>65044</v>
+        <v>64512</v>
       </c>
       <c r="B298" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>45888</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>65202</v>
+        <v>65044</v>
       </c>
       <c r="B299" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>45882</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>65203</v>
+        <v>65202</v>
       </c>
       <c r="B300" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>45897</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>65423</v>
+        <v>65203</v>
       </c>
       <c r="B301" t="n">
         <v>9</v>
@@ -5257,12 +5257,12 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>45905</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>65856</v>
+        <v>65423</v>
       </c>
       <c r="B302" t="n">
         <v>9</v>
@@ -5273,12 +5273,12 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>45904</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>66071</v>
+        <v>65856</v>
       </c>
       <c r="B303" t="n">
         <v>9</v>
@@ -5289,12 +5289,12 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>45903</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>66376</v>
+        <v>66071</v>
       </c>
       <c r="B304" t="n">
         <v>9</v>
@@ -5305,44 +5305,44 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>45905</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>66546</v>
+        <v>66376</v>
       </c>
       <c r="B305" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>45884</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>66547</v>
+        <v>66546</v>
       </c>
       <c r="B306" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>45902</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>66551</v>
+        <v>66547</v>
       </c>
       <c r="B307" t="n">
         <v>9</v>
@@ -5358,7 +5358,7 @@
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>67191</v>
+        <v>66551</v>
       </c>
       <c r="B308" t="n">
         <v>9</v>
@@ -5369,12 +5369,12 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>45895</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>67411</v>
+        <v>67191</v>
       </c>
       <c r="B309" t="n">
         <v>9</v>
@@ -5385,28 +5385,28 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>45889</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>67413</v>
+        <v>67411</v>
       </c>
       <c r="B310" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>45884</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>67471</v>
+        <v>67413</v>
       </c>
       <c r="B311" t="n">
         <v>7</v>
@@ -5417,44 +5417,44 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>45889</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>67522</v>
+        <v>67471</v>
       </c>
       <c r="B312" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>45882</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>67718</v>
+        <v>67522</v>
       </c>
       <c r="B313" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>45894</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>68192</v>
+        <v>67718</v>
       </c>
       <c r="B314" t="n">
         <v>9</v>
@@ -5465,12 +5465,12 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>45898</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>68111</v>
+        <v>68192</v>
       </c>
       <c r="B315" t="n">
         <v>9</v>
@@ -5481,12 +5481,12 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>45891</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>68336</v>
+        <v>68111</v>
       </c>
       <c r="B316" t="n">
         <v>9</v>
@@ -5497,44 +5497,44 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>45902</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>68257</v>
+        <v>68336</v>
       </c>
       <c r="B317" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>45888</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>68701</v>
+        <v>68257</v>
       </c>
       <c r="B318" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>45898</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>68333</v>
+        <v>68701</v>
       </c>
       <c r="B319" t="n">
         <v>9</v>
@@ -5545,12 +5545,12 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>45891</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>68453</v>
+        <v>68333</v>
       </c>
       <c r="B320" t="n">
         <v>9</v>
@@ -5561,12 +5561,12 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>45890</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>68506</v>
+        <v>68453</v>
       </c>
       <c r="B321" t="n">
         <v>9</v>
@@ -5577,12 +5577,12 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>45908</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>68702</v>
+        <v>68506</v>
       </c>
       <c r="B322" t="n">
         <v>9</v>
@@ -5593,12 +5593,12 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>45888</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>68651</v>
+        <v>68702</v>
       </c>
       <c r="B323" t="n">
         <v>9</v>
@@ -5609,44 +5609,44 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>45903</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>68652</v>
+        <v>68651</v>
       </c>
       <c r="B324" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>45884</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>68882</v>
+        <v>68652</v>
       </c>
       <c r="B325" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>45890</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>69415</v>
+        <v>68882</v>
       </c>
       <c r="B326" t="n">
         <v>9</v>
@@ -5657,12 +5657,12 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>45902</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>69254</v>
+        <v>69415</v>
       </c>
       <c r="B327" t="n">
         <v>9</v>
@@ -5673,44 +5673,44 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>45908</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>69416</v>
+        <v>69254</v>
       </c>
       <c r="B328" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>45882</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>69286</v>
+        <v>69416</v>
       </c>
       <c r="B329" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>45897</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>69288</v>
+        <v>69286</v>
       </c>
       <c r="B330" t="n">
         <v>9</v>
@@ -5721,76 +5721,76 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>45905</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>69406</v>
+        <v>69288</v>
       </c>
       <c r="B331" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>45880</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>69738</v>
+        <v>69406</v>
       </c>
       <c r="B332" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>45902</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>69516</v>
+        <v>69738</v>
       </c>
       <c r="B333" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>45880</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>69517</v>
+        <v>69516</v>
       </c>
       <c r="B334" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>45911</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>69658</v>
+        <v>69517</v>
       </c>
       <c r="B335" t="n">
         <v>2</v>
@@ -5801,92 +5801,92 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>69659</v>
+        <v>69658</v>
       </c>
       <c r="B336" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>45880</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>69660</v>
+        <v>69659</v>
       </c>
       <c r="B337" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>45905</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>69889</v>
+        <v>69660</v>
       </c>
       <c r="B338" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>45910</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>70441</v>
+        <v>69889</v>
       </c>
       <c r="B339" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>45897</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>70446</v>
+        <v>70441</v>
       </c>
       <c r="B340" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>45880</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>70443</v>
+        <v>70446</v>
       </c>
       <c r="B341" t="n">
         <v>4</v>
@@ -5897,28 +5897,28 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>45888</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>70450</v>
+        <v>70443</v>
       </c>
       <c r="B342" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>45908</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>70451</v>
+        <v>70450</v>
       </c>
       <c r="B343" t="n">
         <v>9</v>
@@ -5934,87 +5934,87 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>70712</v>
+        <v>70451</v>
       </c>
       <c r="B344" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>45882</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>70905</v>
+        <v>70712</v>
       </c>
       <c r="B345" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>45910</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>70909</v>
+        <v>70905</v>
       </c>
       <c r="B346" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>45903</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>70985</v>
+        <v>70909</v>
       </c>
       <c r="B347" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>45888</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>70991</v>
+        <v>70985</v>
       </c>
       <c r="B348" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>45903</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>70977</v>
+        <v>70991</v>
       </c>
       <c r="B349" t="n">
         <v>9</v>
@@ -6025,92 +6025,92 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>45902</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>71078</v>
+        <v>70977</v>
       </c>
       <c r="B350" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>45888</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>71082</v>
+        <v>71078</v>
       </c>
       <c r="B351" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>45898</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>70978</v>
+        <v>71082</v>
       </c>
       <c r="B352" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>45881</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>71295</v>
+        <v>70978</v>
       </c>
       <c r="B353" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>45884</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>71297</v>
+        <v>71295</v>
       </c>
       <c r="B354" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>45902</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>71705</v>
+        <v>71297</v>
       </c>
       <c r="B355" t="n">
         <v>9</v>
@@ -6121,12 +6121,12 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>45901</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>71710</v>
+        <v>71705</v>
       </c>
       <c r="B356" t="n">
         <v>9</v>
@@ -6137,12 +6137,12 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>45904</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>71697</v>
+        <v>71710</v>
       </c>
       <c r="B357" t="n">
         <v>9</v>
@@ -6153,108 +6153,108 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>45891</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>71700</v>
+        <v>71697</v>
       </c>
       <c r="B358" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>45888</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>71796</v>
+        <v>71700</v>
       </c>
       <c r="B359" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>45909</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>71797</v>
+        <v>71796</v>
       </c>
       <c r="B360" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>45883</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>71798</v>
+        <v>71797</v>
       </c>
       <c r="B361" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>45884</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>71800</v>
+        <v>71798</v>
       </c>
       <c r="B362" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>45882</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>72012</v>
+        <v>71800</v>
       </c>
       <c r="B363" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>45903</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>72217</v>
+        <v>72012</v>
       </c>
       <c r="B364" t="n">
         <v>9</v>
@@ -6265,12 +6265,12 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>45891</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>72932</v>
+        <v>72217</v>
       </c>
       <c r="B365" t="n">
         <v>9</v>
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>45897</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>72228</v>
+        <v>72932</v>
       </c>
       <c r="B366" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>45883</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>72218</v>
+        <v>72228</v>
       </c>
       <c r="B367" t="n">
         <v>4</v>
@@ -6313,60 +6313,60 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>45882</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>72221</v>
+        <v>72218</v>
       </c>
       <c r="B368" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>45903</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>72542</v>
+        <v>72219</v>
       </c>
       <c r="B369" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>45894</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>72543</v>
+        <v>72221</v>
       </c>
       <c r="B370" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>45881</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>72544</v>
+        <v>72542</v>
       </c>
       <c r="B371" t="n">
         <v>9</v>
@@ -6377,28 +6377,28 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>45905</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>72666</v>
+        <v>72543</v>
       </c>
       <c r="B372" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>45896</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>72667</v>
+        <v>72544</v>
       </c>
       <c r="B373" t="n">
         <v>9</v>
@@ -6409,92 +6409,92 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>45896</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>72948</v>
+        <v>72666</v>
       </c>
       <c r="B374" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>45911</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>73193</v>
+        <v>72667</v>
       </c>
       <c r="B375" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>45881</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>73421</v>
+        <v>72948</v>
       </c>
       <c r="B376" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>45890</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>73447</v>
+        <v>73193</v>
       </c>
       <c r="B377" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>45897</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>73527</v>
+        <v>73421</v>
       </c>
       <c r="B378" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>45909</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>73497</v>
+        <v>73447</v>
       </c>
       <c r="B379" t="n">
         <v>9</v>
@@ -6505,12 +6505,12 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>45898</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>73498</v>
+        <v>73527</v>
       </c>
       <c r="B380" t="n">
         <v>2</v>
@@ -6526,7 +6526,7 @@
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>73501</v>
+        <v>73497</v>
       </c>
       <c r="B381" t="n">
         <v>9</v>
@@ -6542,23 +6542,23 @@
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>73554</v>
+        <v>73498</v>
       </c>
       <c r="B382" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>45895</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>73717</v>
+        <v>73501</v>
       </c>
       <c r="B383" t="n">
         <v>9</v>
@@ -6569,28 +6569,28 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>45888</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>73782</v>
+        <v>73554</v>
       </c>
       <c r="B384" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>45915</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>73783</v>
+        <v>73717</v>
       </c>
       <c r="B385" t="n">
         <v>9</v>
@@ -6601,28 +6601,28 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>45897</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>73785</v>
+        <v>73782</v>
       </c>
       <c r="B386" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>45881</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>73793</v>
+        <v>73783</v>
       </c>
       <c r="B387" t="n">
         <v>9</v>
@@ -6633,28 +6633,28 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>45890</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>73788</v>
+        <v>73785</v>
       </c>
       <c r="B388" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>45903</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>73874</v>
+        <v>73793</v>
       </c>
       <c r="B389" t="n">
         <v>9</v>
@@ -6665,28 +6665,28 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>45904</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>73915</v>
+        <v>73788</v>
       </c>
       <c r="B390" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>45882</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>73916</v>
+        <v>73874</v>
       </c>
       <c r="B391" t="n">
         <v>9</v>
@@ -6697,28 +6697,28 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>45895</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>74190</v>
+        <v>73915</v>
       </c>
       <c r="B392" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>45891</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>74176</v>
+        <v>73916</v>
       </c>
       <c r="B393" t="n">
         <v>9</v>
@@ -6729,12 +6729,12 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>45891</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>74183</v>
+        <v>74190</v>
       </c>
       <c r="B394" t="n">
         <v>9</v>
@@ -6745,28 +6745,28 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>45901</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>74439</v>
+        <v>74176</v>
       </c>
       <c r="B395" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>45880</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>74399</v>
+        <v>74183</v>
       </c>
       <c r="B396" t="n">
         <v>9</v>
@@ -6777,28 +6777,28 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>45891</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>74440</v>
+        <v>74439</v>
       </c>
       <c r="B397" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>45902</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>74400</v>
+        <v>74399</v>
       </c>
       <c r="B398" t="n">
         <v>9</v>
@@ -6814,167 +6814,167 @@
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>74710</v>
+        <v>74440</v>
       </c>
       <c r="B399" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>45883</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>74711</v>
+        <v>74400</v>
       </c>
       <c r="B400" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>45916</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>74832</v>
+        <v>74710</v>
       </c>
       <c r="B401" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>45905</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>75027</v>
+        <v>74711</v>
       </c>
       <c r="B402" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>45895</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>75143</v>
+        <v>74832</v>
       </c>
       <c r="B403" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>45909</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>75147</v>
+        <v>75027</v>
       </c>
       <c r="B404" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>45883</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>75152</v>
+        <v>75143</v>
       </c>
       <c r="B405" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>45882</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>75154</v>
+        <v>75147</v>
       </c>
       <c r="B406" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>45889</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>75313</v>
+        <v>75152</v>
       </c>
       <c r="B407" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>45901</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>75311</v>
+        <v>75154</v>
       </c>
       <c r="B408" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>45904</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>75399</v>
+        <v>75313</v>
       </c>
       <c r="B409" t="n">
         <v>9</v>
@@ -6985,28 +6985,28 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>45894</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>75649</v>
+        <v>75311</v>
       </c>
       <c r="B410" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>45910</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>75655</v>
+        <v>75399</v>
       </c>
       <c r="B411" t="n">
         <v>9</v>
@@ -7022,23 +7022,23 @@
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>75660</v>
+        <v>75649</v>
       </c>
       <c r="B412" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>45880</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>75790</v>
+        <v>75655</v>
       </c>
       <c r="B413" t="n">
         <v>9</v>
@@ -7049,28 +7049,28 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>45903</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>75938</v>
+        <v>75660</v>
       </c>
       <c r="B414" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>45895</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>75950</v>
+        <v>75790</v>
       </c>
       <c r="B415" t="n">
         <v>9</v>
@@ -7081,12 +7081,12 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>45902</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>76072</v>
+        <v>75938</v>
       </c>
       <c r="B416" t="n">
         <v>9</v>
@@ -7102,7 +7102,7 @@
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>76073</v>
+        <v>75950</v>
       </c>
       <c r="B417" t="n">
         <v>9</v>
@@ -7113,12 +7113,12 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>45901</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>76218</v>
+        <v>76072</v>
       </c>
       <c r="B418" t="n">
         <v>9</v>
@@ -7129,76 +7129,76 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>45897</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>76332</v>
+        <v>76073</v>
       </c>
       <c r="B419" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>45882</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>76334</v>
+        <v>76218</v>
       </c>
       <c r="B420" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>45880</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>76485</v>
+        <v>76332</v>
       </c>
       <c r="B421" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>45895</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>76695</v>
+        <v>76334</v>
       </c>
       <c r="B422" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>45922</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>76623</v>
+        <v>76485</v>
       </c>
       <c r="B423" t="n">
         <v>9</v>
@@ -7209,28 +7209,28 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>45894</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>76694</v>
+        <v>76695</v>
       </c>
       <c r="B424" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>45890</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>76870</v>
+        <v>76623</v>
       </c>
       <c r="B425" t="n">
         <v>9</v>
@@ -7241,28 +7241,28 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>45903</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>76866</v>
+        <v>76694</v>
       </c>
       <c r="B426" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>45882</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>76869</v>
+        <v>76870</v>
       </c>
       <c r="B427" t="n">
         <v>9</v>
@@ -7278,7 +7278,7 @@
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>76864</v>
+        <v>76866</v>
       </c>
       <c r="B428" t="n">
         <v>4</v>
@@ -7294,7 +7294,7 @@
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>77050</v>
+        <v>76869</v>
       </c>
       <c r="B429" t="n">
         <v>9</v>
@@ -7305,28 +7305,28 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>45897</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>77049</v>
+        <v>76864</v>
       </c>
       <c r="B430" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>45890</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>77267</v>
+        <v>77050</v>
       </c>
       <c r="B431" t="n">
         <v>9</v>
@@ -7337,12 +7337,12 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>45891</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>77262</v>
+        <v>77049</v>
       </c>
       <c r="B432" t="n">
         <v>9</v>
@@ -7353,28 +7353,28 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>45908</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>77764</v>
+        <v>77267</v>
       </c>
       <c r="B433" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>45888</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>77756</v>
+        <v>77262</v>
       </c>
       <c r="B434" t="n">
         <v>9</v>
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>45905</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>77830</v>
+        <v>77764</v>
       </c>
       <c r="B435" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>45898</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>77831</v>
+        <v>77756</v>
       </c>
       <c r="B436" t="n">
         <v>9</v>
@@ -7422,23 +7422,23 @@
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>77834</v>
+        <v>77830</v>
       </c>
       <c r="B437" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>45888</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>77941</v>
+        <v>77831</v>
       </c>
       <c r="B438" t="n">
         <v>9</v>
@@ -7454,39 +7454,39 @@
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>78032</v>
+        <v>77834</v>
       </c>
       <c r="B439" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>45903</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>78033</v>
+        <v>77941</v>
       </c>
       <c r="B440" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>45882</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>78034</v>
+        <v>78032</v>
       </c>
       <c r="B441" t="n">
         <v>9</v>
@@ -7497,28 +7497,28 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>45908</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>78163</v>
+        <v>78033</v>
       </c>
       <c r="B442" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>45929</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>78202</v>
+        <v>78034</v>
       </c>
       <c r="B443" t="n">
         <v>9</v>
@@ -7529,28 +7529,28 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>45897</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>78167</v>
+        <v>78163</v>
       </c>
       <c r="B444" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>45908</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>78168</v>
+        <v>78202</v>
       </c>
       <c r="B445" t="n">
         <v>9</v>
@@ -7561,12 +7561,12 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>45896</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>78169</v>
+        <v>78167</v>
       </c>
       <c r="B446" t="n">
         <v>9</v>
@@ -7577,12 +7577,12 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>45898</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>78285</v>
+        <v>78168</v>
       </c>
       <c r="B447" t="n">
         <v>9</v>
@@ -7593,12 +7593,12 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>45894</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>78287</v>
+        <v>78169</v>
       </c>
       <c r="B448" t="n">
         <v>9</v>
@@ -7609,12 +7609,12 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>45896</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>78288</v>
+        <v>78285</v>
       </c>
       <c r="B449" t="n">
         <v>9</v>
@@ -7625,12 +7625,12 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>45902</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>78308</v>
+        <v>78287</v>
       </c>
       <c r="B450" t="n">
         <v>9</v>
@@ -7641,12 +7641,12 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>45897</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>78404</v>
+        <v>78288</v>
       </c>
       <c r="B451" t="n">
         <v>9</v>
@@ -7657,12 +7657,12 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>45890</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>79166</v>
+        <v>78308</v>
       </c>
       <c r="B452" t="n">
         <v>9</v>
@@ -7673,28 +7673,28 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>45894</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>79162</v>
+        <v>78403</v>
       </c>
       <c r="B453" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>45890</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>79333</v>
+        <v>78404</v>
       </c>
       <c r="B454" t="n">
         <v>9</v>
@@ -7705,12 +7705,12 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>45894</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>79435</v>
+        <v>79166</v>
       </c>
       <c r="B455" t="n">
         <v>9</v>
@@ -7721,60 +7721,60 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>45890</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>79446</v>
+        <v>79154</v>
       </c>
       <c r="B456" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>45881</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>79436</v>
+        <v>79162</v>
       </c>
       <c r="B457" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>45888</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>79425</v>
+        <v>79333</v>
       </c>
       <c r="B458" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>45881</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>79442</v>
+        <v>79435</v>
       </c>
       <c r="B459" t="n">
         <v>9</v>
@@ -7785,76 +7785,76 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>45898</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>79437</v>
+        <v>79446</v>
       </c>
       <c r="B460" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>45895</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>79586</v>
+        <v>79436</v>
       </c>
       <c r="B461" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>45898</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>79587</v>
+        <v>79425</v>
       </c>
       <c r="B462" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>45894</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>79588</v>
+        <v>79442</v>
       </c>
       <c r="B463" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>45884</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>79589</v>
+        <v>79437</v>
       </c>
       <c r="B464" t="n">
         <v>9</v>
@@ -7865,108 +7865,108 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>45890</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>79668</v>
+        <v>79586</v>
       </c>
       <c r="B465" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>45884</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>79660</v>
+        <v>79587</v>
       </c>
       <c r="B466" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>45880</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>79590</v>
+        <v>79588</v>
       </c>
       <c r="B467" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>45898</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>79809</v>
+        <v>79589</v>
       </c>
       <c r="B468" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>45880</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>79962</v>
+        <v>79668</v>
       </c>
       <c r="B469" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>45889</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>79963</v>
+        <v>79660</v>
       </c>
       <c r="B470" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>45884</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>79965</v>
+        <v>79590</v>
       </c>
       <c r="B471" t="n">
         <v>9</v>
@@ -7977,28 +7977,28 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>45896</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>79966</v>
+        <v>79809</v>
       </c>
       <c r="B472" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>45895</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>80083</v>
+        <v>79962</v>
       </c>
       <c r="B473" t="n">
         <v>9</v>
@@ -8014,39 +8014,39 @@
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>80086</v>
+        <v>79963</v>
       </c>
       <c r="B474" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>45898</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>80072</v>
+        <v>79965</v>
       </c>
       <c r="B475" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>45880</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>80073</v>
+        <v>79966</v>
       </c>
       <c r="B476" t="n">
         <v>9</v>
@@ -8057,12 +8057,12 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>45897</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>80198</v>
+        <v>80083</v>
       </c>
       <c r="B477" t="n">
         <v>9</v>
@@ -8073,12 +8073,12 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>45895</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>80199</v>
+        <v>80086</v>
       </c>
       <c r="B478" t="n">
         <v>9</v>
@@ -8089,28 +8089,28 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>45894</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>80201</v>
+        <v>80087</v>
       </c>
       <c r="B479" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>45882</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>80318</v>
+        <v>80072</v>
       </c>
       <c r="B480" t="n">
         <v>4</v>
@@ -8121,12 +8121,12 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>45881</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>80317</v>
+        <v>80073</v>
       </c>
       <c r="B481" t="n">
         <v>9</v>
@@ -8137,12 +8137,12 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>45894</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>80415</v>
+        <v>80198</v>
       </c>
       <c r="B482" t="n">
         <v>9</v>
@@ -8153,12 +8153,12 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>45889</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>80547</v>
+        <v>80199</v>
       </c>
       <c r="B483" t="n">
         <v>9</v>
@@ -8169,28 +8169,28 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>45896</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>80635</v>
+        <v>80201</v>
       </c>
       <c r="B484" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>45889</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>80636</v>
+        <v>80318</v>
       </c>
       <c r="B485" t="n">
         <v>4</v>
@@ -8201,22 +8201,118 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>45884</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
+        <v>80317</v>
+      </c>
+      <c r="B486" t="n">
+        <v>9</v>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>En Ruta</t>
+        </is>
+      </c>
+      <c r="D486" s="2" t="n">
+        <v>45894</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>80415</v>
+      </c>
+      <c r="B487" t="n">
+        <v>9</v>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>En Ruta</t>
+        </is>
+      </c>
+      <c r="D487" s="2" t="n">
+        <v>45922</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>80547</v>
+      </c>
+      <c r="B488" t="n">
+        <v>9</v>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>En Ruta</t>
+        </is>
+      </c>
+      <c r="D488" s="2" t="n">
+        <v>45896</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>80635</v>
+      </c>
+      <c r="B489" t="n">
+        <v>7</v>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>Por Reprogramar</t>
+        </is>
+      </c>
+      <c r="D489" s="2" t="n">
+        <v>45889</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>80636</v>
+      </c>
+      <c r="B490" t="n">
+        <v>4</v>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>Migrado</t>
+        </is>
+      </c>
+      <c r="D490" s="2" t="n">
+        <v>45888</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>80637</v>
+      </c>
+      <c r="B491" t="n">
+        <v>9</v>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>En Ruta</t>
+        </is>
+      </c>
+      <c r="D491" s="2" t="n">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
         <v>80707</v>
       </c>
-      <c r="B486" t="n">
+      <c r="B492" t="n">
         <v>7</v>
       </c>
-      <c r="C486" t="inlineStr">
+      <c r="C492" t="inlineStr">
         <is>
           <t>Por Reprogramar</t>
         </is>
       </c>
-      <c r="D486" s="2" t="n">
+      <c r="D492" s="2" t="n">
         <v>45882</v>
       </c>
     </row>
@@ -8258,7 +8354,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3">
@@ -8278,7 +8374,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">

--- a/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
+++ b/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D492"/>
+  <dimension ref="A1:D480"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1870,7 +1870,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>28951</v>
+        <v>29138</v>
       </c>
       <c r="B90" t="n">
         <v>9</v>
@@ -1881,12 +1881,12 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>45888</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>29138</v>
+        <v>29309</v>
       </c>
       <c r="B91" t="n">
         <v>9</v>
@@ -1897,28 +1897,28 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>45891</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>29309</v>
+        <v>29767</v>
       </c>
       <c r="B92" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>45902</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>29767</v>
+        <v>30082</v>
       </c>
       <c r="B93" t="n">
         <v>7</v>
@@ -1929,28 +1929,28 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>45880</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>30082</v>
+        <v>30149</v>
       </c>
       <c r="B94" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>45884</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>30149</v>
+        <v>30280</v>
       </c>
       <c r="B95" t="n">
         <v>4</v>
@@ -1961,124 +1961,124 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>45882</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>30280</v>
+        <v>30293</v>
       </c>
       <c r="B96" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>45888</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>30293</v>
+        <v>30285</v>
       </c>
       <c r="B97" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>45896</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>30285</v>
+        <v>30464</v>
       </c>
       <c r="B98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>45883</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>30464</v>
+        <v>30301</v>
       </c>
       <c r="B99" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>45911</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>30301</v>
+        <v>30572</v>
       </c>
       <c r="B100" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>45889</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>30572</v>
+        <v>30556</v>
       </c>
       <c r="B101" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>45884</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>30556</v>
+        <v>30736</v>
       </c>
       <c r="B102" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>45880</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>30736</v>
+        <v>30845</v>
       </c>
       <c r="B103" t="n">
         <v>9</v>
@@ -2089,12 +2089,12 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>45896</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>30845</v>
+        <v>31007</v>
       </c>
       <c r="B104" t="n">
         <v>9</v>
@@ -2105,44 +2105,44 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>45908</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>31007</v>
+        <v>31122</v>
       </c>
       <c r="B105" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>45890</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>31122</v>
+        <v>31353</v>
       </c>
       <c r="B106" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>45883</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>31353</v>
+        <v>31446</v>
       </c>
       <c r="B107" t="n">
         <v>9</v>
@@ -2153,12 +2153,12 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>45895</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>31446</v>
+        <v>31351</v>
       </c>
       <c r="B108" t="n">
         <v>9</v>
@@ -2169,12 +2169,12 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>45902</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>31351</v>
+        <v>31668</v>
       </c>
       <c r="B109" t="n">
         <v>9</v>
@@ -2185,12 +2185,12 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>45924</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>31668</v>
+        <v>31765</v>
       </c>
       <c r="B110" t="n">
         <v>9</v>
@@ -2206,7 +2206,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>31765</v>
+        <v>31766</v>
       </c>
       <c r="B111" t="n">
         <v>9</v>
@@ -2217,12 +2217,12 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>45895</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>31766</v>
+        <v>32927</v>
       </c>
       <c r="B112" t="n">
         <v>9</v>
@@ -2233,60 +2233,60 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>45898</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>32927</v>
+        <v>32920</v>
       </c>
       <c r="B113" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>45890</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>32920</v>
+        <v>33413</v>
       </c>
       <c r="B114" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>45880</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>33413</v>
+        <v>33404</v>
       </c>
       <c r="B115" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>45881</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>33404</v>
+        <v>33777</v>
       </c>
       <c r="B116" t="n">
         <v>9</v>
@@ -2297,44 +2297,44 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>45901</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>33777</v>
+        <v>34010</v>
       </c>
       <c r="B117" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>45896</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>34010</v>
+        <v>34266</v>
       </c>
       <c r="B118" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>45891</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>34266</v>
+        <v>34267</v>
       </c>
       <c r="B119" t="n">
         <v>9</v>
@@ -2345,12 +2345,12 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>45903</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>34267</v>
+        <v>34520</v>
       </c>
       <c r="B120" t="n">
         <v>9</v>
@@ -2361,12 +2361,12 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>45897</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>34520</v>
+        <v>34786</v>
       </c>
       <c r="B121" t="n">
         <v>9</v>
@@ -2377,76 +2377,76 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>45903</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>34786</v>
+        <v>34847</v>
       </c>
       <c r="B122" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>45891</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>34847</v>
+        <v>34922</v>
       </c>
       <c r="B123" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>45880</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>34922</v>
+        <v>35150</v>
       </c>
       <c r="B124" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>45905</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>35150</v>
+        <v>35302</v>
       </c>
       <c r="B125" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>45889</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>35302</v>
+        <v>35402</v>
       </c>
       <c r="B126" t="n">
         <v>9</v>
@@ -2457,12 +2457,12 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>45901</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>35402</v>
+        <v>35525</v>
       </c>
       <c r="B127" t="n">
         <v>9</v>
@@ -2473,12 +2473,12 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>45891</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>35525</v>
+        <v>35717</v>
       </c>
       <c r="B128" t="n">
         <v>9</v>
@@ -2489,12 +2489,12 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>45895</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>35717</v>
+        <v>35708</v>
       </c>
       <c r="B129" t="n">
         <v>9</v>
@@ -2505,44 +2505,44 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>45901</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>35708</v>
+        <v>35953</v>
       </c>
       <c r="B130" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>45895</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>35953</v>
+        <v>36209</v>
       </c>
       <c r="B131" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>45880</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>36209</v>
+        <v>36212</v>
       </c>
       <c r="B132" t="n">
         <v>9</v>
@@ -2553,12 +2553,12 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>45901</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>36212</v>
+        <v>36428</v>
       </c>
       <c r="B133" t="n">
         <v>9</v>
@@ -2569,12 +2569,12 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>45890</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>36428</v>
+        <v>36434</v>
       </c>
       <c r="B134" t="n">
         <v>9</v>
@@ -2585,92 +2585,92 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>45894</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>36434</v>
+        <v>36659</v>
       </c>
       <c r="B135" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>45904</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>36435</v>
+        <v>36851</v>
       </c>
       <c r="B136" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>45901</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>36659</v>
+        <v>36971</v>
       </c>
       <c r="B137" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>45880</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>36851</v>
+        <v>37125</v>
       </c>
       <c r="B138" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>45883</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>36971</v>
+        <v>37302</v>
       </c>
       <c r="B139" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>45922</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>37125</v>
+        <v>37477</v>
       </c>
       <c r="B140" t="n">
         <v>9</v>
@@ -2681,28 +2681,28 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>45894</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>37302</v>
+        <v>37471</v>
       </c>
       <c r="B141" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>45901</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>37477</v>
+        <v>37567</v>
       </c>
       <c r="B142" t="n">
         <v>9</v>
@@ -2713,28 +2713,28 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>45897</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>37471</v>
+        <v>37568</v>
       </c>
       <c r="B143" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>45880</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>37567</v>
+        <v>37696</v>
       </c>
       <c r="B144" t="n">
         <v>9</v>
@@ -2745,28 +2745,28 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>45898</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>37568</v>
+        <v>37904</v>
       </c>
       <c r="B145" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>45908</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>37696</v>
+        <v>37698</v>
       </c>
       <c r="B146" t="n">
         <v>9</v>
@@ -2777,28 +2777,28 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>45895</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>37904</v>
+        <v>37707</v>
       </c>
       <c r="B147" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>45888</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>37698</v>
+        <v>37708</v>
       </c>
       <c r="B148" t="n">
         <v>9</v>
@@ -2809,12 +2809,12 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>45924</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>37707</v>
+        <v>37784</v>
       </c>
       <c r="B149" t="n">
         <v>9</v>
@@ -2825,12 +2825,12 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>45890</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>37708</v>
+        <v>37900</v>
       </c>
       <c r="B150" t="n">
         <v>9</v>
@@ -2841,12 +2841,12 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>45891</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>37784</v>
+        <v>38038</v>
       </c>
       <c r="B151" t="n">
         <v>9</v>
@@ -2857,12 +2857,12 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>45901</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>37900</v>
+        <v>38127</v>
       </c>
       <c r="B152" t="n">
         <v>9</v>
@@ -2873,60 +2873,60 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>45894</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>38038</v>
+        <v>38226</v>
       </c>
       <c r="B153" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>45898</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>38127</v>
+        <v>38257</v>
       </c>
       <c r="B154" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>45904</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>38226</v>
+        <v>38604</v>
       </c>
       <c r="B155" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>45924</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>38257</v>
+        <v>38647</v>
       </c>
       <c r="B156" t="n">
         <v>4</v>
@@ -2937,108 +2937,108 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>45903</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>38604</v>
+        <v>39131</v>
       </c>
       <c r="B157" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>45884</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>38647</v>
+        <v>38644</v>
       </c>
       <c r="B158" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>45883</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>39131</v>
+        <v>39089</v>
       </c>
       <c r="B159" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>45888</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>38644</v>
+        <v>39218</v>
       </c>
       <c r="B160" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>45898</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>39089</v>
+        <v>39215</v>
       </c>
       <c r="B161" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>45904</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>39218</v>
+        <v>39461</v>
       </c>
       <c r="B162" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>45909</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>39215</v>
+        <v>39437</v>
       </c>
       <c r="B163" t="n">
         <v>7</v>
@@ -3049,12 +3049,12 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>45884</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>39461</v>
+        <v>39465</v>
       </c>
       <c r="B164" t="n">
         <v>9</v>
@@ -3065,28 +3065,28 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>45908</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>39437</v>
+        <v>39890</v>
       </c>
       <c r="B165" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>45888</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>39465</v>
+        <v>39891</v>
       </c>
       <c r="B166" t="n">
         <v>9</v>
@@ -3097,12 +3097,12 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>45894</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>39890</v>
+        <v>40140</v>
       </c>
       <c r="B167" t="n">
         <v>9</v>
@@ -3118,23 +3118,23 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>39891</v>
+        <v>40185</v>
       </c>
       <c r="B168" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>45897</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>40140</v>
+        <v>40186</v>
       </c>
       <c r="B169" t="n">
         <v>9</v>
@@ -3145,28 +3145,28 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>45905</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>40185</v>
+        <v>40389</v>
       </c>
       <c r="B170" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>45909</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>40186</v>
+        <v>40590</v>
       </c>
       <c r="B171" t="n">
         <v>9</v>
@@ -3177,12 +3177,12 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>45908</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>40389</v>
+        <v>40843</v>
       </c>
       <c r="B172" t="n">
         <v>9</v>
@@ -3193,12 +3193,12 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>45896</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>40590</v>
+        <v>41272</v>
       </c>
       <c r="B173" t="n">
         <v>9</v>
@@ -3209,76 +3209,76 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>45904</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>40843</v>
+        <v>41407</v>
       </c>
       <c r="B174" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>45904</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>41272</v>
+        <v>41616</v>
       </c>
       <c r="B175" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>45895</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>41407</v>
+        <v>41532</v>
       </c>
       <c r="B176" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>45882</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>41616</v>
+        <v>41734</v>
       </c>
       <c r="B177" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>45882</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>41532</v>
+        <v>41622</v>
       </c>
       <c r="B178" t="n">
         <v>9</v>
@@ -3289,12 +3289,12 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>45894</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>41734</v>
+        <v>42031</v>
       </c>
       <c r="B179" t="n">
         <v>9</v>
@@ -3310,7 +3310,7 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>41622</v>
+        <v>42358</v>
       </c>
       <c r="B180" t="n">
         <v>9</v>
@@ -3321,12 +3321,12 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>45908</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>42031</v>
+        <v>42637</v>
       </c>
       <c r="B181" t="n">
         <v>9</v>
@@ -3337,12 +3337,12 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>45895</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>42358</v>
+        <v>42887</v>
       </c>
       <c r="B182" t="n">
         <v>9</v>
@@ -3353,28 +3353,28 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>45922</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>42637</v>
+        <v>43004</v>
       </c>
       <c r="B183" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>45904</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>42887</v>
+        <v>43140</v>
       </c>
       <c r="B184" t="n">
         <v>9</v>
@@ -3385,28 +3385,28 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>45896</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>43004</v>
+        <v>43256</v>
       </c>
       <c r="B185" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>45884</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>43140</v>
+        <v>43723</v>
       </c>
       <c r="B186" t="n">
         <v>9</v>
@@ -3417,28 +3417,28 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>45902</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>43256</v>
+        <v>44102</v>
       </c>
       <c r="B187" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>45883</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>43723</v>
+        <v>44103</v>
       </c>
       <c r="B188" t="n">
         <v>9</v>
@@ -3449,12 +3449,12 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>45889</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>44102</v>
+        <v>44877</v>
       </c>
       <c r="B189" t="n">
         <v>9</v>
@@ -3465,12 +3465,12 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>45902</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>44103</v>
+        <v>45134</v>
       </c>
       <c r="B190" t="n">
         <v>9</v>
@@ -3486,7 +3486,7 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>44877</v>
+        <v>45335</v>
       </c>
       <c r="B191" t="n">
         <v>9</v>
@@ -3497,12 +3497,12 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>45897</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>45134</v>
+        <v>45586</v>
       </c>
       <c r="B192" t="n">
         <v>9</v>
@@ -3513,12 +3513,12 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>45904</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>45335</v>
+        <v>45583</v>
       </c>
       <c r="B193" t="n">
         <v>9</v>
@@ -3529,12 +3529,12 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>45901</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>45586</v>
+        <v>45585</v>
       </c>
       <c r="B194" t="n">
         <v>9</v>
@@ -3545,12 +3545,12 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>45902</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>45583</v>
+        <v>45967</v>
       </c>
       <c r="B195" t="n">
         <v>9</v>
@@ -3561,12 +3561,12 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>45889</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>45585</v>
+        <v>46082</v>
       </c>
       <c r="B196" t="n">
         <v>9</v>
@@ -3577,12 +3577,12 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>45896</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>45967</v>
+        <v>46209</v>
       </c>
       <c r="B197" t="n">
         <v>9</v>
@@ -3593,12 +3593,12 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>45902</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>46082</v>
+        <v>46380</v>
       </c>
       <c r="B198" t="n">
         <v>9</v>
@@ -3609,35 +3609,35 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>45901</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>46209</v>
+        <v>46208</v>
       </c>
       <c r="B199" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>45896</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>46380</v>
+        <v>46636</v>
       </c>
       <c r="B200" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D200" s="2" t="n">
@@ -3646,39 +3646,39 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>46208</v>
+        <v>46638</v>
       </c>
       <c r="B201" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>45881</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>46636</v>
+        <v>46895</v>
       </c>
       <c r="B202" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>45909</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>46638</v>
+        <v>46734</v>
       </c>
       <c r="B203" t="n">
         <v>9</v>
@@ -3689,76 +3689,76 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>45904</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>46895</v>
+        <v>46990</v>
       </c>
       <c r="B204" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>45902</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>46734</v>
+        <v>47093</v>
       </c>
       <c r="B205" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>45901</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>46990</v>
+        <v>47362</v>
       </c>
       <c r="B206" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>45909</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>47096</v>
+        <v>48263</v>
       </c>
       <c r="B207" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>45901</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>47093</v>
+        <v>48093</v>
       </c>
       <c r="B208" t="n">
         <v>4</v>
@@ -3774,7 +3774,7 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>47362</v>
+        <v>48745</v>
       </c>
       <c r="B209" t="n">
         <v>9</v>
@@ -3785,12 +3785,12 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>45923</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>48263</v>
+        <v>49071</v>
       </c>
       <c r="B210" t="n">
         <v>9</v>
@@ -3801,28 +3801,28 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>45904</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>48093</v>
+        <v>49191</v>
       </c>
       <c r="B211" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>45882</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>48745</v>
+        <v>49189</v>
       </c>
       <c r="B212" t="n">
         <v>9</v>
@@ -3833,12 +3833,12 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>45901</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>49071</v>
+        <v>49301</v>
       </c>
       <c r="B213" t="n">
         <v>9</v>
@@ -3849,12 +3849,12 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>45919</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>49191</v>
+        <v>49302</v>
       </c>
       <c r="B214" t="n">
         <v>9</v>
@@ -3870,39 +3870,39 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>49189</v>
+        <v>49917</v>
       </c>
       <c r="B215" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>45891</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>49301</v>
+        <v>49647</v>
       </c>
       <c r="B216" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>45891</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>49302</v>
+        <v>49746</v>
       </c>
       <c r="B217" t="n">
         <v>9</v>
@@ -3913,44 +3913,44 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>45890</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>49917</v>
+        <v>49924</v>
       </c>
       <c r="B218" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>45883</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>49647</v>
+        <v>50308</v>
       </c>
       <c r="B219" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>45884</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>49746</v>
+        <v>50310</v>
       </c>
       <c r="B220" t="n">
         <v>9</v>
@@ -3961,12 +3961,12 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>45889</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>49924</v>
+        <v>50309</v>
       </c>
       <c r="B221" t="n">
         <v>9</v>
@@ -3977,44 +3977,44 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>45889</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>50308</v>
+        <v>50574</v>
       </c>
       <c r="B222" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>45909</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>50310</v>
+        <v>50575</v>
       </c>
       <c r="B223" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>45891</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>50309</v>
+        <v>50705</v>
       </c>
       <c r="B224" t="n">
         <v>9</v>
@@ -4025,108 +4025,108 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>45903</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>50574</v>
+        <v>50704</v>
       </c>
       <c r="B225" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>45882</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>50575</v>
+        <v>50818</v>
       </c>
       <c r="B226" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>45888</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>50705</v>
+        <v>51156</v>
       </c>
       <c r="B227" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>45889</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>50704</v>
+        <v>51409</v>
       </c>
       <c r="B228" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>45881</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>50818</v>
+        <v>51412</v>
       </c>
       <c r="B229" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>45902</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>51156</v>
+        <v>51506</v>
       </c>
       <c r="B230" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>45910</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>51409</v>
+        <v>51581</v>
       </c>
       <c r="B231" t="n">
         <v>9</v>
@@ -4137,28 +4137,28 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>45889</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>51412</v>
+        <v>52216</v>
       </c>
       <c r="B232" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>45882</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>51506</v>
+        <v>52213</v>
       </c>
       <c r="B233" t="n">
         <v>9</v>
@@ -4169,12 +4169,12 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>45897</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>51581</v>
+        <v>52286</v>
       </c>
       <c r="B234" t="n">
         <v>9</v>
@@ -4185,12 +4185,12 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>45894</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>52216</v>
+        <v>52283</v>
       </c>
       <c r="B235" t="n">
         <v>9</v>
@@ -4201,12 +4201,12 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>45894</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>52213</v>
+        <v>52353</v>
       </c>
       <c r="B236" t="n">
         <v>9</v>
@@ -4217,28 +4217,28 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>45894</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>52286</v>
+        <v>52601</v>
       </c>
       <c r="B237" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>45898</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>52283</v>
+        <v>53159</v>
       </c>
       <c r="B238" t="n">
         <v>9</v>
@@ -4249,76 +4249,76 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>45895</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>52353</v>
+        <v>52714</v>
       </c>
       <c r="B239" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>45889</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>52601</v>
+        <v>52965</v>
       </c>
       <c r="B240" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>45883</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>53159</v>
+        <v>53402</v>
       </c>
       <c r="B241" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>45924</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>52714</v>
+        <v>53501</v>
       </c>
       <c r="B242" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>45883</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>52965</v>
+        <v>53696</v>
       </c>
       <c r="B243" t="n">
         <v>9</v>
@@ -4329,12 +4329,12 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>45896</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>53402</v>
+        <v>53622</v>
       </c>
       <c r="B244" t="n">
         <v>4</v>
@@ -4345,44 +4345,44 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>45883</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>53501</v>
+        <v>53813</v>
       </c>
       <c r="B245" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>45891</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>53696</v>
+        <v>54552</v>
       </c>
       <c r="B246" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>45898</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>53622</v>
+        <v>54665</v>
       </c>
       <c r="B247" t="n">
         <v>4</v>
@@ -4398,39 +4398,39 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>53813</v>
+        <v>54669</v>
       </c>
       <c r="B248" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>45888</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>54552</v>
+        <v>54667</v>
       </c>
       <c r="B249" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>45882</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>54665</v>
+        <v>55289</v>
       </c>
       <c r="B250" t="n">
         <v>4</v>
@@ -4441,28 +4441,28 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>45888</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>54669</v>
+        <v>55292</v>
       </c>
       <c r="B251" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>45910</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>54667</v>
+        <v>55760</v>
       </c>
       <c r="B252" t="n">
         <v>9</v>
@@ -4473,44 +4473,44 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>45895</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>55289</v>
+        <v>55761</v>
       </c>
       <c r="B253" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>45881</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>55292</v>
+        <v>55847</v>
       </c>
       <c r="B254" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>45903</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>55760</v>
+        <v>56088</v>
       </c>
       <c r="B255" t="n">
         <v>9</v>
@@ -4521,28 +4521,28 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>45904</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>55761</v>
+        <v>56388</v>
       </c>
       <c r="B256" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>45884</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>55847</v>
+        <v>56905</v>
       </c>
       <c r="B257" t="n">
         <v>7</v>
@@ -4558,7 +4558,7 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>56088</v>
+        <v>56908</v>
       </c>
       <c r="B258" t="n">
         <v>9</v>
@@ -4569,44 +4569,44 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>45890</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>56388</v>
+        <v>56946</v>
       </c>
       <c r="B259" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>45896</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>56905</v>
+        <v>57038</v>
       </c>
       <c r="B260" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>45880</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>56908</v>
+        <v>57194</v>
       </c>
       <c r="B261" t="n">
         <v>9</v>
@@ -4617,28 +4617,28 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>45923</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>56946</v>
+        <v>57596</v>
       </c>
       <c r="B262" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>45883</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>57038</v>
+        <v>57660</v>
       </c>
       <c r="B263" t="n">
         <v>9</v>
@@ -4649,28 +4649,28 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>45901</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>57194</v>
+        <v>58293</v>
       </c>
       <c r="B264" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>45890</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>57596</v>
+        <v>58472</v>
       </c>
       <c r="B265" t="n">
         <v>9</v>
@@ -4681,12 +4681,12 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>45898</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>57660</v>
+        <v>58490</v>
       </c>
       <c r="B266" t="n">
         <v>9</v>
@@ -4697,28 +4697,28 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>45890</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>58293</v>
+        <v>58483</v>
       </c>
       <c r="B267" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>45884</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>58472</v>
+        <v>58835</v>
       </c>
       <c r="B268" t="n">
         <v>9</v>
@@ -4729,12 +4729,12 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>45923</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>58490</v>
+        <v>58841</v>
       </c>
       <c r="B269" t="n">
         <v>9</v>
@@ -4750,7 +4750,7 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>58483</v>
+        <v>59103</v>
       </c>
       <c r="B270" t="n">
         <v>9</v>
@@ -4761,44 +4761,44 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>45890</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>58835</v>
+        <v>59623</v>
       </c>
       <c r="B271" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>45902</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>58841</v>
+        <v>59960</v>
       </c>
       <c r="B272" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>45903</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>59103</v>
+        <v>60649</v>
       </c>
       <c r="B273" t="n">
         <v>9</v>
@@ -4809,12 +4809,12 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>45891</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>59623</v>
+        <v>60650</v>
       </c>
       <c r="B274" t="n">
         <v>4</v>
@@ -4830,23 +4830,23 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>59804</v>
+        <v>60651</v>
       </c>
       <c r="B275" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>45898</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>59960</v>
+        <v>60784</v>
       </c>
       <c r="B276" t="n">
         <v>4</v>
@@ -4857,12 +4857,12 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>45880</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>60649</v>
+        <v>60787</v>
       </c>
       <c r="B277" t="n">
         <v>9</v>
@@ -4873,60 +4873,60 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>45895</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>60650</v>
+        <v>61109</v>
       </c>
       <c r="B278" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>45881</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>60651</v>
+        <v>61171</v>
       </c>
       <c r="B279" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>45881</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>60784</v>
+        <v>61175</v>
       </c>
       <c r="B280" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>45882</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>60787</v>
+        <v>61169</v>
       </c>
       <c r="B281" t="n">
         <v>9</v>
@@ -4937,35 +4937,35 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>45896</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>61109</v>
+        <v>61172</v>
       </c>
       <c r="B282" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>45889</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>61171</v>
+        <v>61259</v>
       </c>
       <c r="B283" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D283" s="2" t="n">
@@ -4974,7 +4974,7 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>61175</v>
+        <v>61335</v>
       </c>
       <c r="B284" t="n">
         <v>9</v>
@@ -4985,28 +4985,28 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>45904</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>61169</v>
+        <v>61333</v>
       </c>
       <c r="B285" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>45903</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>61172</v>
+        <v>61399</v>
       </c>
       <c r="B286" t="n">
         <v>9</v>
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>45894</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>61259</v>
+        <v>61945</v>
       </c>
       <c r="B287" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>45880</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>61335</v>
+        <v>62250</v>
       </c>
       <c r="B288" t="n">
         <v>9</v>
@@ -5049,44 +5049,44 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>45897</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>61333</v>
+        <v>62372</v>
       </c>
       <c r="B289" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>45884</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>61399</v>
+        <v>63729</v>
       </c>
       <c r="B290" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>45908</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>61945</v>
+        <v>62822</v>
       </c>
       <c r="B291" t="n">
         <v>9</v>
@@ -5097,12 +5097,12 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>45895</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>62250</v>
+        <v>63122</v>
       </c>
       <c r="B292" t="n">
         <v>9</v>
@@ -5113,12 +5113,12 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>45903</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>62372</v>
+        <v>63344</v>
       </c>
       <c r="B293" t="n">
         <v>9</v>
@@ -5129,60 +5129,60 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>45895</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>63729</v>
+        <v>64512</v>
       </c>
       <c r="B294" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>45910</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>62822</v>
+        <v>65044</v>
       </c>
       <c r="B295" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>45897</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>63122</v>
+        <v>65202</v>
       </c>
       <c r="B296" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>45898</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>63344</v>
+        <v>65203</v>
       </c>
       <c r="B297" t="n">
         <v>9</v>
@@ -5193,60 +5193,60 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>45904</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>64512</v>
+        <v>65423</v>
       </c>
       <c r="B298" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>45882</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>65044</v>
+        <v>65856</v>
       </c>
       <c r="B299" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>45888</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>65202</v>
+        <v>66071</v>
       </c>
       <c r="B300" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>45882</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>65203</v>
+        <v>66376</v>
       </c>
       <c r="B301" t="n">
         <v>9</v>
@@ -5257,28 +5257,28 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>45897</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>65423</v>
+        <v>66546</v>
       </c>
       <c r="B302" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>45905</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>65856</v>
+        <v>66547</v>
       </c>
       <c r="B303" t="n">
         <v>9</v>
@@ -5289,12 +5289,12 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>45904</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>66071</v>
+        <v>66551</v>
       </c>
       <c r="B304" t="n">
         <v>9</v>
@@ -5305,12 +5305,12 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>45903</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>66376</v>
+        <v>67191</v>
       </c>
       <c r="B305" t="n">
         <v>9</v>
@@ -5321,76 +5321,76 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>45905</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>66546</v>
+        <v>67411</v>
       </c>
       <c r="B306" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>45884</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>66547</v>
+        <v>67413</v>
       </c>
       <c r="B307" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>45902</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>66551</v>
+        <v>67471</v>
       </c>
       <c r="B308" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>45902</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>67191</v>
+        <v>67522</v>
       </c>
       <c r="B309" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>45895</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>67411</v>
+        <v>67718</v>
       </c>
       <c r="B310" t="n">
         <v>9</v>
@@ -5401,76 +5401,76 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>45922</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>67413</v>
+        <v>68192</v>
       </c>
       <c r="B311" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>45884</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>67471</v>
+        <v>68111</v>
       </c>
       <c r="B312" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>45889</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>67522</v>
+        <v>68336</v>
       </c>
       <c r="B313" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>45882</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>67718</v>
+        <v>68257</v>
       </c>
       <c r="B314" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>45894</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>68192</v>
+        <v>68701</v>
       </c>
       <c r="B315" t="n">
         <v>9</v>
@@ -5486,7 +5486,7 @@
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>68111</v>
+        <v>68333</v>
       </c>
       <c r="B316" t="n">
         <v>9</v>
@@ -5502,7 +5502,7 @@
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>68336</v>
+        <v>68453</v>
       </c>
       <c r="B317" t="n">
         <v>9</v>
@@ -5513,28 +5513,28 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>45902</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>68257</v>
+        <v>68506</v>
       </c>
       <c r="B318" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>45888</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>68701</v>
+        <v>68702</v>
       </c>
       <c r="B319" t="n">
         <v>9</v>
@@ -5545,12 +5545,12 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>45898</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>68333</v>
+        <v>68651</v>
       </c>
       <c r="B320" t="n">
         <v>9</v>
@@ -5561,28 +5561,28 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>45891</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>68453</v>
+        <v>68652</v>
       </c>
       <c r="B321" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>45890</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>68506</v>
+        <v>68882</v>
       </c>
       <c r="B322" t="n">
         <v>9</v>
@@ -5593,12 +5593,12 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>45908</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>68702</v>
+        <v>69415</v>
       </c>
       <c r="B323" t="n">
         <v>9</v>
@@ -5609,12 +5609,12 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>45919</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>68651</v>
+        <v>69254</v>
       </c>
       <c r="B324" t="n">
         <v>9</v>
@@ -5625,28 +5625,28 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>45903</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>68652</v>
+        <v>69416</v>
       </c>
       <c r="B325" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>45884</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>68882</v>
+        <v>69286</v>
       </c>
       <c r="B326" t="n">
         <v>9</v>
@@ -5657,12 +5657,12 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>45923</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>69415</v>
+        <v>69288</v>
       </c>
       <c r="B327" t="n">
         <v>9</v>
@@ -5673,124 +5673,124 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>45902</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>69254</v>
+        <v>69406</v>
       </c>
       <c r="B328" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>45908</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>69416</v>
+        <v>69738</v>
       </c>
       <c r="B329" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>45882</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>69286</v>
+        <v>69516</v>
       </c>
       <c r="B330" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>45897</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>69288</v>
+        <v>69517</v>
       </c>
       <c r="B331" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>45905</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>69406</v>
+        <v>69658</v>
       </c>
       <c r="B332" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>45880</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>69738</v>
+        <v>69659</v>
       </c>
       <c r="B333" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>45902</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>69516</v>
+        <v>69660</v>
       </c>
       <c r="B334" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>45880</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>69517</v>
+        <v>69889</v>
       </c>
       <c r="B335" t="n">
         <v>2</v>
@@ -5801,35 +5801,35 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>69658</v>
+        <v>70441</v>
       </c>
       <c r="B336" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>45910</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>69659</v>
+        <v>70446</v>
       </c>
       <c r="B337" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D337" s="2" t="n">
@@ -5838,39 +5838,39 @@
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>69660</v>
+        <v>70443</v>
       </c>
       <c r="B338" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>45905</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>69889</v>
+        <v>70450</v>
       </c>
       <c r="B339" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>45910</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>70441</v>
+        <v>70451</v>
       </c>
       <c r="B340" t="n">
         <v>9</v>
@@ -5881,12 +5881,12 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>45897</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>70446</v>
+        <v>70712</v>
       </c>
       <c r="B341" t="n">
         <v>4</v>
@@ -5897,28 +5897,28 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>45880</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>70443</v>
+        <v>70905</v>
       </c>
       <c r="B342" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>45888</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>70450</v>
+        <v>70909</v>
       </c>
       <c r="B343" t="n">
         <v>9</v>
@@ -5929,140 +5929,140 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>45908</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>70451</v>
+        <v>70985</v>
       </c>
       <c r="B344" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>45908</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>70712</v>
+        <v>70991</v>
       </c>
       <c r="B345" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>45882</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>70905</v>
+        <v>70977</v>
       </c>
       <c r="B346" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>45910</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>70909</v>
+        <v>71078</v>
       </c>
       <c r="B347" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>45903</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>70985</v>
+        <v>71082</v>
       </c>
       <c r="B348" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>45888</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>70991</v>
+        <v>70978</v>
       </c>
       <c r="B349" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>45903</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>70977</v>
+        <v>71295</v>
       </c>
       <c r="B350" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>45902</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>71078</v>
+        <v>71297</v>
       </c>
       <c r="B351" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>45888</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>71082</v>
+        <v>71705</v>
       </c>
       <c r="B352" t="n">
         <v>9</v>
@@ -6073,108 +6073,108 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>45898</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>70978</v>
+        <v>71710</v>
       </c>
       <c r="B353" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>45881</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>71295</v>
+        <v>71697</v>
       </c>
       <c r="B354" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>45884</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>71297</v>
+        <v>71700</v>
       </c>
       <c r="B355" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>45902</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>71705</v>
+        <v>71796</v>
       </c>
       <c r="B356" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>45901</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>71710</v>
+        <v>71797</v>
       </c>
       <c r="B357" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>45904</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>71697</v>
+        <v>71798</v>
       </c>
       <c r="B358" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>45891</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>71700</v>
+        <v>71800</v>
       </c>
       <c r="B359" t="n">
         <v>4</v>
@@ -6185,60 +6185,60 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>45888</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>71796</v>
+        <v>72012</v>
       </c>
       <c r="B360" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>45909</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>71797</v>
+        <v>72217</v>
       </c>
       <c r="B361" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>45883</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>71798</v>
+        <v>72932</v>
       </c>
       <c r="B362" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>45884</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>71800</v>
+        <v>72228</v>
       </c>
       <c r="B363" t="n">
         <v>4</v>
@@ -6249,28 +6249,28 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>45882</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>72012</v>
+        <v>72218</v>
       </c>
       <c r="B364" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>45903</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>72217</v>
+        <v>72221</v>
       </c>
       <c r="B365" t="n">
         <v>9</v>
@@ -6281,12 +6281,12 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>45924</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>72932</v>
+        <v>72542</v>
       </c>
       <c r="B366" t="n">
         <v>9</v>
@@ -6297,60 +6297,60 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>45897</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>72228</v>
+        <v>72543</v>
       </c>
       <c r="B367" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>45883</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>72218</v>
+        <v>72544</v>
       </c>
       <c r="B368" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>45882</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>72219</v>
+        <v>72666</v>
       </c>
       <c r="B369" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>45881</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>72221</v>
+        <v>72667</v>
       </c>
       <c r="B370" t="n">
         <v>9</v>
@@ -6361,35 +6361,35 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>45903</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>72542</v>
+        <v>72948</v>
       </c>
       <c r="B371" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>45894</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>72543</v>
+        <v>73193</v>
       </c>
       <c r="B372" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D372" s="2" t="n">
@@ -6398,7 +6398,7 @@
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>72544</v>
+        <v>73421</v>
       </c>
       <c r="B373" t="n">
         <v>9</v>
@@ -6409,12 +6409,12 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>45905</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>72666</v>
+        <v>73447</v>
       </c>
       <c r="B374" t="n">
         <v>9</v>
@@ -6425,60 +6425,60 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>45896</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>72667</v>
+        <v>73527</v>
       </c>
       <c r="B375" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>45896</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>72948</v>
+        <v>73497</v>
       </c>
       <c r="B376" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>45911</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>73193</v>
+        <v>73498</v>
       </c>
       <c r="B377" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>45881</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>73421</v>
+        <v>73501</v>
       </c>
       <c r="B378" t="n">
         <v>9</v>
@@ -6489,12 +6489,12 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>45890</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>73447</v>
+        <v>73554</v>
       </c>
       <c r="B379" t="n">
         <v>9</v>
@@ -6505,76 +6505,76 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>45897</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>73527</v>
+        <v>73717</v>
       </c>
       <c r="B380" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>45909</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>73497</v>
+        <v>73782</v>
       </c>
       <c r="B381" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>45898</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>73498</v>
+        <v>73783</v>
       </c>
       <c r="B382" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>45909</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>73501</v>
+        <v>73785</v>
       </c>
       <c r="B383" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>45898</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>73554</v>
+        <v>73793</v>
       </c>
       <c r="B384" t="n">
         <v>9</v>
@@ -6585,12 +6585,12 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>45895</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>73717</v>
+        <v>73788</v>
       </c>
       <c r="B385" t="n">
         <v>9</v>
@@ -6601,60 +6601,60 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>45919</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>73782</v>
+        <v>73874</v>
       </c>
       <c r="B386" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>45915</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>73783</v>
+        <v>73915</v>
       </c>
       <c r="B387" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>45897</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>73785</v>
+        <v>73916</v>
       </c>
       <c r="B388" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>45881</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>73793</v>
+        <v>74190</v>
       </c>
       <c r="B389" t="n">
         <v>9</v>
@@ -6665,12 +6665,12 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>45890</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>73788</v>
+        <v>74176</v>
       </c>
       <c r="B390" t="n">
         <v>9</v>
@@ -6681,12 +6681,12 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>45903</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>73874</v>
+        <v>74183</v>
       </c>
       <c r="B391" t="n">
         <v>9</v>
@@ -6697,12 +6697,12 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>45904</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>73915</v>
+        <v>74439</v>
       </c>
       <c r="B392" t="n">
         <v>4</v>
@@ -6713,12 +6713,12 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>45882</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>73916</v>
+        <v>74399</v>
       </c>
       <c r="B393" t="n">
         <v>9</v>
@@ -6729,12 +6729,12 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>45895</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>74190</v>
+        <v>74440</v>
       </c>
       <c r="B394" t="n">
         <v>9</v>
@@ -6745,12 +6745,12 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>45891</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>74176</v>
+        <v>74400</v>
       </c>
       <c r="B395" t="n">
         <v>9</v>
@@ -6761,44 +6761,44 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>45924</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>74183</v>
+        <v>74710</v>
       </c>
       <c r="B396" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>45901</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>74439</v>
+        <v>74832</v>
       </c>
       <c r="B397" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>45880</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>74399</v>
+        <v>75027</v>
       </c>
       <c r="B398" t="n">
         <v>9</v>
@@ -6809,44 +6809,44 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>45891</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>74440</v>
+        <v>75143</v>
       </c>
       <c r="B399" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>45902</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>74400</v>
+        <v>75147</v>
       </c>
       <c r="B400" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>45891</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>74710</v>
+        <v>75152</v>
       </c>
       <c r="B401" t="n">
         <v>4</v>
@@ -6857,28 +6857,28 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>45883</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>74711</v>
+        <v>75154</v>
       </c>
       <c r="B402" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>45916</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>74832</v>
+        <v>75313</v>
       </c>
       <c r="B403" t="n">
         <v>9</v>
@@ -6889,12 +6889,12 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>45905</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>75027</v>
+        <v>75311</v>
       </c>
       <c r="B404" t="n">
         <v>9</v>
@@ -6905,76 +6905,76 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>45895</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>75143</v>
+        <v>75399</v>
       </c>
       <c r="B405" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>45909</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>75147</v>
+        <v>75649</v>
       </c>
       <c r="B406" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>45883</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>75152</v>
+        <v>75655</v>
       </c>
       <c r="B407" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>45882</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>75154</v>
+        <v>75660</v>
       </c>
       <c r="B408" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>45889</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>75313</v>
+        <v>75790</v>
       </c>
       <c r="B409" t="n">
         <v>9</v>
@@ -6985,12 +6985,12 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>45901</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>75311</v>
+        <v>75938</v>
       </c>
       <c r="B410" t="n">
         <v>9</v>
@@ -7001,12 +7001,12 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>45904</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>75399</v>
+        <v>75950</v>
       </c>
       <c r="B411" t="n">
         <v>9</v>
@@ -7017,28 +7017,28 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>45894</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>75649</v>
+        <v>76072</v>
       </c>
       <c r="B412" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>45910</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>75655</v>
+        <v>76073</v>
       </c>
       <c r="B413" t="n">
         <v>9</v>
@@ -7049,60 +7049,60 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>45894</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>75660</v>
+        <v>76218</v>
       </c>
       <c r="B414" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>45880</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>75790</v>
+        <v>76332</v>
       </c>
       <c r="B415" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>45903</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>75938</v>
+        <v>76334</v>
       </c>
       <c r="B416" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>45895</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>75950</v>
+        <v>76485</v>
       </c>
       <c r="B417" t="n">
         <v>9</v>
@@ -7113,28 +7113,28 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>45902</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>76072</v>
+        <v>76695</v>
       </c>
       <c r="B418" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>45895</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>76073</v>
+        <v>76623</v>
       </c>
       <c r="B419" t="n">
         <v>9</v>
@@ -7145,12 +7145,12 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>45901</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>76218</v>
+        <v>76694</v>
       </c>
       <c r="B420" t="n">
         <v>9</v>
@@ -7161,28 +7161,28 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>45897</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>76332</v>
+        <v>76870</v>
       </c>
       <c r="B421" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>45882</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>76334</v>
+        <v>76866</v>
       </c>
       <c r="B422" t="n">
         <v>4</v>
@@ -7193,12 +7193,12 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>45880</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>76485</v>
+        <v>76869</v>
       </c>
       <c r="B423" t="n">
         <v>9</v>
@@ -7209,28 +7209,28 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>45895</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>76695</v>
+        <v>76864</v>
       </c>
       <c r="B424" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>45922</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>76623</v>
+        <v>77050</v>
       </c>
       <c r="B425" t="n">
         <v>9</v>
@@ -7241,12 +7241,12 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>45894</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>76694</v>
+        <v>77049</v>
       </c>
       <c r="B426" t="n">
         <v>9</v>
@@ -7262,7 +7262,7 @@
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>76870</v>
+        <v>77267</v>
       </c>
       <c r="B427" t="n">
         <v>9</v>
@@ -7273,28 +7273,28 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>45903</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>76866</v>
+        <v>77262</v>
       </c>
       <c r="B428" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>45882</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>76869</v>
+        <v>77756</v>
       </c>
       <c r="B429" t="n">
         <v>9</v>
@@ -7305,28 +7305,28 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>45903</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>76864</v>
+        <v>77830</v>
       </c>
       <c r="B430" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>45882</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>77050</v>
+        <v>77831</v>
       </c>
       <c r="B431" t="n">
         <v>9</v>
@@ -7337,28 +7337,28 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>45897</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>77049</v>
+        <v>77834</v>
       </c>
       <c r="B432" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>45890</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>77267</v>
+        <v>77941</v>
       </c>
       <c r="B433" t="n">
         <v>9</v>
@@ -7369,12 +7369,12 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>45891</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>77262</v>
+        <v>78032</v>
       </c>
       <c r="B434" t="n">
         <v>9</v>
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>45908</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>77764</v>
+        <v>78033</v>
       </c>
       <c r="B435" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>45888</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>77756</v>
+        <v>78034</v>
       </c>
       <c r="B436" t="n">
         <v>9</v>
@@ -7417,28 +7417,28 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>45905</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>77830</v>
+        <v>78163</v>
       </c>
       <c r="B437" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>45898</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>77831</v>
+        <v>78202</v>
       </c>
       <c r="B438" t="n">
         <v>9</v>
@@ -7449,28 +7449,28 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>45905</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>77834</v>
+        <v>78167</v>
       </c>
       <c r="B439" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>45888</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>77941</v>
+        <v>78168</v>
       </c>
       <c r="B440" t="n">
         <v>9</v>
@@ -7481,12 +7481,12 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>45905</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>78032</v>
+        <v>78169</v>
       </c>
       <c r="B441" t="n">
         <v>9</v>
@@ -7497,28 +7497,28 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>45903</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>78033</v>
+        <v>78285</v>
       </c>
       <c r="B442" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>45882</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>78034</v>
+        <v>78287</v>
       </c>
       <c r="B443" t="n">
         <v>9</v>
@@ -7529,28 +7529,28 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>45908</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>78163</v>
+        <v>78288</v>
       </c>
       <c r="B444" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>45929</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>78202</v>
+        <v>78308</v>
       </c>
       <c r="B445" t="n">
         <v>9</v>
@@ -7566,7 +7566,7 @@
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>78167</v>
+        <v>78404</v>
       </c>
       <c r="B446" t="n">
         <v>9</v>
@@ -7577,12 +7577,12 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>45908</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>78168</v>
+        <v>79166</v>
       </c>
       <c r="B447" t="n">
         <v>9</v>
@@ -7593,12 +7593,12 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>45896</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>78169</v>
+        <v>79162</v>
       </c>
       <c r="B448" t="n">
         <v>9</v>
@@ -7609,12 +7609,12 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>45898</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>78285</v>
+        <v>79333</v>
       </c>
       <c r="B449" t="n">
         <v>9</v>
@@ -7630,7 +7630,7 @@
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>78287</v>
+        <v>79435</v>
       </c>
       <c r="B450" t="n">
         <v>9</v>
@@ -7641,51 +7641,51 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>45896</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>78288</v>
+        <v>79446</v>
       </c>
       <c r="B451" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>45902</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>78308</v>
+        <v>79436</v>
       </c>
       <c r="B452" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>45897</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>78403</v>
+        <v>79425</v>
       </c>
       <c r="B453" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D453" s="2" t="n">
@@ -7694,7 +7694,7 @@
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>78404</v>
+        <v>79442</v>
       </c>
       <c r="B454" t="n">
         <v>9</v>
@@ -7705,12 +7705,12 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>45890</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>79166</v>
+        <v>79437</v>
       </c>
       <c r="B455" t="n">
         <v>9</v>
@@ -7721,28 +7721,28 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>45894</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>79154</v>
+        <v>79586</v>
       </c>
       <c r="B456" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>45880</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>79162</v>
+        <v>79587</v>
       </c>
       <c r="B457" t="n">
         <v>9</v>
@@ -7753,28 +7753,28 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>45890</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>79333</v>
+        <v>79588</v>
       </c>
       <c r="B458" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>45894</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>79435</v>
+        <v>79589</v>
       </c>
       <c r="B459" t="n">
         <v>9</v>
@@ -7790,23 +7790,23 @@
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>79446</v>
+        <v>79668</v>
       </c>
       <c r="B460" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>45881</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>79436</v>
+        <v>79660</v>
       </c>
       <c r="B461" t="n">
         <v>4</v>
@@ -7817,44 +7817,44 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>45888</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>79425</v>
+        <v>79590</v>
       </c>
       <c r="B462" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>45881</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>79442</v>
+        <v>79809</v>
       </c>
       <c r="B463" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>45898</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>79437</v>
+        <v>79962</v>
       </c>
       <c r="B464" t="n">
         <v>9</v>
@@ -7865,28 +7865,28 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>45895</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>79586</v>
+        <v>79963</v>
       </c>
       <c r="B465" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>45898</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>79587</v>
+        <v>79965</v>
       </c>
       <c r="B466" t="n">
         <v>9</v>
@@ -7897,28 +7897,28 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>45894</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>79588</v>
+        <v>79966</v>
       </c>
       <c r="B467" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>45884</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>79589</v>
+        <v>80083</v>
       </c>
       <c r="B468" t="n">
         <v>9</v>
@@ -7929,28 +7929,28 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>45890</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>79668</v>
+        <v>80086</v>
       </c>
       <c r="B469" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>45884</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>79660</v>
+        <v>80072</v>
       </c>
       <c r="B470" t="n">
         <v>4</v>
@@ -7966,7 +7966,7 @@
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>79590</v>
+        <v>80073</v>
       </c>
       <c r="B471" t="n">
         <v>9</v>
@@ -7977,28 +7977,28 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>45898</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>79809</v>
+        <v>80198</v>
       </c>
       <c r="B472" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>45880</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>79962</v>
+        <v>80199</v>
       </c>
       <c r="B473" t="n">
         <v>9</v>
@@ -8009,28 +8009,28 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>45889</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>79963</v>
+        <v>80318</v>
       </c>
       <c r="B474" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>45884</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>79965</v>
+        <v>80317</v>
       </c>
       <c r="B475" t="n">
         <v>9</v>
@@ -8041,12 +8041,12 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>45896</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>79966</v>
+        <v>80415</v>
       </c>
       <c r="B476" t="n">
         <v>9</v>
@@ -8057,12 +8057,12 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>45895</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>80083</v>
+        <v>80547</v>
       </c>
       <c r="B477" t="n">
         <v>9</v>
@@ -8073,246 +8073,54 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>45922</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>80086</v>
+        <v>80635</v>
       </c>
       <c r="B478" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>45898</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>80087</v>
+        <v>80636</v>
       </c>
       <c r="B479" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>45896</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>80072</v>
+        <v>80707</v>
       </c>
       <c r="B480" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>45880</v>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" t="n">
-        <v>80073</v>
-      </c>
-      <c r="B481" t="n">
-        <v>9</v>
-      </c>
-      <c r="C481" t="inlineStr">
-        <is>
-          <t>En Ruta</t>
-        </is>
-      </c>
-      <c r="D481" s="2" t="n">
-        <v>45897</v>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" t="n">
-        <v>80198</v>
-      </c>
-      <c r="B482" t="n">
-        <v>9</v>
-      </c>
-      <c r="C482" t="inlineStr">
-        <is>
-          <t>En Ruta</t>
-        </is>
-      </c>
-      <c r="D482" s="2" t="n">
-        <v>45895</v>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" t="n">
-        <v>80199</v>
-      </c>
-      <c r="B483" t="n">
-        <v>9</v>
-      </c>
-      <c r="C483" t="inlineStr">
-        <is>
-          <t>En Ruta</t>
-        </is>
-      </c>
-      <c r="D483" s="2" t="n">
-        <v>45894</v>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" t="n">
-        <v>80201</v>
-      </c>
-      <c r="B484" t="n">
-        <v>4</v>
-      </c>
-      <c r="C484" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-      <c r="D484" s="2" t="n">
-        <v>45882</v>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" t="n">
-        <v>80318</v>
-      </c>
-      <c r="B485" t="n">
-        <v>4</v>
-      </c>
-      <c r="C485" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-      <c r="D485" s="2" t="n">
-        <v>45881</v>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" t="n">
-        <v>80317</v>
-      </c>
-      <c r="B486" t="n">
-        <v>9</v>
-      </c>
-      <c r="C486" t="inlineStr">
-        <is>
-          <t>En Ruta</t>
-        </is>
-      </c>
-      <c r="D486" s="2" t="n">
-        <v>45894</v>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" t="n">
-        <v>80415</v>
-      </c>
-      <c r="B487" t="n">
-        <v>9</v>
-      </c>
-      <c r="C487" t="inlineStr">
-        <is>
-          <t>En Ruta</t>
-        </is>
-      </c>
-      <c r="D487" s="2" t="n">
-        <v>45922</v>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" t="n">
-        <v>80547</v>
-      </c>
-      <c r="B488" t="n">
-        <v>9</v>
-      </c>
-      <c r="C488" t="inlineStr">
-        <is>
-          <t>En Ruta</t>
-        </is>
-      </c>
-      <c r="D488" s="2" t="n">
-        <v>45896</v>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" t="n">
-        <v>80635</v>
-      </c>
-      <c r="B489" t="n">
-        <v>7</v>
-      </c>
-      <c r="C489" t="inlineStr">
-        <is>
-          <t>Por Reprogramar</t>
-        </is>
-      </c>
-      <c r="D489" s="2" t="n">
-        <v>45889</v>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" t="n">
-        <v>80636</v>
-      </c>
-      <c r="B490" t="n">
-        <v>4</v>
-      </c>
-      <c r="C490" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-      <c r="D490" s="2" t="n">
-        <v>45888</v>
-      </c>
-    </row>
-    <row r="491">
-      <c r="A491" t="n">
-        <v>80637</v>
-      </c>
-      <c r="B491" t="n">
-        <v>9</v>
-      </c>
-      <c r="C491" t="inlineStr">
-        <is>
-          <t>En Ruta</t>
-        </is>
-      </c>
-      <c r="D491" s="2" t="n">
-        <v>45897</v>
-      </c>
-    </row>
-    <row r="492">
-      <c r="A492" t="n">
-        <v>80707</v>
-      </c>
-      <c r="B492" t="n">
-        <v>7</v>
-      </c>
-      <c r="C492" t="inlineStr">
-        <is>
-          <t>Por Reprogramar</t>
-        </is>
-      </c>
-      <c r="D492" s="2" t="n">
         <v>45882</v>
       </c>
     </row>
@@ -8327,7 +8135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8354,7 +8162,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3">
@@ -8364,7 +8172,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4">
@@ -8374,7 +8182,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -8384,17 +8192,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Desistido</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
+++ b/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
@@ -817,11 +817,11 @@
         <v>14950</v>
       </c>
       <c r="B24" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
@@ -8172,7 +8172,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4">
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">

--- a/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
+++ b/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
@@ -529,11 +529,11 @@
         <v>20612</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
@@ -2417,11 +2417,11 @@
         <v>35150</v>
       </c>
       <c r="B124" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D124" s="2" t="n">
@@ -3521,11 +3521,11 @@
         <v>45583</v>
       </c>
       <c r="B193" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D193" s="2" t="n">
@@ -3905,11 +3905,11 @@
         <v>49746</v>
       </c>
       <c r="B217" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D217" s="2" t="n">
@@ -3921,11 +3921,11 @@
         <v>49924</v>
       </c>
       <c r="B218" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D218" s="2" t="n">
@@ -4017,11 +4017,11 @@
         <v>50705</v>
       </c>
       <c r="B224" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D224" s="2" t="n">
@@ -4081,11 +4081,11 @@
         <v>51409</v>
       </c>
       <c r="B228" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D228" s="2" t="n">
@@ -4881,11 +4881,11 @@
         <v>61109</v>
       </c>
       <c r="B278" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D278" s="2" t="n">
@@ -5361,11 +5361,11 @@
         <v>67471</v>
       </c>
       <c r="B308" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D308" s="2" t="n">
@@ -6865,11 +6865,11 @@
         <v>75154</v>
       </c>
       <c r="B402" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D402" s="2" t="n">
@@ -7857,11 +7857,11 @@
         <v>79962</v>
       </c>
       <c r="B464" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D464" s="2" t="n">
@@ -8081,11 +8081,11 @@
         <v>80635</v>
       </c>
       <c r="B478" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D478" s="2" t="n">
@@ -8162,7 +8162,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3">
@@ -8172,7 +8172,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4">
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">

--- a/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
+++ b/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
@@ -1473,11 +1473,11 @@
         <v>24254</v>
       </c>
       <c r="B65" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D65" s="2" t="n">
@@ -2017,11 +2017,11 @@
         <v>30301</v>
       </c>
       <c r="B99" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D99" s="2" t="n">
@@ -2417,11 +2417,11 @@
         <v>35150</v>
       </c>
       <c r="B124" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D124" s="2" t="n">
@@ -3409,11 +3409,11 @@
         <v>43723</v>
       </c>
       <c r="B186" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D186" s="2" t="n">
@@ -4209,11 +4209,11 @@
         <v>52353</v>
       </c>
       <c r="B236" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D236" s="2" t="n">
@@ -8162,7 +8162,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3">
@@ -8172,7 +8172,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">

--- a/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
+++ b/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
@@ -481,11 +481,11 @@
         <v>19730</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
@@ -1777,11 +1777,11 @@
         <v>28793</v>
       </c>
       <c r="B84" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D84" s="2" t="n">
@@ -2097,11 +2097,11 @@
         <v>31007</v>
       </c>
       <c r="B104" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D104" s="2" t="n">
@@ -2225,11 +2225,11 @@
         <v>32927</v>
       </c>
       <c r="B112" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D112" s="2" t="n">
@@ -3857,11 +3857,11 @@
         <v>49302</v>
       </c>
       <c r="B214" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D214" s="2" t="n">
@@ -4513,11 +4513,11 @@
         <v>56088</v>
       </c>
       <c r="B255" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D255" s="2" t="n">
@@ -4609,11 +4609,11 @@
         <v>57194</v>
       </c>
       <c r="B261" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D261" s="2" t="n">
@@ -4641,11 +4641,11 @@
         <v>57660</v>
       </c>
       <c r="B263" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D263" s="2" t="n">
@@ -4705,11 +4705,11 @@
         <v>58483</v>
       </c>
       <c r="B267" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D267" s="2" t="n">
@@ -5505,11 +5505,11 @@
         <v>68453</v>
       </c>
       <c r="B317" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D317" s="2" t="n">
@@ -6401,11 +6401,11 @@
         <v>73421</v>
       </c>
       <c r="B373" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D373" s="2" t="n">
@@ -6577,11 +6577,11 @@
         <v>73793</v>
       </c>
       <c r="B384" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D384" s="2" t="n">
@@ -7153,11 +7153,11 @@
         <v>76694</v>
       </c>
       <c r="B420" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D420" s="2" t="n">
@@ -7249,11 +7249,11 @@
         <v>77049</v>
       </c>
       <c r="B426" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D426" s="2" t="n">
@@ -7569,11 +7569,11 @@
         <v>78404</v>
       </c>
       <c r="B446" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D446" s="2" t="n">
@@ -7601,11 +7601,11 @@
         <v>79162</v>
       </c>
       <c r="B448" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D448" s="2" t="n">
@@ -7633,11 +7633,11 @@
         <v>79435</v>
       </c>
       <c r="B450" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D450" s="2" t="n">
@@ -7777,11 +7777,11 @@
         <v>79589</v>
       </c>
       <c r="B459" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D459" s="2" t="n">
@@ -8162,7 +8162,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>289</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3">
@@ -8172,7 +8172,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">

--- a/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
+++ b/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
@@ -1041,11 +1041,11 @@
         <v>17946</v>
       </c>
       <c r="B38" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
@@ -1377,11 +1377,11 @@
         <v>22997</v>
       </c>
       <c r="B59" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D59" s="2" t="n">
@@ -2545,11 +2545,11 @@
         <v>36212</v>
       </c>
       <c r="B132" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D132" s="2" t="n">
@@ -2785,11 +2785,11 @@
         <v>37707</v>
       </c>
       <c r="B147" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D147" s="2" t="n">
@@ -3809,11 +3809,11 @@
         <v>49191</v>
       </c>
       <c r="B211" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D211" s="2" t="n">
@@ -8162,7 +8162,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3">
@@ -8172,7 +8172,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4">
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">

--- a/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
+++ b/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D480"/>
+  <dimension ref="A1:D461"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45904</v>
+        <v>45939</v>
       </c>
     </row>
     <row r="6">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45901</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="19">
@@ -766,7 +766,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>13666</v>
+        <v>13806</v>
       </c>
       <c r="B21" t="n">
         <v>4</v>
@@ -777,44 +777,44 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45883</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>13806</v>
+        <v>13850</v>
       </c>
       <c r="B22" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45881</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>13850</v>
+        <v>14950</v>
       </c>
       <c r="B23" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45896</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>14950</v>
+        <v>14902</v>
       </c>
       <c r="B24" t="n">
         <v>4</v>
@@ -825,12 +825,12 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45889</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>14902</v>
+        <v>14897</v>
       </c>
       <c r="B25" t="n">
         <v>4</v>
@@ -841,76 +841,76 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45880</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>14897</v>
+        <v>16215</v>
       </c>
       <c r="B26" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45882</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>16215</v>
+        <v>15333</v>
       </c>
       <c r="B27" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45901</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>15333</v>
+        <v>15500</v>
       </c>
       <c r="B28" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45888</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>15500</v>
+        <v>15970</v>
       </c>
       <c r="B29" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45884</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>15970</v>
+        <v>15903</v>
       </c>
       <c r="B30" t="n">
         <v>9</v>
@@ -921,28 +921,28 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45891</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>15956</v>
+        <v>16079</v>
       </c>
       <c r="B31" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45897</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>15903</v>
+        <v>16329</v>
       </c>
       <c r="B32" t="n">
         <v>9</v>
@@ -953,28 +953,28 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45898</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>16079</v>
+        <v>16328</v>
       </c>
       <c r="B33" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45917</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>16329</v>
+        <v>16981</v>
       </c>
       <c r="B34" t="n">
         <v>9</v>
@@ -985,44 +985,44 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45897</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>16328</v>
+        <v>16966</v>
       </c>
       <c r="B35" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45894</v>
+        <v>45892</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>16981</v>
+        <v>17946</v>
       </c>
       <c r="B36" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45898</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>16966</v>
+        <v>18459</v>
       </c>
       <c r="B37" t="n">
         <v>4</v>
@@ -1033,124 +1033,124 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45897</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>17946</v>
+        <v>18547</v>
       </c>
       <c r="B38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45890</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>18459</v>
+        <v>18622</v>
       </c>
       <c r="B39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45882</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>18547</v>
+        <v>18926</v>
       </c>
       <c r="B40" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45919</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>18622</v>
+        <v>18928</v>
       </c>
       <c r="B41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45910</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>18926</v>
+        <v>19123</v>
       </c>
       <c r="B42" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45894</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>18928</v>
+        <v>19232</v>
       </c>
       <c r="B43" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45883</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>19123</v>
+        <v>19436</v>
       </c>
       <c r="B44" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45909</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>19232</v>
+        <v>12110</v>
       </c>
       <c r="B45" t="n">
         <v>9</v>
@@ -1161,76 +1161,76 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45898</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>19436</v>
+        <v>10106</v>
       </c>
       <c r="B46" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45889</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>12110</v>
+        <v>10314</v>
       </c>
       <c r="B47" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45897</v>
+        <v>45892</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>10106</v>
+        <v>20999</v>
       </c>
       <c r="B48" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45888</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>10314</v>
+        <v>21097</v>
       </c>
       <c r="B49" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45909</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>20999</v>
+        <v>21248</v>
       </c>
       <c r="B50" t="n">
         <v>9</v>
@@ -1241,28 +1241,28 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45909</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>21097</v>
+        <v>21689</v>
       </c>
       <c r="B51" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45881</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>21248</v>
+        <v>21960</v>
       </c>
       <c r="B52" t="n">
         <v>9</v>
@@ -1273,12 +1273,12 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45891</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>21689</v>
+        <v>22125</v>
       </c>
       <c r="B53" t="n">
         <v>9</v>
@@ -1289,12 +1289,12 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45891</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>21960</v>
+        <v>22452</v>
       </c>
       <c r="B54" t="n">
         <v>9</v>
@@ -1305,12 +1305,12 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45923</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>22125</v>
+        <v>22582</v>
       </c>
       <c r="B55" t="n">
         <v>9</v>
@@ -1321,12 +1321,12 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>45904</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>22452</v>
+        <v>23010</v>
       </c>
       <c r="B56" t="n">
         <v>9</v>
@@ -1337,44 +1337,44 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>45908</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>22582</v>
+        <v>22997</v>
       </c>
       <c r="B57" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>45903</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>23010</v>
+        <v>23354</v>
       </c>
       <c r="B58" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>45905</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>22997</v>
+        <v>23618</v>
       </c>
       <c r="B59" t="n">
         <v>4</v>
@@ -1385,188 +1385,188 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>45890</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>23354</v>
+        <v>23658</v>
       </c>
       <c r="B60" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>45883</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>23618</v>
+        <v>23781</v>
       </c>
       <c r="B61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>45883</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>23658</v>
+        <v>23879</v>
       </c>
       <c r="B62" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>45880</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>23781</v>
+        <v>24254</v>
       </c>
       <c r="B63" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>45923</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>23879</v>
+        <v>24742</v>
       </c>
       <c r="B64" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>45919</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>24254</v>
+        <v>25043</v>
       </c>
       <c r="B65" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>45889</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>24742</v>
+        <v>25659</v>
       </c>
       <c r="B66" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>45883</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>25043</v>
+        <v>25882</v>
       </c>
       <c r="B67" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>45905</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>25659</v>
+        <v>26798</v>
       </c>
       <c r="B68" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>45903</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>25882</v>
+        <v>27011</v>
       </c>
       <c r="B69" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>45880</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>26560</v>
+        <v>27110</v>
       </c>
       <c r="B70" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>45908</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>26798</v>
+        <v>27603</v>
       </c>
       <c r="B71" t="n">
         <v>2</v>
@@ -1577,76 +1577,76 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>45919</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>27011</v>
+        <v>27720</v>
       </c>
       <c r="B72" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>45881</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>27110</v>
+        <v>27663</v>
       </c>
       <c r="B73" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>45880</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>27603</v>
+        <v>27984</v>
       </c>
       <c r="B74" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>45960</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>27720</v>
+        <v>27989</v>
       </c>
       <c r="B75" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>45884</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>27663</v>
+        <v>27992</v>
       </c>
       <c r="B76" t="n">
         <v>9</v>
@@ -1657,44 +1657,44 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>45901</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>27984</v>
+        <v>28242</v>
       </c>
       <c r="B77" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>45903</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>27989</v>
+        <v>28238</v>
       </c>
       <c r="B78" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>45897</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>27992</v>
+        <v>28597</v>
       </c>
       <c r="B79" t="n">
         <v>9</v>
@@ -1705,124 +1705,124 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>45896</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>28242</v>
+        <v>28797</v>
       </c>
       <c r="B80" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>45888</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>28238</v>
+        <v>28793</v>
       </c>
       <c r="B81" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>45880</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>28597</v>
+        <v>28943</v>
       </c>
       <c r="B82" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>45898</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>28797</v>
+        <v>28841</v>
       </c>
       <c r="B83" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>45903</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>28793</v>
+        <v>28837</v>
       </c>
       <c r="B84" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>45890</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>28943</v>
+        <v>28838</v>
       </c>
       <c r="B85" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>45881</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>28841</v>
+        <v>28945</v>
       </c>
       <c r="B86" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>45884</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>28837</v>
+        <v>29138</v>
       </c>
       <c r="B87" t="n">
         <v>9</v>
@@ -1833,12 +1833,12 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>45905</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>28838</v>
+        <v>29309</v>
       </c>
       <c r="B88" t="n">
         <v>9</v>
@@ -1849,108 +1849,108 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>45896</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>28945</v>
+        <v>29767</v>
       </c>
       <c r="B89" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>45883</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>29138</v>
+        <v>30082</v>
       </c>
       <c r="B90" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>45891</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>29309</v>
+        <v>30149</v>
       </c>
       <c r="B91" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>45902</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>29767</v>
+        <v>30293</v>
       </c>
       <c r="B92" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>45880</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>30082</v>
+        <v>30285</v>
       </c>
       <c r="B93" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>45884</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>30149</v>
+        <v>30464</v>
       </c>
       <c r="B94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>45882</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>30280</v>
+        <v>30301</v>
       </c>
       <c r="B95" t="n">
         <v>4</v>
@@ -1961,60 +1961,60 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>45888</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>30293</v>
+        <v>30556</v>
       </c>
       <c r="B96" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>45896</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>30285</v>
+        <v>30736</v>
       </c>
       <c r="B97" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>45883</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>30464</v>
+        <v>30845</v>
       </c>
       <c r="B98" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>45911</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>30301</v>
+        <v>31007</v>
       </c>
       <c r="B99" t="n">
         <v>4</v>
@@ -2025,44 +2025,44 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>45889</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>30572</v>
+        <v>31122</v>
       </c>
       <c r="B100" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>45884</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>30556</v>
+        <v>31353</v>
       </c>
       <c r="B101" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>45880</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>30736</v>
+        <v>31446</v>
       </c>
       <c r="B102" t="n">
         <v>9</v>
@@ -2073,12 +2073,12 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>45896</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>30845</v>
+        <v>31351</v>
       </c>
       <c r="B103" t="n">
         <v>9</v>
@@ -2089,44 +2089,44 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>45908</v>
+        <v>45965</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>31007</v>
+        <v>31668</v>
       </c>
       <c r="B104" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>45890</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>31122</v>
+        <v>31765</v>
       </c>
       <c r="B105" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>45883</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>31353</v>
+        <v>31766</v>
       </c>
       <c r="B106" t="n">
         <v>9</v>
@@ -2137,60 +2137,60 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>45895</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>31446</v>
+        <v>32927</v>
       </c>
       <c r="B107" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>45902</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>31351</v>
+        <v>32920</v>
       </c>
       <c r="B108" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>45924</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>31668</v>
+        <v>33413</v>
       </c>
       <c r="B109" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>45895</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>31765</v>
+        <v>33404</v>
       </c>
       <c r="B110" t="n">
         <v>9</v>
@@ -2201,12 +2201,12 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>45895</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>31766</v>
+        <v>33777</v>
       </c>
       <c r="B111" t="n">
         <v>9</v>
@@ -2217,12 +2217,12 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>45898</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>32927</v>
+        <v>34010</v>
       </c>
       <c r="B112" t="n">
         <v>4</v>
@@ -2233,44 +2233,44 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>45890</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>32920</v>
+        <v>34266</v>
       </c>
       <c r="B113" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>45880</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>33413</v>
+        <v>34267</v>
       </c>
       <c r="B114" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>45881</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>33404</v>
+        <v>34520</v>
       </c>
       <c r="B115" t="n">
         <v>9</v>
@@ -2281,12 +2281,12 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>45901</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>33777</v>
+        <v>34786</v>
       </c>
       <c r="B116" t="n">
         <v>9</v>
@@ -2297,28 +2297,28 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>45896</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>34010</v>
+        <v>34847</v>
       </c>
       <c r="B117" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>45891</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>34266</v>
+        <v>34922</v>
       </c>
       <c r="B118" t="n">
         <v>9</v>
@@ -2329,28 +2329,28 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>45903</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>34267</v>
+        <v>35150</v>
       </c>
       <c r="B119" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>45897</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>34520</v>
+        <v>35302</v>
       </c>
       <c r="B120" t="n">
         <v>9</v>
@@ -2361,12 +2361,12 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>45903</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>34786</v>
+        <v>35402</v>
       </c>
       <c r="B121" t="n">
         <v>9</v>
@@ -2382,23 +2382,23 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>34847</v>
+        <v>35525</v>
       </c>
       <c r="B122" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>45880</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>34922</v>
+        <v>35717</v>
       </c>
       <c r="B123" t="n">
         <v>9</v>
@@ -2409,44 +2409,44 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>45905</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>35150</v>
+        <v>35708</v>
       </c>
       <c r="B124" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>45889</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>35302</v>
+        <v>35953</v>
       </c>
       <c r="B125" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>45901</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>35402</v>
+        <v>36209</v>
       </c>
       <c r="B126" t="n">
         <v>9</v>
@@ -2457,28 +2457,28 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>45891</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>35525</v>
+        <v>36212</v>
       </c>
       <c r="B127" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>45895</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>35717</v>
+        <v>36428</v>
       </c>
       <c r="B128" t="n">
         <v>9</v>
@@ -2489,12 +2489,12 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>45901</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>35708</v>
+        <v>36434</v>
       </c>
       <c r="B129" t="n">
         <v>9</v>
@@ -2505,12 +2505,12 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>45895</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>35953</v>
+        <v>36659</v>
       </c>
       <c r="B130" t="n">
         <v>4</v>
@@ -2526,55 +2526,55 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>36209</v>
+        <v>36971</v>
       </c>
       <c r="B131" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>45901</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>36212</v>
+        <v>37125</v>
       </c>
       <c r="B132" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>45890</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>36428</v>
+        <v>37302</v>
       </c>
       <c r="B133" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>45894</v>
+        <v>45892</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>36434</v>
+        <v>37477</v>
       </c>
       <c r="B134" t="n">
         <v>9</v>
@@ -2585,19 +2585,19 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>45904</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>36659</v>
+        <v>37471</v>
       </c>
       <c r="B135" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D135" s="2" t="n">
@@ -2606,39 +2606,39 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>36851</v>
+        <v>37567</v>
       </c>
       <c r="B136" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>45883</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>36971</v>
+        <v>37568</v>
       </c>
       <c r="B137" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>45922</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>37125</v>
+        <v>37696</v>
       </c>
       <c r="B138" t="n">
         <v>9</v>
@@ -2649,60 +2649,60 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>45894</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>37302</v>
+        <v>37698</v>
       </c>
       <c r="B139" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>45901</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>37477</v>
+        <v>37707</v>
       </c>
       <c r="B140" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>45897</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>37471</v>
+        <v>37708</v>
       </c>
       <c r="B141" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>45880</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>37567</v>
+        <v>37784</v>
       </c>
       <c r="B142" t="n">
         <v>9</v>
@@ -2713,12 +2713,12 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>45898</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>37568</v>
+        <v>37900</v>
       </c>
       <c r="B143" t="n">
         <v>9</v>
@@ -2729,12 +2729,12 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>45908</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>37696</v>
+        <v>38038</v>
       </c>
       <c r="B144" t="n">
         <v>9</v>
@@ -2745,35 +2745,35 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>45895</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>37904</v>
+        <v>38127</v>
       </c>
       <c r="B145" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>45888</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>37698</v>
+        <v>38226</v>
       </c>
       <c r="B146" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D146" s="2" t="n">
@@ -2782,71 +2782,71 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>37707</v>
+        <v>38257</v>
       </c>
       <c r="B147" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>45890</v>
+        <v>45892</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>37708</v>
+        <v>38604</v>
       </c>
       <c r="B148" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>45891</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>37784</v>
+        <v>38647</v>
       </c>
       <c r="B149" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>45901</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>37900</v>
+        <v>39131</v>
       </c>
       <c r="B150" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>45894</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>38038</v>
+        <v>38644</v>
       </c>
       <c r="B151" t="n">
         <v>9</v>
@@ -2862,7 +2862,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>38127</v>
+        <v>39089</v>
       </c>
       <c r="B152" t="n">
         <v>9</v>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>38226</v>
+        <v>39218</v>
       </c>
       <c r="B153" t="n">
         <v>2</v>
@@ -2889,76 +2889,76 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>45924</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>38257</v>
+        <v>39215</v>
       </c>
       <c r="B154" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>45903</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>38604</v>
+        <v>39461</v>
       </c>
       <c r="B155" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>45884</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>38647</v>
+        <v>39437</v>
       </c>
       <c r="B156" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>45883</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>39131</v>
+        <v>39465</v>
       </c>
       <c r="B157" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>45888</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>38644</v>
+        <v>39890</v>
       </c>
       <c r="B158" t="n">
         <v>9</v>
@@ -2969,12 +2969,12 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>45898</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>39089</v>
+        <v>39891</v>
       </c>
       <c r="B159" t="n">
         <v>9</v>
@@ -2985,44 +2985,44 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>45904</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>39218</v>
+        <v>40140</v>
       </c>
       <c r="B160" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>45909</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>39215</v>
+        <v>40185</v>
       </c>
       <c r="B161" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>45884</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>39461</v>
+        <v>40186</v>
       </c>
       <c r="B162" t="n">
         <v>9</v>
@@ -3038,23 +3038,23 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>39437</v>
+        <v>40389</v>
       </c>
       <c r="B163" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>45888</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>39465</v>
+        <v>40590</v>
       </c>
       <c r="B164" t="n">
         <v>9</v>
@@ -3065,12 +3065,12 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>45894</v>
+        <v>45939</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>39890</v>
+        <v>40843</v>
       </c>
       <c r="B165" t="n">
         <v>9</v>
@@ -3081,12 +3081,12 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>45905</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>39891</v>
+        <v>41272</v>
       </c>
       <c r="B166" t="n">
         <v>9</v>
@@ -3097,44 +3097,44 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>45897</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>40140</v>
+        <v>41407</v>
       </c>
       <c r="B167" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>45905</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>40185</v>
+        <v>41616</v>
       </c>
       <c r="B168" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>45909</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>40186</v>
+        <v>41532</v>
       </c>
       <c r="B169" t="n">
         <v>9</v>
@@ -3145,12 +3145,12 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>45908</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>40389</v>
+        <v>41734</v>
       </c>
       <c r="B170" t="n">
         <v>9</v>
@@ -3161,12 +3161,12 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>45896</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>40590</v>
+        <v>41622</v>
       </c>
       <c r="B171" t="n">
         <v>9</v>
@@ -3177,12 +3177,12 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>45904</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>40843</v>
+        <v>42031</v>
       </c>
       <c r="B172" t="n">
         <v>9</v>
@@ -3193,12 +3193,12 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>45904</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>41272</v>
+        <v>42358</v>
       </c>
       <c r="B173" t="n">
         <v>9</v>
@@ -3209,60 +3209,60 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>45895</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>41407</v>
+        <v>42637</v>
       </c>
       <c r="B174" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>45882</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>41616</v>
+        <v>42887</v>
       </c>
       <c r="B175" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>45882</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>41532</v>
+        <v>43004</v>
       </c>
       <c r="B176" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>45894</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>41734</v>
+        <v>43140</v>
       </c>
       <c r="B177" t="n">
         <v>9</v>
@@ -3273,44 +3273,44 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>45895</v>
+        <v>45937</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>41622</v>
+        <v>43256</v>
       </c>
       <c r="B178" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>45908</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>42031</v>
+        <v>43723</v>
       </c>
       <c r="B179" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>45895</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>42358</v>
+        <v>44102</v>
       </c>
       <c r="B180" t="n">
         <v>9</v>
@@ -3321,12 +3321,12 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>45922</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>42637</v>
+        <v>44103</v>
       </c>
       <c r="B181" t="n">
         <v>9</v>
@@ -3342,7 +3342,7 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>42887</v>
+        <v>44877</v>
       </c>
       <c r="B182" t="n">
         <v>9</v>
@@ -3353,28 +3353,28 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>45896</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>43004</v>
+        <v>45134</v>
       </c>
       <c r="B183" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>45884</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>43140</v>
+        <v>45335</v>
       </c>
       <c r="B184" t="n">
         <v>9</v>
@@ -3385,35 +3385,35 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>45902</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>43256</v>
+        <v>45586</v>
       </c>
       <c r="B185" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>45883</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>43723</v>
+        <v>45583</v>
       </c>
       <c r="B186" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D186" s="2" t="n">
@@ -3422,7 +3422,7 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>44102</v>
+        <v>45585</v>
       </c>
       <c r="B187" t="n">
         <v>9</v>
@@ -3433,12 +3433,12 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>45902</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>44103</v>
+        <v>45967</v>
       </c>
       <c r="B188" t="n">
         <v>9</v>
@@ -3449,12 +3449,12 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>45904</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>44877</v>
+        <v>46082</v>
       </c>
       <c r="B189" t="n">
         <v>9</v>
@@ -3465,12 +3465,12 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>45897</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>45134</v>
+        <v>46209</v>
       </c>
       <c r="B190" t="n">
         <v>9</v>
@@ -3481,12 +3481,12 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>45904</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>45335</v>
+        <v>46380</v>
       </c>
       <c r="B191" t="n">
         <v>9</v>
@@ -3497,44 +3497,44 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>45901</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>45586</v>
+        <v>46208</v>
       </c>
       <c r="B192" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>45902</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>45583</v>
+        <v>46638</v>
       </c>
       <c r="B193" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>45889</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>45585</v>
+        <v>46895</v>
       </c>
       <c r="B194" t="n">
         <v>9</v>
@@ -3545,12 +3545,12 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>45896</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>45967</v>
+        <v>46734</v>
       </c>
       <c r="B195" t="n">
         <v>9</v>
@@ -3561,44 +3561,44 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>45902</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>46082</v>
+        <v>46990</v>
       </c>
       <c r="B196" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>45901</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>46209</v>
+        <v>47093</v>
       </c>
       <c r="B197" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>45896</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>46380</v>
+        <v>47362</v>
       </c>
       <c r="B198" t="n">
         <v>9</v>
@@ -3609,44 +3609,44 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>45909</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>46208</v>
+        <v>48263</v>
       </c>
       <c r="B199" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>45881</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>46636</v>
+        <v>48745</v>
       </c>
       <c r="B200" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>45909</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>46638</v>
+        <v>49071</v>
       </c>
       <c r="B201" t="n">
         <v>9</v>
@@ -3657,28 +3657,28 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>45904</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>46895</v>
+        <v>49191</v>
       </c>
       <c r="B202" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>45902</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>46734</v>
+        <v>49189</v>
       </c>
       <c r="B203" t="n">
         <v>9</v>
@@ -3689,28 +3689,28 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>45901</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>46990</v>
+        <v>49302</v>
       </c>
       <c r="B204" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>45909</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>47093</v>
+        <v>49917</v>
       </c>
       <c r="B205" t="n">
         <v>4</v>
@@ -3721,44 +3721,44 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>45882</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>47362</v>
+        <v>49647</v>
       </c>
       <c r="B206" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>45923</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>48263</v>
+        <v>49746</v>
       </c>
       <c r="B207" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>45904</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>48093</v>
+        <v>49924</v>
       </c>
       <c r="B208" t="n">
         <v>4</v>
@@ -3769,28 +3769,28 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>45882</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>48745</v>
+        <v>50308</v>
       </c>
       <c r="B209" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>45901</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>49071</v>
+        <v>50310</v>
       </c>
       <c r="B210" t="n">
         <v>9</v>
@@ -3801,60 +3801,60 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>45919</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>49191</v>
+        <v>50309</v>
       </c>
       <c r="B211" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>45890</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>49189</v>
+        <v>50574</v>
       </c>
       <c r="B212" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>45891</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>49301</v>
+        <v>50575</v>
       </c>
       <c r="B213" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>45891</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>49302</v>
+        <v>50705</v>
       </c>
       <c r="B214" t="n">
         <v>4</v>
@@ -3865,60 +3865,60 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>45890</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>49917</v>
+        <v>50704</v>
       </c>
       <c r="B215" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>45883</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>49647</v>
+        <v>50818</v>
       </c>
       <c r="B216" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>45884</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>49746</v>
+        <v>51156</v>
       </c>
       <c r="B217" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>45889</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>49924</v>
+        <v>51409</v>
       </c>
       <c r="B218" t="n">
         <v>4</v>
@@ -3934,23 +3934,23 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>50308</v>
+        <v>51412</v>
       </c>
       <c r="B219" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>45909</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>50310</v>
+        <v>51506</v>
       </c>
       <c r="B220" t="n">
         <v>9</v>
@@ -3961,12 +3961,12 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>45891</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>50309</v>
+        <v>51581</v>
       </c>
       <c r="B221" t="n">
         <v>9</v>
@@ -3977,124 +3977,124 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>45903</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>50574</v>
+        <v>52216</v>
       </c>
       <c r="B222" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>45882</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>50575</v>
+        <v>52213</v>
       </c>
       <c r="B223" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>45888</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>50705</v>
+        <v>52286</v>
       </c>
       <c r="B224" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>45889</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>50704</v>
+        <v>52283</v>
       </c>
       <c r="B225" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>45881</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>50818</v>
+        <v>52353</v>
       </c>
       <c r="B226" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>45902</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>51156</v>
+        <v>52601</v>
       </c>
       <c r="B227" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>45910</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>51409</v>
+        <v>53159</v>
       </c>
       <c r="B228" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>45889</v>
+        <v>45965</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>51412</v>
+        <v>52714</v>
       </c>
       <c r="B229" t="n">
         <v>4</v>
@@ -4105,12 +4105,12 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>45882</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>51506</v>
+        <v>52965</v>
       </c>
       <c r="B230" t="n">
         <v>9</v>
@@ -4121,28 +4121,28 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>45897</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>51581</v>
+        <v>53402</v>
       </c>
       <c r="B231" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>45894</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>52216</v>
+        <v>53501</v>
       </c>
       <c r="B232" t="n">
         <v>9</v>
@@ -4153,60 +4153,60 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>45894</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>52213</v>
+        <v>53622</v>
       </c>
       <c r="B233" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>45894</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>52286</v>
+        <v>53813</v>
       </c>
       <c r="B234" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>45898</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>52283</v>
+        <v>54552</v>
       </c>
       <c r="B235" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>45895</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>52353</v>
+        <v>54665</v>
       </c>
       <c r="B236" t="n">
         <v>4</v>
@@ -4217,28 +4217,28 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>45889</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>52601</v>
+        <v>54669</v>
       </c>
       <c r="B237" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>45883</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>53159</v>
+        <v>54667</v>
       </c>
       <c r="B238" t="n">
         <v>9</v>
@@ -4249,12 +4249,12 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>45924</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>52714</v>
+        <v>55289</v>
       </c>
       <c r="B239" t="n">
         <v>4</v>
@@ -4265,12 +4265,12 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>45883</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>52965</v>
+        <v>55292</v>
       </c>
       <c r="B240" t="n">
         <v>9</v>
@@ -4281,60 +4281,60 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>45896</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>53402</v>
+        <v>55760</v>
       </c>
       <c r="B241" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>45883</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>53501</v>
+        <v>55761</v>
       </c>
       <c r="B242" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>45891</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>53696</v>
+        <v>55847</v>
       </c>
       <c r="B243" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>45898</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>53622</v>
+        <v>56088</v>
       </c>
       <c r="B244" t="n">
         <v>4</v>
@@ -4345,76 +4345,76 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>45888</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>53813</v>
+        <v>56388</v>
       </c>
       <c r="B245" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>45888</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>54552</v>
+        <v>56905</v>
       </c>
       <c r="B246" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>45882</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>54665</v>
+        <v>56908</v>
       </c>
       <c r="B247" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>45888</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>54669</v>
+        <v>56946</v>
       </c>
       <c r="B248" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>45910</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>54667</v>
+        <v>57038</v>
       </c>
       <c r="B249" t="n">
         <v>9</v>
@@ -4425,12 +4425,12 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>45895</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>55289</v>
+        <v>57194</v>
       </c>
       <c r="B250" t="n">
         <v>4</v>
@@ -4441,12 +4441,12 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>45881</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>55292</v>
+        <v>57596</v>
       </c>
       <c r="B251" t="n">
         <v>9</v>
@@ -4457,28 +4457,28 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>45903</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>55760</v>
+        <v>57660</v>
       </c>
       <c r="B252" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>45904</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>55761</v>
+        <v>58293</v>
       </c>
       <c r="B253" t="n">
         <v>7</v>
@@ -4494,71 +4494,71 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>55847</v>
+        <v>58472</v>
       </c>
       <c r="B254" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>45880</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>56088</v>
+        <v>58490</v>
       </c>
       <c r="B255" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>45890</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>56388</v>
+        <v>58483</v>
       </c>
       <c r="B256" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>45896</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>56905</v>
+        <v>58835</v>
       </c>
       <c r="B257" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>45880</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>56908</v>
+        <v>58841</v>
       </c>
       <c r="B258" t="n">
         <v>9</v>
@@ -4569,44 +4569,44 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>45923</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>56946</v>
+        <v>59103</v>
       </c>
       <c r="B259" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>45883</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>57038</v>
+        <v>59623</v>
       </c>
       <c r="B260" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>45901</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>57194</v>
+        <v>59960</v>
       </c>
       <c r="B261" t="n">
         <v>4</v>
@@ -4617,12 +4617,12 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>45890</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>57596</v>
+        <v>60649</v>
       </c>
       <c r="B262" t="n">
         <v>9</v>
@@ -4633,12 +4633,12 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>45898</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>57660</v>
+        <v>60650</v>
       </c>
       <c r="B263" t="n">
         <v>4</v>
@@ -4649,44 +4649,44 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>45890</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>58293</v>
+        <v>60651</v>
       </c>
       <c r="B264" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>45884</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>58472</v>
+        <v>60784</v>
       </c>
       <c r="B265" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>45923</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>58490</v>
+        <v>60787</v>
       </c>
       <c r="B266" t="n">
         <v>9</v>
@@ -4697,12 +4697,12 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>45903</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>58483</v>
+        <v>61109</v>
       </c>
       <c r="B267" t="n">
         <v>4</v>
@@ -4713,28 +4713,28 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>45890</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>58835</v>
+        <v>61171</v>
       </c>
       <c r="B268" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>45902</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>58841</v>
+        <v>61175</v>
       </c>
       <c r="B269" t="n">
         <v>9</v>
@@ -4745,12 +4745,12 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>45903</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>59103</v>
+        <v>61169</v>
       </c>
       <c r="B270" t="n">
         <v>9</v>
@@ -4761,28 +4761,28 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>45891</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>59623</v>
+        <v>61172</v>
       </c>
       <c r="B271" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>45881</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>59960</v>
+        <v>61259</v>
       </c>
       <c r="B272" t="n">
         <v>4</v>
@@ -4798,7 +4798,7 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>60649</v>
+        <v>61335</v>
       </c>
       <c r="B273" t="n">
         <v>9</v>
@@ -4809,60 +4809,60 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>45895</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>60650</v>
+        <v>61333</v>
       </c>
       <c r="B274" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>45881</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>60651</v>
+        <v>61399</v>
       </c>
       <c r="B275" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>45881</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>60784</v>
+        <v>61945</v>
       </c>
       <c r="B276" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>45882</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>60787</v>
+        <v>62250</v>
       </c>
       <c r="B277" t="n">
         <v>9</v>
@@ -4873,44 +4873,44 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>45896</v>
+        <v>45938</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>61109</v>
+        <v>62372</v>
       </c>
       <c r="B278" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>45889</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>61171</v>
+        <v>63729</v>
       </c>
       <c r="B279" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>45880</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>61175</v>
+        <v>62822</v>
       </c>
       <c r="B280" t="n">
         <v>9</v>
@@ -4921,12 +4921,12 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>45904</v>
+        <v>45932</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>61169</v>
+        <v>63122</v>
       </c>
       <c r="B281" t="n">
         <v>9</v>
@@ -4937,12 +4937,12 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>45903</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>61172</v>
+        <v>63344</v>
       </c>
       <c r="B282" t="n">
         <v>9</v>
@@ -4953,12 +4953,12 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>45894</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>61259</v>
+        <v>64512</v>
       </c>
       <c r="B283" t="n">
         <v>4</v>
@@ -4969,44 +4969,44 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>45880</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>61335</v>
+        <v>65044</v>
       </c>
       <c r="B284" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>45897</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>61333</v>
+        <v>65203</v>
       </c>
       <c r="B285" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>45884</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>61399</v>
+        <v>65423</v>
       </c>
       <c r="B286" t="n">
         <v>9</v>
@@ -5017,12 +5017,12 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>45908</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>61945</v>
+        <v>65856</v>
       </c>
       <c r="B287" t="n">
         <v>9</v>
@@ -5033,12 +5033,12 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>45895</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>62250</v>
+        <v>66071</v>
       </c>
       <c r="B288" t="n">
         <v>9</v>
@@ -5054,7 +5054,7 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>62372</v>
+        <v>66376</v>
       </c>
       <c r="B289" t="n">
         <v>9</v>
@@ -5065,28 +5065,28 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>45895</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>63729</v>
+        <v>66546</v>
       </c>
       <c r="B290" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>45910</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>62822</v>
+        <v>66547</v>
       </c>
       <c r="B291" t="n">
         <v>9</v>
@@ -5097,12 +5097,12 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>45897</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>63122</v>
+        <v>66551</v>
       </c>
       <c r="B292" t="n">
         <v>9</v>
@@ -5113,12 +5113,12 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>45898</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>63344</v>
+        <v>67191</v>
       </c>
       <c r="B293" t="n">
         <v>9</v>
@@ -5129,44 +5129,44 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>45904</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>64512</v>
+        <v>67411</v>
       </c>
       <c r="B294" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>45882</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>65044</v>
+        <v>67471</v>
       </c>
       <c r="B295" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>45888</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>65202</v>
+        <v>67522</v>
       </c>
       <c r="B296" t="n">
         <v>4</v>
@@ -5182,7 +5182,7 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>65203</v>
+        <v>67718</v>
       </c>
       <c r="B297" t="n">
         <v>9</v>
@@ -5193,12 +5193,12 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>45897</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>65423</v>
+        <v>68192</v>
       </c>
       <c r="B298" t="n">
         <v>9</v>
@@ -5209,12 +5209,12 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>45905</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>65856</v>
+        <v>68111</v>
       </c>
       <c r="B299" t="n">
         <v>9</v>
@@ -5225,12 +5225,12 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>45904</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>66071</v>
+        <v>68336</v>
       </c>
       <c r="B300" t="n">
         <v>9</v>
@@ -5241,44 +5241,44 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>45903</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>66376</v>
+        <v>68257</v>
       </c>
       <c r="B301" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>45905</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>66546</v>
+        <v>68701</v>
       </c>
       <c r="B302" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>45884</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>66547</v>
+        <v>68333</v>
       </c>
       <c r="B303" t="n">
         <v>9</v>
@@ -5289,28 +5289,28 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>45902</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>66551</v>
+        <v>68453</v>
       </c>
       <c r="B304" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>45902</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>67191</v>
+        <v>68506</v>
       </c>
       <c r="B305" t="n">
         <v>9</v>
@@ -5321,12 +5321,12 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>45895</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>67411</v>
+        <v>68702</v>
       </c>
       <c r="B306" t="n">
         <v>9</v>
@@ -5337,60 +5337,60 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>45922</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>67413</v>
+        <v>68651</v>
       </c>
       <c r="B307" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>45884</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>67471</v>
+        <v>68652</v>
       </c>
       <c r="B308" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>45889</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>67522</v>
+        <v>68882</v>
       </c>
       <c r="B309" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>45882</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>67718</v>
+        <v>69415</v>
       </c>
       <c r="B310" t="n">
         <v>9</v>
@@ -5401,12 +5401,12 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>45894</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>68192</v>
+        <v>69254</v>
       </c>
       <c r="B311" t="n">
         <v>9</v>
@@ -5417,28 +5417,28 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>45898</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>68111</v>
+        <v>69416</v>
       </c>
       <c r="B312" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>45891</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>68336</v>
+        <v>69286</v>
       </c>
       <c r="B313" t="n">
         <v>9</v>
@@ -5449,44 +5449,44 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>45902</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>68257</v>
+        <v>69288</v>
       </c>
       <c r="B314" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>45888</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>68701</v>
+        <v>69406</v>
       </c>
       <c r="B315" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>45898</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>68333</v>
+        <v>69738</v>
       </c>
       <c r="B316" t="n">
         <v>9</v>
@@ -5497,12 +5497,12 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>45891</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>68453</v>
+        <v>69516</v>
       </c>
       <c r="B317" t="n">
         <v>4</v>
@@ -5513,92 +5513,92 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>45890</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>68506</v>
+        <v>69517</v>
       </c>
       <c r="B318" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>45908</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>68702</v>
+        <v>69658</v>
       </c>
       <c r="B319" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>45919</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>68651</v>
+        <v>69659</v>
       </c>
       <c r="B320" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>45903</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>68652</v>
+        <v>69660</v>
       </c>
       <c r="B321" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>45884</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>68882</v>
+        <v>69889</v>
       </c>
       <c r="B322" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>45923</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>69415</v>
+        <v>70441</v>
       </c>
       <c r="B323" t="n">
         <v>9</v>
@@ -5609,28 +5609,28 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>45902</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>69254</v>
+        <v>70446</v>
       </c>
       <c r="B324" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>45908</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>69416</v>
+        <v>70443</v>
       </c>
       <c r="B325" t="n">
         <v>4</v>
@@ -5641,12 +5641,12 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>45882</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>69286</v>
+        <v>70450</v>
       </c>
       <c r="B326" t="n">
         <v>9</v>
@@ -5657,12 +5657,12 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>45897</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>69288</v>
+        <v>70451</v>
       </c>
       <c r="B327" t="n">
         <v>9</v>
@@ -5673,188 +5673,188 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>45905</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>69406</v>
+        <v>70712</v>
       </c>
       <c r="B328" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>45880</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>69738</v>
+        <v>70905</v>
       </c>
       <c r="B329" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>45902</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>69516</v>
+        <v>70909</v>
       </c>
       <c r="B330" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>45880</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>69517</v>
+        <v>70985</v>
       </c>
       <c r="B331" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>45911</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>69658</v>
+        <v>70991</v>
       </c>
       <c r="B332" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>45910</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>69659</v>
+        <v>70977</v>
       </c>
       <c r="B333" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>45880</v>
+        <v>45937</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>69660</v>
+        <v>71078</v>
       </c>
       <c r="B334" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>45905</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>69889</v>
+        <v>71082</v>
       </c>
       <c r="B335" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>45910</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>70441</v>
+        <v>70978</v>
       </c>
       <c r="B336" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>45897</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>70446</v>
+        <v>71295</v>
       </c>
       <c r="B337" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>45880</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>70443</v>
+        <v>71297</v>
       </c>
       <c r="B338" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>45888</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>70450</v>
+        <v>71705</v>
       </c>
       <c r="B339" t="n">
         <v>9</v>
@@ -5865,12 +5865,12 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>45908</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>70451</v>
+        <v>71710</v>
       </c>
       <c r="B340" t="n">
         <v>9</v>
@@ -5881,60 +5881,60 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>45908</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>70712</v>
+        <v>71697</v>
       </c>
       <c r="B341" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>45882</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>70905</v>
+        <v>71700</v>
       </c>
       <c r="B342" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>45910</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>70909</v>
+        <v>71796</v>
       </c>
       <c r="B343" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>45903</v>
+        <v>45945</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>70985</v>
+        <v>71798</v>
       </c>
       <c r="B344" t="n">
         <v>7</v>
@@ -5945,28 +5945,28 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>45888</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>70991</v>
+        <v>71800</v>
       </c>
       <c r="B345" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>45903</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>70977</v>
+        <v>72012</v>
       </c>
       <c r="B346" t="n">
         <v>9</v>
@@ -5977,28 +5977,28 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>45902</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>71078</v>
+        <v>72217</v>
       </c>
       <c r="B347" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>45888</v>
+        <v>45965</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>71082</v>
+        <v>72932</v>
       </c>
       <c r="B348" t="n">
         <v>9</v>
@@ -6009,12 +6009,12 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>45898</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>70978</v>
+        <v>72228</v>
       </c>
       <c r="B349" t="n">
         <v>4</v>
@@ -6025,28 +6025,28 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>45881</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>71295</v>
+        <v>72218</v>
       </c>
       <c r="B350" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>45884</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>71297</v>
+        <v>72221</v>
       </c>
       <c r="B351" t="n">
         <v>9</v>
@@ -6057,12 +6057,12 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>45902</v>
+        <v>45938</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>71705</v>
+        <v>72542</v>
       </c>
       <c r="B352" t="n">
         <v>9</v>
@@ -6073,28 +6073,28 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>45901</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>71710</v>
+        <v>72543</v>
       </c>
       <c r="B353" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>45904</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>71697</v>
+        <v>72544</v>
       </c>
       <c r="B354" t="n">
         <v>9</v>
@@ -6105,76 +6105,76 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>45891</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>71700</v>
+        <v>72666</v>
       </c>
       <c r="B355" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>45888</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>71796</v>
+        <v>72667</v>
       </c>
       <c r="B356" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>45909</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>71797</v>
+        <v>72948</v>
       </c>
       <c r="B357" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>45883</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>71798</v>
+        <v>73193</v>
       </c>
       <c r="B358" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>45884</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>71800</v>
+        <v>73421</v>
       </c>
       <c r="B359" t="n">
         <v>4</v>
@@ -6185,12 +6185,12 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>45882</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>72012</v>
+        <v>73447</v>
       </c>
       <c r="B360" t="n">
         <v>9</v>
@@ -6201,28 +6201,28 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>45903</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>72217</v>
+        <v>73527</v>
       </c>
       <c r="B361" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>45924</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>72932</v>
+        <v>73497</v>
       </c>
       <c r="B362" t="n">
         <v>9</v>
@@ -6233,44 +6233,44 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>45897</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>72228</v>
+        <v>73498</v>
       </c>
       <c r="B363" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>45883</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>72218</v>
+        <v>73501</v>
       </c>
       <c r="B364" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>45882</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>72221</v>
+        <v>73554</v>
       </c>
       <c r="B365" t="n">
         <v>9</v>
@@ -6281,12 +6281,12 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>45903</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>72542</v>
+        <v>73717</v>
       </c>
       <c r="B366" t="n">
         <v>9</v>
@@ -6297,28 +6297,28 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>45894</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>72543</v>
+        <v>73782</v>
       </c>
       <c r="B367" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>45881</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>72544</v>
+        <v>73783</v>
       </c>
       <c r="B368" t="n">
         <v>9</v>
@@ -6329,76 +6329,76 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>45905</v>
+        <v>45932</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>72666</v>
+        <v>73785</v>
       </c>
       <c r="B369" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>45896</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>72667</v>
+        <v>73793</v>
       </c>
       <c r="B370" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>45896</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>72948</v>
+        <v>73788</v>
       </c>
       <c r="B371" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>45911</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>73193</v>
+        <v>73874</v>
       </c>
       <c r="B372" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>45881</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>73421</v>
+        <v>73915</v>
       </c>
       <c r="B373" t="n">
         <v>4</v>
@@ -6409,12 +6409,12 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>45890</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>73447</v>
+        <v>73916</v>
       </c>
       <c r="B374" t="n">
         <v>9</v>
@@ -6425,28 +6425,28 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>45897</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>73527</v>
+        <v>74190</v>
       </c>
       <c r="B375" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>45909</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>73497</v>
+        <v>74176</v>
       </c>
       <c r="B376" t="n">
         <v>9</v>
@@ -6457,44 +6457,44 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>45898</v>
+        <v>45965</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>73498</v>
+        <v>74183</v>
       </c>
       <c r="B377" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>45909</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>73501</v>
+        <v>74439</v>
       </c>
       <c r="B378" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>45898</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>73554</v>
+        <v>74399</v>
       </c>
       <c r="B379" t="n">
         <v>9</v>
@@ -6505,12 +6505,12 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>45895</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>73717</v>
+        <v>74440</v>
       </c>
       <c r="B380" t="n">
         <v>9</v>
@@ -6521,108 +6521,108 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>45919</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>73782</v>
+        <v>74400</v>
       </c>
       <c r="B381" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>45915</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>73783</v>
+        <v>74710</v>
       </c>
       <c r="B382" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>45897</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>73785</v>
+        <v>74832</v>
       </c>
       <c r="B383" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>45881</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>73793</v>
+        <v>75027</v>
       </c>
       <c r="B384" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>45890</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>73788</v>
+        <v>75143</v>
       </c>
       <c r="B385" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>45903</v>
+        <v>45945</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>73874</v>
+        <v>75147</v>
       </c>
       <c r="B386" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>45904</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>73915</v>
+        <v>75152</v>
       </c>
       <c r="B387" t="n">
         <v>4</v>
@@ -6638,23 +6638,23 @@
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>73916</v>
+        <v>75154</v>
       </c>
       <c r="B388" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>45895</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>74190</v>
+        <v>75313</v>
       </c>
       <c r="B389" t="n">
         <v>9</v>
@@ -6665,12 +6665,12 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>45891</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>74176</v>
+        <v>75399</v>
       </c>
       <c r="B390" t="n">
         <v>9</v>
@@ -6681,12 +6681,12 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>45924</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>74183</v>
+        <v>75655</v>
       </c>
       <c r="B391" t="n">
         <v>9</v>
@@ -6697,12 +6697,12 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>45901</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>74439</v>
+        <v>75660</v>
       </c>
       <c r="B392" t="n">
         <v>4</v>
@@ -6718,7 +6718,7 @@
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>74399</v>
+        <v>75790</v>
       </c>
       <c r="B393" t="n">
         <v>9</v>
@@ -6729,12 +6729,12 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>45891</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>74440</v>
+        <v>75938</v>
       </c>
       <c r="B394" t="n">
         <v>9</v>
@@ -6745,12 +6745,12 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>45902</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>74400</v>
+        <v>75950</v>
       </c>
       <c r="B395" t="n">
         <v>9</v>
@@ -6761,28 +6761,28 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>45891</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>74710</v>
+        <v>76072</v>
       </c>
       <c r="B396" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>45883</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>74832</v>
+        <v>76073</v>
       </c>
       <c r="B397" t="n">
         <v>9</v>
@@ -6793,12 +6793,12 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>45905</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>75027</v>
+        <v>76218</v>
       </c>
       <c r="B398" t="n">
         <v>9</v>
@@ -6809,76 +6809,76 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>45895</v>
+        <v>45932</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>75143</v>
+        <v>76332</v>
       </c>
       <c r="B399" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>45909</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>75147</v>
+        <v>76485</v>
       </c>
       <c r="B400" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>45883</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>75152</v>
+        <v>76623</v>
       </c>
       <c r="B401" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>45882</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>75154</v>
+        <v>76694</v>
       </c>
       <c r="B402" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>45889</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>75313</v>
+        <v>76870</v>
       </c>
       <c r="B403" t="n">
         <v>9</v>
@@ -6889,28 +6889,28 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>45901</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>75311</v>
+        <v>76866</v>
       </c>
       <c r="B404" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>45904</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>75399</v>
+        <v>76869</v>
       </c>
       <c r="B405" t="n">
         <v>9</v>
@@ -6921,28 +6921,28 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>45894</v>
+        <v>45938</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>75649</v>
+        <v>76864</v>
       </c>
       <c r="B406" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>45910</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>75655</v>
+        <v>77050</v>
       </c>
       <c r="B407" t="n">
         <v>9</v>
@@ -6953,28 +6953,28 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>45894</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>75660</v>
+        <v>77267</v>
       </c>
       <c r="B408" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>45880</v>
+        <v>45891</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>75790</v>
+        <v>77262</v>
       </c>
       <c r="B409" t="n">
         <v>9</v>
@@ -6985,12 +6985,12 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>45903</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>75938</v>
+        <v>77756</v>
       </c>
       <c r="B410" t="n">
         <v>9</v>
@@ -7001,12 +7001,12 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>45895</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>75950</v>
+        <v>77830</v>
       </c>
       <c r="B411" t="n">
         <v>9</v>
@@ -7017,12 +7017,12 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>45902</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>76072</v>
+        <v>77831</v>
       </c>
       <c r="B412" t="n">
         <v>9</v>
@@ -7033,28 +7033,28 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>45895</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>76073</v>
+        <v>77834</v>
       </c>
       <c r="B413" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>45901</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>76218</v>
+        <v>77941</v>
       </c>
       <c r="B414" t="n">
         <v>9</v>
@@ -7065,28 +7065,28 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>45897</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>76332</v>
+        <v>78032</v>
       </c>
       <c r="B415" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>45882</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>76334</v>
+        <v>78033</v>
       </c>
       <c r="B416" t="n">
         <v>4</v>
@@ -7097,12 +7097,12 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>45880</v>
+        <v>45882</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>76485</v>
+        <v>78034</v>
       </c>
       <c r="B417" t="n">
         <v>9</v>
@@ -7113,12 +7113,12 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>45895</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>76695</v>
+        <v>78163</v>
       </c>
       <c r="B418" t="n">
         <v>2</v>
@@ -7129,12 +7129,12 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>45922</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>76623</v>
+        <v>78202</v>
       </c>
       <c r="B419" t="n">
         <v>9</v>
@@ -7145,28 +7145,28 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>45894</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>76694</v>
+        <v>78167</v>
       </c>
       <c r="B420" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>45890</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>76870</v>
+        <v>78168</v>
       </c>
       <c r="B421" t="n">
         <v>9</v>
@@ -7177,28 +7177,28 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>45903</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>76866</v>
+        <v>78169</v>
       </c>
       <c r="B422" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>45882</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>76869</v>
+        <v>78285</v>
       </c>
       <c r="B423" t="n">
         <v>9</v>
@@ -7209,28 +7209,28 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>45903</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>76864</v>
+        <v>78287</v>
       </c>
       <c r="B424" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>45882</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>77050</v>
+        <v>78288</v>
       </c>
       <c r="B425" t="n">
         <v>9</v>
@@ -7241,44 +7241,44 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>45897</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>77049</v>
+        <v>78308</v>
       </c>
       <c r="B426" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>45890</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>77267</v>
+        <v>78404</v>
       </c>
       <c r="B427" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>45891</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>77262</v>
+        <v>79166</v>
       </c>
       <c r="B428" t="n">
         <v>9</v>
@@ -7289,28 +7289,28 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>45908</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>77756</v>
+        <v>79162</v>
       </c>
       <c r="B429" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>45905</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>77830</v>
+        <v>79333</v>
       </c>
       <c r="B430" t="n">
         <v>9</v>
@@ -7321,28 +7321,28 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>45898</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>77831</v>
+        <v>79435</v>
       </c>
       <c r="B431" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>45905</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>77834</v>
+        <v>79446</v>
       </c>
       <c r="B432" t="n">
         <v>4</v>
@@ -7353,60 +7353,60 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>45888</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>77941</v>
+        <v>79436</v>
       </c>
       <c r="B433" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>45905</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>78032</v>
+        <v>79425</v>
       </c>
       <c r="B434" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>45903</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>78033</v>
+        <v>79442</v>
       </c>
       <c r="B435" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>45882</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>78034</v>
+        <v>79437</v>
       </c>
       <c r="B436" t="n">
         <v>9</v>
@@ -7417,28 +7417,28 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>45908</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>78163</v>
+        <v>79586</v>
       </c>
       <c r="B437" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>45929</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>78202</v>
+        <v>79587</v>
       </c>
       <c r="B438" t="n">
         <v>9</v>
@@ -7449,76 +7449,76 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>45897</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>78167</v>
+        <v>79588</v>
       </c>
       <c r="B439" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>45908</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>78168</v>
+        <v>79589</v>
       </c>
       <c r="B440" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>45896</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>78169</v>
+        <v>79668</v>
       </c>
       <c r="B441" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>45898</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>78285</v>
+        <v>79660</v>
       </c>
       <c r="B442" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>45894</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>78287</v>
+        <v>79590</v>
       </c>
       <c r="B443" t="n">
         <v>9</v>
@@ -7529,60 +7529,60 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>45896</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>78288</v>
+        <v>79809</v>
       </c>
       <c r="B444" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>45902</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>78308</v>
+        <v>79962</v>
       </c>
       <c r="B445" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>45897</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>78404</v>
+        <v>79963</v>
       </c>
       <c r="B446" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>45890</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>79166</v>
+        <v>79965</v>
       </c>
       <c r="B447" t="n">
         <v>9</v>
@@ -7593,28 +7593,28 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>45894</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>79162</v>
+        <v>79966</v>
       </c>
       <c r="B448" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>45890</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>79333</v>
+        <v>80083</v>
       </c>
       <c r="B449" t="n">
         <v>9</v>
@@ -7625,28 +7625,28 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>45894</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>79435</v>
+        <v>80086</v>
       </c>
       <c r="B450" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>45890</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>79446</v>
+        <v>80072</v>
       </c>
       <c r="B451" t="n">
         <v>4</v>
@@ -7657,44 +7657,44 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>45881</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>79436</v>
+        <v>80073</v>
       </c>
       <c r="B452" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>45888</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>79425</v>
+        <v>80198</v>
       </c>
       <c r="B453" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>45881</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>79442</v>
+        <v>80199</v>
       </c>
       <c r="B454" t="n">
         <v>9</v>
@@ -7705,28 +7705,28 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>45898</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>79437</v>
+        <v>80318</v>
       </c>
       <c r="B455" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>45895</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>79586</v>
+        <v>80317</v>
       </c>
       <c r="B456" t="n">
         <v>9</v>
@@ -7737,12 +7737,12 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>45898</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>79587</v>
+        <v>80415</v>
       </c>
       <c r="B457" t="n">
         <v>9</v>
@@ -7753,28 +7753,28 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>45894</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>79588</v>
+        <v>80547</v>
       </c>
       <c r="B458" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>45884</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>79589</v>
+        <v>80635</v>
       </c>
       <c r="B459" t="n">
         <v>4</v>
@@ -7785,342 +7785,38 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>45890</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>79668</v>
+        <v>80636</v>
       </c>
       <c r="B460" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>45884</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>79660</v>
+        <v>80707</v>
       </c>
       <c r="B461" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>45880</v>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" t="n">
-        <v>79590</v>
-      </c>
-      <c r="B462" t="n">
-        <v>9</v>
-      </c>
-      <c r="C462" t="inlineStr">
-        <is>
-          <t>En Ruta</t>
-        </is>
-      </c>
-      <c r="D462" s="2" t="n">
-        <v>45898</v>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" t="n">
-        <v>79809</v>
-      </c>
-      <c r="B463" t="n">
-        <v>4</v>
-      </c>
-      <c r="C463" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-      <c r="D463" s="2" t="n">
-        <v>45880</v>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" t="n">
-        <v>79962</v>
-      </c>
-      <c r="B464" t="n">
-        <v>4</v>
-      </c>
-      <c r="C464" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-      <c r="D464" s="2" t="n">
-        <v>45889</v>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" t="n">
-        <v>79963</v>
-      </c>
-      <c r="B465" t="n">
-        <v>7</v>
-      </c>
-      <c r="C465" t="inlineStr">
-        <is>
-          <t>Por Reprogramar</t>
-        </is>
-      </c>
-      <c r="D465" s="2" t="n">
-        <v>45884</v>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" t="n">
-        <v>79965</v>
-      </c>
-      <c r="B466" t="n">
-        <v>9</v>
-      </c>
-      <c r="C466" t="inlineStr">
-        <is>
-          <t>En Ruta</t>
-        </is>
-      </c>
-      <c r="D466" s="2" t="n">
-        <v>45896</v>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" t="n">
-        <v>79966</v>
-      </c>
-      <c r="B467" t="n">
-        <v>9</v>
-      </c>
-      <c r="C467" t="inlineStr">
-        <is>
-          <t>En Ruta</t>
-        </is>
-      </c>
-      <c r="D467" s="2" t="n">
-        <v>45895</v>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" t="n">
-        <v>80083</v>
-      </c>
-      <c r="B468" t="n">
-        <v>9</v>
-      </c>
-      <c r="C468" t="inlineStr">
-        <is>
-          <t>En Ruta</t>
-        </is>
-      </c>
-      <c r="D468" s="2" t="n">
-        <v>45922</v>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" t="n">
-        <v>80086</v>
-      </c>
-      <c r="B469" t="n">
-        <v>9</v>
-      </c>
-      <c r="C469" t="inlineStr">
-        <is>
-          <t>En Ruta</t>
-        </is>
-      </c>
-      <c r="D469" s="2" t="n">
-        <v>45898</v>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" t="n">
-        <v>80072</v>
-      </c>
-      <c r="B470" t="n">
-        <v>4</v>
-      </c>
-      <c r="C470" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-      <c r="D470" s="2" t="n">
-        <v>45880</v>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" t="n">
-        <v>80073</v>
-      </c>
-      <c r="B471" t="n">
-        <v>9</v>
-      </c>
-      <c r="C471" t="inlineStr">
-        <is>
-          <t>En Ruta</t>
-        </is>
-      </c>
-      <c r="D471" s="2" t="n">
-        <v>45897</v>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" t="n">
-        <v>80198</v>
-      </c>
-      <c r="B472" t="n">
-        <v>9</v>
-      </c>
-      <c r="C472" t="inlineStr">
-        <is>
-          <t>En Ruta</t>
-        </is>
-      </c>
-      <c r="D472" s="2" t="n">
-        <v>45895</v>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" t="n">
-        <v>80199</v>
-      </c>
-      <c r="B473" t="n">
-        <v>9</v>
-      </c>
-      <c r="C473" t="inlineStr">
-        <is>
-          <t>En Ruta</t>
-        </is>
-      </c>
-      <c r="D473" s="2" t="n">
-        <v>45894</v>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" t="n">
-        <v>80318</v>
-      </c>
-      <c r="B474" t="n">
-        <v>4</v>
-      </c>
-      <c r="C474" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-      <c r="D474" s="2" t="n">
-        <v>45881</v>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" t="n">
-        <v>80317</v>
-      </c>
-      <c r="B475" t="n">
-        <v>9</v>
-      </c>
-      <c r="C475" t="inlineStr">
-        <is>
-          <t>En Ruta</t>
-        </is>
-      </c>
-      <c r="D475" s="2" t="n">
-        <v>45894</v>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="n">
-        <v>80415</v>
-      </c>
-      <c r="B476" t="n">
-        <v>9</v>
-      </c>
-      <c r="C476" t="inlineStr">
-        <is>
-          <t>En Ruta</t>
-        </is>
-      </c>
-      <c r="D476" s="2" t="n">
-        <v>45922</v>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="n">
-        <v>80547</v>
-      </c>
-      <c r="B477" t="n">
-        <v>9</v>
-      </c>
-      <c r="C477" t="inlineStr">
-        <is>
-          <t>En Ruta</t>
-        </is>
-      </c>
-      <c r="D477" s="2" t="n">
-        <v>45896</v>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="n">
-        <v>80635</v>
-      </c>
-      <c r="B478" t="n">
-        <v>4</v>
-      </c>
-      <c r="C478" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-      <c r="D478" s="2" t="n">
-        <v>45889</v>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="n">
-        <v>80636</v>
-      </c>
-      <c r="B479" t="n">
-        <v>4</v>
-      </c>
-      <c r="C479" t="inlineStr">
-        <is>
-          <t>Migrado</t>
-        </is>
-      </c>
-      <c r="D479" s="2" t="n">
-        <v>45888</v>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="n">
-        <v>80707</v>
-      </c>
-      <c r="B480" t="n">
-        <v>7</v>
-      </c>
-      <c r="C480" t="inlineStr">
-        <is>
-          <t>Por Reprogramar</t>
-        </is>
-      </c>
-      <c r="D480" s="2" t="n">
         <v>45882</v>
       </c>
     </row>
@@ -8162,7 +7858,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3">
@@ -8172,7 +7868,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4">
@@ -8182,7 +7878,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
@@ -8192,7 +7888,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
+++ b/Resultado/estado_gestion_Paquete_1_Medellin.xlsx
@@ -897,11 +897,11 @@
         <v>15970</v>
       </c>
       <c r="B29" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
@@ -1825,11 +1825,11 @@
         <v>29138</v>
       </c>
       <c r="B87" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D87" s="2" t="n">
@@ -2289,11 +2289,11 @@
         <v>34786</v>
       </c>
       <c r="B116" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D116" s="2" t="n">
@@ -2369,11 +2369,11 @@
         <v>35402</v>
       </c>
       <c r="B121" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D121" s="2" t="n">
@@ -2689,11 +2689,11 @@
         <v>37708</v>
       </c>
       <c r="B141" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D141" s="2" t="n">
@@ -3681,11 +3681,11 @@
         <v>49189</v>
       </c>
       <c r="B203" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D203" s="2" t="n">
@@ -3793,11 +3793,11 @@
         <v>50310</v>
       </c>
       <c r="B210" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D210" s="2" t="n">
@@ -4577,11 +4577,11 @@
         <v>59103</v>
       </c>
       <c r="B259" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D259" s="2" t="n">
@@ -5217,11 +5217,11 @@
         <v>68111</v>
       </c>
       <c r="B299" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D299" s="2" t="n">
@@ -5281,11 +5281,11 @@
         <v>68333</v>
       </c>
       <c r="B303" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D303" s="2" t="n">
@@ -6529,11 +6529,11 @@
         <v>74400</v>
       </c>
       <c r="B381" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D381" s="2" t="n">
@@ -6961,11 +6961,11 @@
         <v>77267</v>
       </c>
       <c r="B408" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D408" s="2" t="n">
@@ -7858,7 +7858,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3">
@@ -7868,7 +7868,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4">
@@ -7878,7 +7878,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
